--- a/TRADE_LIST.xlsx
+++ b/TRADE_LIST.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Balaji Lp\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Balaji Lp\Documents\stock_updates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E81FF31-52A8-403D-8977-0DDC5778C545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{714F4D70-B9C1-49A6-97A7-32C6564D9CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{20DEF1ED-0919-437D-AD3F-D3C8E402565E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{20DEF1ED-0919-437D-AD3F-D3C8E402565E}"/>
   </bookViews>
   <sheets>
     <sheet name="AUGUST" sheetId="1" r:id="rId1"/>
@@ -119,7 +119,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,6 +310,18 @@
     <font>
       <sz val="7"/>
       <color rgb="FF64B70B"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF64B70B"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFF54D4D"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -441,7 +453,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -508,6 +520,8 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="34" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -824,8 +838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB095D83-4B35-4E3C-B8AA-78F6A8D5ABB6}">
   <dimension ref="A1:AC29"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T26" sqref="T26"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z24" sqref="Z24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2240,45 +2254,11 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="N14:O14"/>
     <mergeCell ref="N15:O15"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="G15:H15"/>
@@ -2295,11 +2275,45 @@
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="G12:H12"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="U20:V20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2310,8 +2324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA03EABC-A62C-48C6-8225-3AF4DEACBF10}">
   <dimension ref="A1:AC25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2409,6 +2423,9 @@
       </c>
       <c r="D2" s="61">
         <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="E2" s="66">
+        <v>8.3999999999999995E-3</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
@@ -2430,6 +2447,9 @@
       <c r="D3" s="61">
         <v>3.5999999999999999E-3</v>
       </c>
+      <c r="E3" s="66">
+        <v>1.9400000000000001E-2</v>
+      </c>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
       <c r="O3" s="10"/>
@@ -2450,6 +2470,9 @@
       <c r="D4" s="61">
         <v>1.15E-2</v>
       </c>
+      <c r="E4" s="67">
+        <v>-6.8999999999999999E-3</v>
+      </c>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
       <c r="O4" s="10"/>
@@ -2470,6 +2493,9 @@
       <c r="D5" s="62">
         <v>-3.27E-2</v>
       </c>
+      <c r="E5" s="67">
+        <v>-8.2000000000000007E-3</v>
+      </c>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
       <c r="O5" s="10"/>
@@ -2490,6 +2516,12 @@
       <c r="D6" s="62">
         <v>-2E-3</v>
       </c>
+      <c r="E6" s="67">
+        <v>-4.7000000000000002E-3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
       <c r="O6" s="10"/>
@@ -2510,7 +2542,10 @@
       <c r="D7" s="62">
         <v>-1.8E-3</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="67">
+        <v>-8.0999999999999996E-3</v>
+      </c>
+      <c r="F7" t="s">
         <v>24</v>
       </c>
       <c r="H7" s="10"/>
@@ -2533,8 +2568,8 @@
       <c r="D8" s="61">
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="E8" t="s">
-        <v>24</v>
+      <c r="E8" s="66">
+        <v>6.4000000000000003E-3</v>
       </c>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
@@ -2556,7 +2591,10 @@
       <c r="D9" s="62">
         <v>-1.6899999999999998E-2</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="67">
+        <v>-2.4199999999999999E-2</v>
+      </c>
+      <c r="F9" t="s">
         <v>24</v>
       </c>
       <c r="H9" s="10"/>
@@ -2579,6 +2617,9 @@
       <c r="D10" s="62">
         <v>-4.0000000000000002E-4</v>
       </c>
+      <c r="E10" s="67">
+        <v>-1.67E-2</v>
+      </c>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
       <c r="O10" s="10"/>
@@ -2599,6 +2640,9 @@
       <c r="D11" s="62">
         <v>-1.8E-3</v>
       </c>
+      <c r="E11" s="67">
+        <v>-5.1000000000000004E-3</v>
+      </c>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
       <c r="O11" s="10"/>
@@ -2619,6 +2663,9 @@
       <c r="D12" s="61">
         <v>2.1299999999999999E-2</v>
       </c>
+      <c r="E12" s="66">
+        <v>1.84E-2</v>
+      </c>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
       <c r="O12" s="10"/>
@@ -2639,6 +2686,9 @@
       <c r="D13" s="62">
         <v>-5.1999999999999998E-3</v>
       </c>
+      <c r="E13" s="67">
+        <v>-6.4000000000000003E-3</v>
+      </c>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
       <c r="O13" s="10"/>
@@ -2659,6 +2709,9 @@
       <c r="D14" s="61">
         <v>1.2800000000000001E-2</v>
       </c>
+      <c r="E14" s="66">
+        <v>9.9000000000000008E-3</v>
+      </c>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
       <c r="O14" s="10"/>
@@ -2679,6 +2732,9 @@
       <c r="D15" s="61">
         <v>4.02E-2</v>
       </c>
+      <c r="E15" s="66">
+        <v>9.4999999999999998E-3</v>
+      </c>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
       <c r="O15" s="10"/>
@@ -2699,6 +2755,9 @@
       <c r="D16" s="61">
         <v>1.5E-3</v>
       </c>
+      <c r="E16" s="67">
+        <v>-2.9999999999999997E-4</v>
+      </c>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
       <c r="O16" s="10"/>
@@ -2719,7 +2778,10 @@
       <c r="D17" s="62">
         <v>-1.4200000000000001E-2</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="66">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F17" t="s">
         <v>24</v>
       </c>
       <c r="H17" s="10"/>
@@ -2742,6 +2804,9 @@
       <c r="D18" s="61">
         <v>1.2800000000000001E-2</v>
       </c>
+      <c r="E18" s="67">
+        <v>-1.2E-2</v>
+      </c>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
       <c r="O18" s="10"/>
@@ -2762,6 +2827,9 @@
       <c r="D19" s="62">
         <v>-5.9999999999999995E-4</v>
       </c>
+      <c r="E19" s="67">
+        <v>-1.8599999999999998E-2</v>
+      </c>
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
       <c r="O19" s="10"/>
@@ -2782,6 +2850,9 @@
       <c r="D20" s="61">
         <v>5.6099999999999997E-2</v>
       </c>
+      <c r="E20" s="66">
+        <v>2.1899999999999999E-2</v>
+      </c>
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
       <c r="O20" s="10"/>
@@ -2802,6 +2873,9 @@
       <c r="D21" s="62">
         <v>-2.5000000000000001E-3</v>
       </c>
+      <c r="E21" s="66">
+        <v>1.1999999999999999E-3</v>
+      </c>
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
       <c r="O21" s="10"/>
@@ -2822,6 +2896,9 @@
       <c r="D22" s="62">
         <v>-9.2999999999999992E-3</v>
       </c>
+      <c r="E22" s="67">
+        <v>-7.0000000000000001E-3</v>
+      </c>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
       <c r="O22" s="10"/>
@@ -2842,6 +2919,9 @@
       <c r="D23" s="61">
         <v>7.6E-3</v>
       </c>
+      <c r="E23" s="67">
+        <v>-1.6299999999999999E-2</v>
+      </c>
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
       <c r="O23" s="10"/>
@@ -2861,6 +2941,9 @@
       </c>
       <c r="D24" s="62">
         <v>-8.3000000000000001E-3</v>
+      </c>
+      <c r="E24" s="67">
+        <v>-5.7999999999999996E-3</v>
       </c>
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
@@ -2883,17 +2966,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
@@ -2906,6 +2978,17 @@
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TRADE_LIST.xlsx
+++ b/TRADE_LIST.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Balaji Lp\Documents\stock_updates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Balaji Lp\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{714F4D70-B9C1-49A6-97A7-32C6564D9CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF4AA57-A1FF-4A47-A6A5-D10E8B4F7DF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{20DEF1ED-0919-437D-AD3F-D3C8E402565E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{20DEF1ED-0919-437D-AD3F-D3C8E402565E}"/>
   </bookViews>
   <sheets>
     <sheet name="AUGUST" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="25">
   <si>
     <t>MONEY'S</t>
   </si>
@@ -119,7 +119,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -327,6 +327,12 @@
     </font>
     <font>
       <sz val="7"/>
+      <color rgb="FFF54D4D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
       <color rgb="FF64B70B"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -334,6 +340,12 @@
     <font>
       <sz val="7"/>
       <color rgb="FFF54D4D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF64B70B"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -453,7 +465,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -517,11 +529,13 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="32" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="33" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="34" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="35" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -838,8 +852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB095D83-4B35-4E3C-B8AA-78F6A8D5ABB6}">
   <dimension ref="A1:AC29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z24" sqref="Z24"/>
+    <sheetView topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AF9" sqref="AF9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -961,10 +975,10 @@
       <c r="F2" s="11">
         <v>-1.89E-2</v>
       </c>
-      <c r="G2" s="63" t="s">
+      <c r="G2" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="65"/>
+      <c r="H2" s="67"/>
       <c r="I2" s="15">
         <v>-6.4000000000000003E-3</v>
       </c>
@@ -978,10 +992,10 @@
       <c r="M2" s="23">
         <v>9.1999999999999998E-3</v>
       </c>
-      <c r="N2" s="63" t="s">
+      <c r="N2" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="64"/>
+      <c r="O2" s="66"/>
       <c r="P2" s="41"/>
       <c r="Q2" s="34">
         <v>2.0999999999999999E-3</v>
@@ -993,10 +1007,10 @@
       <c r="T2" s="43">
         <v>-1.9599999999999999E-2</v>
       </c>
-      <c r="U2" s="63" t="s">
+      <c r="U2" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="V2" s="64"/>
+      <c r="V2" s="66"/>
       <c r="W2" s="48">
         <v>1.6799999999999999E-2</v>
       </c>
@@ -1034,10 +1048,10 @@
       <c r="F3" s="11">
         <v>-1.8499999999999999E-2</v>
       </c>
-      <c r="G3" s="63" t="s">
+      <c r="G3" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="65"/>
+      <c r="H3" s="67"/>
       <c r="I3" s="16">
         <v>1.4200000000000001E-2</v>
       </c>
@@ -1051,10 +1065,10 @@
       <c r="M3" s="23">
         <v>0</v>
       </c>
-      <c r="N3" s="63" t="s">
+      <c r="N3" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="64"/>
+      <c r="O3" s="66"/>
       <c r="P3" s="35">
         <v>-3.2000000000000002E-3</v>
       </c>
@@ -1070,10 +1084,10 @@
       <c r="T3" s="43">
         <v>-7.6E-3</v>
       </c>
-      <c r="U3" s="63" t="s">
+      <c r="U3" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="V3" s="64"/>
+      <c r="V3" s="66"/>
       <c r="W3" s="49">
         <v>-1.9E-3</v>
       </c>
@@ -1113,10 +1127,10 @@
       <c r="F4" s="11">
         <v>-8.2000000000000007E-3</v>
       </c>
-      <c r="G4" s="63" t="s">
+      <c r="G4" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="65"/>
+      <c r="H4" s="67"/>
       <c r="I4" s="15">
         <v>-1.9E-3</v>
       </c>
@@ -1130,10 +1144,10 @@
       <c r="M4" s="25">
         <v>-3.3E-3</v>
       </c>
-      <c r="N4" s="63" t="s">
+      <c r="N4" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="O4" s="64"/>
+      <c r="O4" s="66"/>
       <c r="P4" s="41"/>
       <c r="Q4" s="34">
         <v>1.34E-2</v>
@@ -1145,10 +1159,10 @@
       <c r="T4" s="42">
         <v>0</v>
       </c>
-      <c r="U4" s="63" t="s">
+      <c r="U4" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="V4" s="64"/>
+      <c r="V4" s="66"/>
       <c r="W4" s="48">
         <v>2.3800000000000002E-2</v>
       </c>
@@ -1186,10 +1200,10 @@
       <c r="F5" s="12">
         <v>0.1152</v>
       </c>
-      <c r="G5" s="63" t="s">
+      <c r="G5" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="65"/>
+      <c r="H5" s="67"/>
       <c r="I5" s="16">
         <v>2.9399999999999999E-2</v>
       </c>
@@ -1203,10 +1217,10 @@
       <c r="M5" s="25">
         <v>-3.6600000000000001E-2</v>
       </c>
-      <c r="N5" s="63" t="s">
+      <c r="N5" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="O5" s="64"/>
+      <c r="O5" s="66"/>
       <c r="P5" s="41"/>
       <c r="Q5" s="34">
         <v>1.7100000000000001E-2</v>
@@ -1218,10 +1232,10 @@
       <c r="T5" s="43">
         <v>-2.6499999999999999E-2</v>
       </c>
-      <c r="U5" s="63" t="s">
+      <c r="U5" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="V5" s="64"/>
+      <c r="V5" s="66"/>
       <c r="W5" s="48">
         <v>4.4499999999999998E-2</v>
       </c>
@@ -1259,10 +1273,10 @@
       <c r="F6" s="11">
         <v>-3.2300000000000002E-2</v>
       </c>
-      <c r="G6" s="63" t="s">
+      <c r="G6" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="65"/>
+      <c r="H6" s="67"/>
       <c r="I6" s="15">
         <v>-2.8799999999999999E-2</v>
       </c>
@@ -1276,10 +1290,10 @@
       <c r="M6" s="23">
         <v>1.03E-2</v>
       </c>
-      <c r="N6" s="63" t="s">
+      <c r="N6" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="O6" s="64"/>
+      <c r="O6" s="66"/>
       <c r="P6" s="41"/>
       <c r="Q6" s="34">
         <v>1.78E-2</v>
@@ -1291,10 +1305,10 @@
       <c r="T6" s="43">
         <v>-8.3000000000000001E-3</v>
       </c>
-      <c r="U6" s="63" t="s">
+      <c r="U6" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="V6" s="64"/>
+      <c r="V6" s="66"/>
       <c r="W6" s="48">
         <v>1.1900000000000001E-2</v>
       </c>
@@ -1332,10 +1346,10 @@
       <c r="F7" s="13">
         <v>-2.5600000000000001E-2</v>
       </c>
-      <c r="G7" s="63" t="s">
+      <c r="G7" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="65"/>
+      <c r="H7" s="67"/>
       <c r="I7" s="17">
         <v>4.0000000000000001E-3</v>
       </c>
@@ -1349,10 +1363,10 @@
       <c r="M7" s="27">
         <v>-3.5999999999999999E-3</v>
       </c>
-      <c r="N7" s="63" t="s">
+      <c r="N7" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="O7" s="64"/>
+      <c r="O7" s="66"/>
       <c r="P7" s="37"/>
       <c r="Q7" s="36">
         <v>5.0000000000000001E-3</v>
@@ -1364,10 +1378,10 @@
       <c r="T7" s="46">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="U7" s="63" t="s">
+      <c r="U7" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="V7" s="64"/>
+      <c r="V7" s="66"/>
       <c r="W7" s="49">
         <v>-1.4500000000000001E-2</v>
       </c>
@@ -1405,10 +1419,10 @@
       <c r="F8" s="12">
         <v>1.3100000000000001E-2</v>
       </c>
-      <c r="G8" s="63" t="s">
+      <c r="G8" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="65"/>
+      <c r="H8" s="67"/>
       <c r="I8" s="16">
         <v>1.3299999999999999E-2</v>
       </c>
@@ -1422,10 +1436,10 @@
       <c r="M8" s="25">
         <v>-1.7999999999999999E-2</v>
       </c>
-      <c r="N8" s="63" t="s">
+      <c r="N8" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="O8" s="64"/>
+      <c r="O8" s="66"/>
       <c r="P8" s="41"/>
       <c r="Q8" s="35">
         <v>-1.26E-2</v>
@@ -1437,10 +1451,10 @@
       <c r="T8" s="43">
         <v>-1.6199999999999999E-2</v>
       </c>
-      <c r="U8" s="63" t="s">
+      <c r="U8" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="V8" s="64"/>
+      <c r="V8" s="66"/>
       <c r="W8" s="49">
         <v>-2.7300000000000001E-2</v>
       </c>
@@ -1480,10 +1494,10 @@
       <c r="F9" s="12">
         <v>0.04</v>
       </c>
-      <c r="G9" s="63" t="s">
+      <c r="G9" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="65"/>
+      <c r="H9" s="67"/>
       <c r="I9" s="16">
         <v>3.5000000000000001E-3</v>
       </c>
@@ -1497,10 +1511,10 @@
       <c r="M9" s="23">
         <v>1.49E-2</v>
       </c>
-      <c r="N9" s="63" t="s">
+      <c r="N9" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="O9" s="64"/>
+      <c r="O9" s="66"/>
       <c r="P9" s="41"/>
       <c r="Q9" s="35">
         <v>-1.3299999999999999E-2</v>
@@ -1512,10 +1526,10 @@
       <c r="T9" s="42">
         <v>2.06E-2</v>
       </c>
-      <c r="U9" s="63" t="s">
+      <c r="U9" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="V9" s="64"/>
+      <c r="V9" s="66"/>
       <c r="W9" s="49">
         <v>-1.2E-2</v>
       </c>
@@ -1553,10 +1567,10 @@
       <c r="F10" s="12">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="G10" s="63" t="s">
+      <c r="G10" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="65"/>
+      <c r="H10" s="67"/>
       <c r="I10" s="15">
         <v>-1.7899999999999999E-2</v>
       </c>
@@ -1570,10 +1584,10 @@
       <c r="M10" s="25">
         <v>-2.2000000000000001E-3</v>
       </c>
-      <c r="N10" s="63" t="s">
+      <c r="N10" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="O10" s="64"/>
+      <c r="O10" s="66"/>
       <c r="P10" s="41"/>
       <c r="Q10" s="34">
         <v>5.5999999999999999E-3</v>
@@ -1585,10 +1599,10 @@
       <c r="T10" s="43">
         <v>-1.14E-2</v>
       </c>
-      <c r="U10" s="63" t="s">
+      <c r="U10" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="V10" s="64"/>
+      <c r="V10" s="66"/>
       <c r="W10" s="48">
         <v>6.0000000000000001E-3</v>
       </c>
@@ -1626,10 +1640,10 @@
       <c r="F11" s="11">
         <v>-1.2699999999999999E-2</v>
       </c>
-      <c r="G11" s="63" t="s">
+      <c r="G11" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="65"/>
+      <c r="H11" s="67"/>
       <c r="I11" s="15">
         <v>-4.0000000000000002E-4</v>
       </c>
@@ -1643,10 +1657,10 @@
       <c r="M11" s="25">
         <v>-1.7000000000000001E-2</v>
       </c>
-      <c r="N11" s="63" t="s">
+      <c r="N11" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="O11" s="64"/>
+      <c r="O11" s="66"/>
       <c r="P11" s="41"/>
       <c r="Q11" s="35">
         <v>-4.5999999999999999E-3</v>
@@ -1658,10 +1672,10 @@
       <c r="T11" s="43">
         <v>-8.0000000000000002E-3</v>
       </c>
-      <c r="U11" s="63" t="s">
+      <c r="U11" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="V11" s="64"/>
+      <c r="V11" s="66"/>
       <c r="W11" s="49">
         <v>-4.1999999999999997E-3</v>
       </c>
@@ -1699,10 +1713,10 @@
       <c r="F12" s="12">
         <v>3.7199999999999997E-2</v>
       </c>
-      <c r="G12" s="63" t="s">
+      <c r="G12" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="65"/>
+      <c r="H12" s="67"/>
       <c r="I12" s="16">
         <v>3.4700000000000002E-2</v>
       </c>
@@ -1716,10 +1730,10 @@
       <c r="M12" s="23">
         <v>1.78E-2</v>
       </c>
-      <c r="N12" s="63" t="s">
+      <c r="N12" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="O12" s="64"/>
+      <c r="O12" s="66"/>
       <c r="P12" s="41"/>
       <c r="Q12" s="35">
         <v>-5.2200000000000003E-2</v>
@@ -1731,10 +1745,10 @@
       <c r="T12" s="42">
         <v>1.15E-2</v>
       </c>
-      <c r="U12" s="63" t="s">
+      <c r="U12" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="V12" s="64"/>
+      <c r="V12" s="66"/>
       <c r="W12" s="48">
         <v>2.5499999999999998E-2</v>
       </c>
@@ -1772,10 +1786,10 @@
       <c r="F13" s="11">
         <v>-1.35E-2</v>
       </c>
-      <c r="G13" s="63" t="s">
+      <c r="G13" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="65"/>
+      <c r="H13" s="67"/>
       <c r="I13" s="16">
         <v>2.3E-3</v>
       </c>
@@ -1789,10 +1803,10 @@
       <c r="M13" s="25">
         <v>-1.4E-2</v>
       </c>
-      <c r="N13" s="63" t="s">
+      <c r="N13" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="O13" s="64"/>
+      <c r="O13" s="66"/>
       <c r="P13" s="41"/>
       <c r="Q13" s="34">
         <v>6.0000000000000001E-3</v>
@@ -1804,10 +1818,10 @@
       <c r="T13" s="43">
         <v>-7.3000000000000001E-3</v>
       </c>
-      <c r="U13" s="63" t="s">
+      <c r="U13" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="V13" s="64"/>
+      <c r="V13" s="66"/>
       <c r="W13" s="49">
         <v>-4.3E-3</v>
       </c>
@@ -1845,10 +1859,10 @@
       <c r="F14" s="13">
         <v>-6.7999999999999996E-3</v>
       </c>
-      <c r="G14" s="63" t="s">
+      <c r="G14" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="65"/>
+      <c r="H14" s="67"/>
       <c r="I14" s="16">
         <v>4.0000000000000002E-4</v>
       </c>
@@ -1862,10 +1876,10 @@
       <c r="M14" s="29">
         <v>1.5E-3</v>
       </c>
-      <c r="N14" s="63" t="s">
+      <c r="N14" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="O14" s="64"/>
+      <c r="O14" s="66"/>
       <c r="P14" s="47">
         <v>1.34</v>
       </c>
@@ -1879,10 +1893,10 @@
       <c r="T14" s="43">
         <v>-1.67E-2</v>
       </c>
-      <c r="U14" s="63" t="s">
+      <c r="U14" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="V14" s="64"/>
+      <c r="V14" s="66"/>
       <c r="W14" s="49">
         <v>-4.4999999999999997E-3</v>
       </c>
@@ -1910,10 +1924,10 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="14"/>
-      <c r="G15" s="63" t="s">
+      <c r="G15" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="65"/>
+      <c r="H15" s="67"/>
       <c r="I15" s="18"/>
       <c r="J15" s="10"/>
       <c r="K15" s="19">
@@ -1925,10 +1939,10 @@
       <c r="M15" s="23">
         <v>8.6E-3</v>
       </c>
-      <c r="N15" s="63" t="s">
+      <c r="N15" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="O15" s="64"/>
+      <c r="O15" s="66"/>
       <c r="P15" s="41"/>
       <c r="Q15" s="34">
         <v>5.9999999999999995E-4</v>
@@ -1940,10 +1954,10 @@
       <c r="T15" s="43">
         <v>-1.4E-3</v>
       </c>
-      <c r="U15" s="63" t="s">
+      <c r="U15" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="V15" s="64"/>
+      <c r="V15" s="66"/>
       <c r="W15" s="48">
         <v>8.0000000000000004E-4</v>
       </c>
@@ -1963,17 +1977,17 @@
       <c r="AC15" s="10"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="N16" s="63" t="s">
+      <c r="N16" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="O16" s="64"/>
+      <c r="O16" s="66"/>
       <c r="T16" s="43">
         <v>-2.9899999999999999E-2</v>
       </c>
-      <c r="U16" s="63" t="s">
+      <c r="U16" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="V16" s="64"/>
+      <c r="V16" s="66"/>
       <c r="W16" s="48">
         <v>1.46E-2</v>
       </c>
@@ -1993,17 +2007,17 @@
       <c r="AC16" s="10"/>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="N17" s="63" t="s">
+      <c r="N17" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="O17" s="64"/>
+      <c r="O17" s="66"/>
       <c r="T17" s="43">
         <v>-2.1700000000000001E-2</v>
       </c>
-      <c r="U17" s="63" t="s">
+      <c r="U17" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="V17" s="64"/>
+      <c r="V17" s="66"/>
       <c r="W17" s="48">
         <v>2.7000000000000001E-3</v>
       </c>
@@ -2025,17 +2039,17 @@
       <c r="AC17" s="10"/>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="N18" s="63" t="s">
+      <c r="N18" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="O18" s="64"/>
+      <c r="O18" s="66"/>
       <c r="T18" s="43">
         <v>-4.3E-3</v>
       </c>
-      <c r="U18" s="63" t="s">
+      <c r="U18" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="V18" s="64"/>
+      <c r="V18" s="66"/>
       <c r="W18" s="48">
         <v>2.4199999999999999E-2</v>
       </c>
@@ -2055,17 +2069,17 @@
       <c r="AC18" s="10"/>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="N19" s="63" t="s">
+      <c r="N19" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="O19" s="64"/>
+      <c r="O19" s="66"/>
       <c r="T19" s="43">
         <v>-8.3999999999999995E-3</v>
       </c>
-      <c r="U19" s="63" t="s">
+      <c r="U19" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="V19" s="64"/>
+      <c r="V19" s="66"/>
       <c r="W19" s="48">
         <v>3.8999999999999998E-3</v>
       </c>
@@ -2085,17 +2099,17 @@
       <c r="AC19" s="10"/>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="N20" s="63" t="s">
+      <c r="N20" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="O20" s="64"/>
+      <c r="O20" s="66"/>
       <c r="T20" s="43">
         <v>-3.0999999999999999E-3</v>
       </c>
-      <c r="U20" s="63" t="s">
+      <c r="U20" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="V20" s="64"/>
+      <c r="V20" s="66"/>
       <c r="W20" s="49">
         <v>-8.0000000000000004E-4</v>
       </c>
@@ -2117,17 +2131,17 @@
       <c r="AC20" s="10"/>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="N21" s="63" t="s">
+      <c r="N21" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="O21" s="64"/>
+      <c r="O21" s="66"/>
       <c r="T21" s="43">
         <v>-5.7999999999999996E-3</v>
       </c>
-      <c r="U21" s="63" t="s">
+      <c r="U21" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="V21" s="64"/>
+      <c r="V21" s="66"/>
       <c r="W21" s="48">
         <v>6.7999999999999996E-3</v>
       </c>
@@ -2147,17 +2161,17 @@
       <c r="AC21" s="10"/>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="N22" s="63" t="s">
+      <c r="N22" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="O22" s="64"/>
+      <c r="O22" s="66"/>
       <c r="T22" s="43">
         <v>-1.26E-2</v>
       </c>
-      <c r="U22" s="63" t="s">
+      <c r="U22" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="V22" s="64"/>
+      <c r="V22" s="66"/>
       <c r="W22" s="49">
         <v>-2.5000000000000001E-3</v>
       </c>
@@ -2177,17 +2191,17 @@
       <c r="AC22" s="10"/>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="N23" s="63" t="s">
+      <c r="N23" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="O23" s="64"/>
+      <c r="O23" s="66"/>
       <c r="T23" s="43">
         <v>-3.8E-3</v>
       </c>
-      <c r="U23" s="63" t="s">
+      <c r="U23" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="V23" s="64"/>
+      <c r="V23" s="66"/>
       <c r="W23" s="49">
         <v>-8.0000000000000004E-4</v>
       </c>
@@ -2208,17 +2222,17 @@
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
-      <c r="N24" s="63" t="s">
+      <c r="N24" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="O24" s="64"/>
+      <c r="O24" s="66"/>
       <c r="T24" s="43">
         <v>-2.7099999999999999E-2</v>
       </c>
-      <c r="U24" s="63" t="s">
+      <c r="U24" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="V24" s="64"/>
+      <c r="V24" s="66"/>
       <c r="W24" s="49">
         <v>-1.11E-2</v>
       </c>
@@ -2254,11 +2268,45 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
     <mergeCell ref="N15:O15"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="G15:H15"/>
@@ -2275,45 +2323,11 @@
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="N14:O14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2324,8 +2338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA03EABC-A62C-48C6-8225-3AF4DEACBF10}">
   <dimension ref="A1:AC25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2414,18 +2428,21 @@
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="64"/>
+      <c r="B2" s="66"/>
       <c r="C2" s="58">
         <v>2.0999999999999999E-3</v>
       </c>
       <c r="D2" s="61">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="E2" s="66">
-        <v>8.3999999999999995E-3</v>
+      <c r="E2" s="64">
+        <v>-6.7000000000000002E-3</v>
+      </c>
+      <c r="F2" s="69">
+        <v>-4.4999999999999997E-3</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
@@ -2437,18 +2454,21 @@
       <c r="AC2" s="10"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="64"/>
+      <c r="B3" s="66"/>
       <c r="C3" s="58">
         <v>1.12E-2</v>
       </c>
       <c r="D3" s="61">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="E3" s="66">
-        <v>1.9400000000000001E-2</v>
+      <c r="E3" s="64">
+        <v>-3.8E-3</v>
+      </c>
+      <c r="F3" s="68">
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
@@ -2460,18 +2480,21 @@
       <c r="AC3" s="10"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="64"/>
+      <c r="B4" s="66"/>
       <c r="C4" s="59">
         <v>-5.1999999999999998E-3</v>
       </c>
       <c r="D4" s="61">
         <v>1.15E-2</v>
       </c>
-      <c r="E4" s="67">
-        <v>-6.8999999999999999E-3</v>
+      <c r="E4" s="63">
+        <v>8.3000000000000001E-3</v>
+      </c>
+      <c r="F4" s="68">
+        <v>1.72E-2</v>
       </c>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
@@ -2483,18 +2506,21 @@
       <c r="AC4" s="10"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="64"/>
+      <c r="B5" s="66"/>
       <c r="C5" s="58">
         <v>2.18E-2</v>
       </c>
       <c r="D5" s="62">
         <v>-3.27E-2</v>
       </c>
-      <c r="E5" s="67">
-        <v>-8.2000000000000007E-3</v>
+      <c r="E5" s="63">
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="F5" s="68">
+        <v>1.6899999999999998E-2</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
@@ -2506,21 +2532,21 @@
       <c r="AC5" s="10"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="64"/>
+      <c r="B6" s="66"/>
       <c r="C6" s="59">
         <v>-6.9999999999999999E-4</v>
       </c>
       <c r="D6" s="62">
         <v>-2E-3</v>
       </c>
-      <c r="E6" s="67">
-        <v>-4.7000000000000002E-3</v>
-      </c>
-      <c r="F6" t="s">
-        <v>24</v>
+      <c r="E6" s="63">
+        <v>2.1100000000000001E-2</v>
+      </c>
+      <c r="F6" s="69">
+        <v>-3.5499999999999997E-2</v>
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
@@ -2532,21 +2558,21 @@
       <c r="AC6" s="10"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="64"/>
+      <c r="B7" s="66"/>
       <c r="C7" s="59">
         <v>-1.9E-3</v>
       </c>
       <c r="D7" s="62">
         <v>-1.8E-3</v>
       </c>
-      <c r="E7" s="67">
-        <v>-8.0999999999999996E-3</v>
-      </c>
-      <c r="F7" t="s">
-        <v>24</v>
+      <c r="E7" s="64">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="F7" s="68">
+        <v>1.8E-3</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
@@ -2558,18 +2584,21 @@
       <c r="AC7" s="10"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="64"/>
+      <c r="B8" s="66"/>
       <c r="C8" s="59">
         <v>-2.52E-2</v>
       </c>
       <c r="D8" s="61">
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="E8" s="66">
-        <v>6.4000000000000003E-3</v>
+      <c r="E8" s="63">
+        <v>4.9200000000000001E-2</v>
+      </c>
+      <c r="F8" s="68">
+        <v>1.7600000000000001E-2</v>
       </c>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
@@ -2581,21 +2610,21 @@
       <c r="AC8" s="10"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="64"/>
+      <c r="B9" s="66"/>
       <c r="C9" s="59">
         <v>-9.4000000000000004E-3</v>
       </c>
       <c r="D9" s="62">
         <v>-1.6899999999999998E-2</v>
       </c>
-      <c r="E9" s="67">
-        <v>-2.4199999999999999E-2</v>
-      </c>
-      <c r="F9" t="s">
-        <v>24</v>
+      <c r="E9" s="64">
+        <v>-1.7100000000000001E-2</v>
+      </c>
+      <c r="F9" s="69">
+        <v>-2.9999999999999997E-4</v>
       </c>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
@@ -2607,18 +2636,21 @@
       <c r="AC9" s="10"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A10" s="63" t="s">
+      <c r="A10" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="64"/>
+      <c r="B10" s="66"/>
       <c r="C10" s="58">
         <v>3.6999999999999998E-2</v>
       </c>
       <c r="D10" s="62">
         <v>-4.0000000000000002E-4</v>
       </c>
-      <c r="E10" s="67">
-        <v>-1.67E-2</v>
+      <c r="E10" s="63">
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="F10" s="69">
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
@@ -2630,18 +2662,21 @@
       <c r="AC10" s="10"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="64"/>
+      <c r="B11" s="66"/>
       <c r="C11" s="58">
         <v>1.7399999999999999E-2</v>
       </c>
       <c r="D11" s="62">
         <v>-1.8E-3</v>
       </c>
-      <c r="E11" s="67">
-        <v>-5.1000000000000004E-3</v>
+      <c r="E11" s="63">
+        <v>1.6299999999999999E-2</v>
+      </c>
+      <c r="F11" s="69">
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
@@ -2653,18 +2688,21 @@
       <c r="AC11" s="10"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A12" s="63" t="s">
+      <c r="A12" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="64"/>
+      <c r="B12" s="66"/>
       <c r="C12" s="58">
         <v>3.3700000000000001E-2</v>
       </c>
       <c r="D12" s="61">
         <v>2.1299999999999999E-2</v>
       </c>
-      <c r="E12" s="66">
-        <v>1.84E-2</v>
+      <c r="E12" s="64">
+        <v>-2.5000000000000001E-3</v>
+      </c>
+      <c r="F12" s="68">
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
@@ -2676,18 +2714,21 @@
       <c r="AC12" s="10"/>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A13" s="63" t="s">
+      <c r="A13" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="64"/>
+      <c r="B13" s="66"/>
       <c r="C13" s="58">
         <v>4.2599999999999999E-2</v>
       </c>
       <c r="D13" s="62">
         <v>-5.1999999999999998E-3</v>
       </c>
-      <c r="E13" s="67">
-        <v>-6.4000000000000003E-3</v>
+      <c r="E13" s="63">
+        <v>8.3000000000000001E-3</v>
+      </c>
+      <c r="F13" s="69">
+        <v>-6.6E-3</v>
       </c>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
@@ -2699,18 +2740,21 @@
       <c r="AC13" s="10"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A14" s="63" t="s">
+      <c r="A14" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="64"/>
+      <c r="B14" s="66"/>
       <c r="C14" s="59">
         <v>-8.0000000000000002E-3</v>
       </c>
       <c r="D14" s="61">
         <v>1.2800000000000001E-2</v>
       </c>
-      <c r="E14" s="66">
-        <v>9.9000000000000008E-3</v>
+      <c r="E14" s="64">
+        <v>-3.5000000000000001E-3</v>
+      </c>
+      <c r="F14" s="69">
+        <v>-7.3000000000000001E-3</v>
       </c>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
@@ -2722,18 +2766,21 @@
       <c r="AC14" s="10"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A15" s="63" t="s">
+      <c r="A15" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="64"/>
+      <c r="B15" s="66"/>
       <c r="C15" s="59">
         <v>-1.1000000000000001E-3</v>
       </c>
       <c r="D15" s="61">
         <v>4.02E-2</v>
       </c>
-      <c r="E15" s="66">
-        <v>9.4999999999999998E-3</v>
+      <c r="E15" s="63">
+        <v>7.4000000000000003E-3</v>
+      </c>
+      <c r="F15" s="69">
+        <v>-7.6E-3</v>
       </c>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
@@ -2745,18 +2792,21 @@
       <c r="AC15" s="10"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A16" s="63" t="s">
+      <c r="A16" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="64"/>
+      <c r="B16" s="66"/>
       <c r="C16" s="58">
         <v>8.6999999999999994E-3</v>
       </c>
       <c r="D16" s="61">
         <v>1.5E-3</v>
       </c>
-      <c r="E16" s="67">
-        <v>-2.9999999999999997E-4</v>
+      <c r="E16" s="63">
+        <v>1.8800000000000001E-2</v>
+      </c>
+      <c r="F16" s="69">
+        <v>-4.4999999999999997E-3</v>
       </c>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
@@ -2768,21 +2818,21 @@
       <c r="AC16" s="10"/>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A17" s="63" t="s">
+      <c r="A17" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="64"/>
+      <c r="B17" s="66"/>
       <c r="C17" s="58">
         <v>1.4500000000000001E-2</v>
       </c>
       <c r="D17" s="62">
         <v>-1.4200000000000001E-2</v>
       </c>
-      <c r="E17" s="66">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="F17" t="s">
-        <v>24</v>
+      <c r="E17" s="63">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="F17" s="69">
+        <v>-5.5999999999999999E-3</v>
       </c>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
@@ -2794,18 +2844,21 @@
       <c r="AC17" s="10"/>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A18" s="63" t="s">
+      <c r="A18" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="64"/>
+      <c r="B18" s="66"/>
       <c r="C18" s="58">
         <v>1.7399999999999999E-2</v>
       </c>
       <c r="D18" s="61">
         <v>1.2800000000000001E-2</v>
       </c>
-      <c r="E18" s="67">
-        <v>-1.2E-2</v>
+      <c r="E18" s="64">
+        <v>-3.5999999999999999E-3</v>
+      </c>
+      <c r="F18" s="69">
+        <v>-8.0000000000000004E-4</v>
       </c>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
@@ -2817,18 +2870,21 @@
       <c r="AC18" s="10"/>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A19" s="63" t="s">
+      <c r="A19" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="64"/>
+      <c r="B19" s="66"/>
       <c r="C19" s="58">
         <v>3.4200000000000001E-2</v>
       </c>
       <c r="D19" s="62">
         <v>-5.9999999999999995E-4</v>
       </c>
-      <c r="E19" s="67">
-        <v>-1.8599999999999998E-2</v>
+      <c r="E19" s="63">
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="F19" s="69">
+        <v>-6.0000000000000001E-3</v>
       </c>
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
@@ -2840,18 +2896,21 @@
       <c r="AC19" s="10"/>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A20" s="63" t="s">
+      <c r="A20" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="64"/>
+      <c r="B20" s="66"/>
       <c r="C20" s="58">
         <v>6.9999999999999999E-4</v>
       </c>
       <c r="D20" s="61">
         <v>5.6099999999999997E-2</v>
       </c>
-      <c r="E20" s="66">
-        <v>2.1899999999999999E-2</v>
+      <c r="E20" s="64">
+        <v>-1.1299999999999999E-2</v>
+      </c>
+      <c r="F20" s="69">
+        <v>-1.15E-2</v>
       </c>
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
@@ -2863,18 +2922,21 @@
       <c r="AC20" s="10"/>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A21" s="63" t="s">
+      <c r="A21" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="64"/>
+      <c r="B21" s="66"/>
       <c r="C21" s="58">
         <v>5.3E-3</v>
       </c>
       <c r="D21" s="62">
         <v>-2.5000000000000001E-3</v>
       </c>
-      <c r="E21" s="66">
-        <v>1.1999999999999999E-3</v>
+      <c r="E21" s="63">
+        <v>7.7999999999999996E-3</v>
+      </c>
+      <c r="F21" s="68">
+        <v>1.6199999999999999E-2</v>
       </c>
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
@@ -2886,18 +2948,21 @@
       <c r="AC21" s="10"/>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A22" s="63" t="s">
+      <c r="A22" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="64"/>
+      <c r="B22" s="66"/>
       <c r="C22" s="58">
         <v>4.6600000000000003E-2</v>
       </c>
       <c r="D22" s="62">
         <v>-9.2999999999999992E-3</v>
       </c>
-      <c r="E22" s="67">
-        <v>-7.0000000000000001E-3</v>
+      <c r="E22" s="63">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="F22" s="68">
+        <v>7.7999999999999996E-3</v>
       </c>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
@@ -2909,18 +2974,21 @@
       <c r="AC22" s="10"/>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A23" s="63" t="s">
+      <c r="A23" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="64"/>
+      <c r="B23" s="66"/>
       <c r="C23" s="58">
         <v>5.4100000000000002E-2</v>
       </c>
       <c r="D23" s="61">
         <v>7.6E-3</v>
       </c>
-      <c r="E23" s="67">
-        <v>-1.6299999999999999E-2</v>
+      <c r="E23" s="64">
+        <v>-1.89E-2</v>
+      </c>
+      <c r="F23" s="69">
+        <v>-4.7000000000000002E-3</v>
       </c>
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
@@ -2932,18 +3000,21 @@
       <c r="AC23" s="10"/>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A24" s="63" t="s">
+      <c r="A24" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="64"/>
+      <c r="B24" s="66"/>
       <c r="C24" s="58">
         <v>4.0899999999999999E-2</v>
       </c>
       <c r="D24" s="62">
         <v>-8.3000000000000001E-3</v>
       </c>
-      <c r="E24" s="67">
-        <v>-5.7999999999999996E-3</v>
+      <c r="E24" s="63">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="F24" s="69">
+        <v>-6.1999999999999998E-3</v>
       </c>
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
@@ -2966,6 +3037,17 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
@@ -2978,17 +3060,6 @@
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TRADE_LIST.xlsx
+++ b/TRADE_LIST.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Balaji Lp\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Balaji Lp\Documents\stock_updates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF4AA57-A1FF-4A47-A6A5-D10E8B4F7DF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C77976C-1C0C-4356-A3D8-D11E9DA2E021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{20DEF1ED-0919-437D-AD3F-D3C8E402565E}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="26">
   <si>
     <t>MONEY'S</t>
   </si>
@@ -114,12 +114,15 @@
   <si>
     <t>v</t>
   </si>
+  <si>
+    <t>PETRONETLNG</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="37" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,6 +349,18 @@
     <font>
       <sz val="7"/>
       <color rgb="FF64B70B"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF64B70B"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFF54D4D"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -465,7 +480,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -531,11 +546,13 @@
     <xf numFmtId="10" fontId="32" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="34" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="33" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="35" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="35" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="38" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -975,10 +992,10 @@
       <c r="F2" s="11">
         <v>-1.89E-2</v>
       </c>
-      <c r="G2" s="65" t="s">
+      <c r="G2" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="67"/>
+      <c r="H2" s="69"/>
       <c r="I2" s="15">
         <v>-6.4000000000000003E-3</v>
       </c>
@@ -992,10 +1009,10 @@
       <c r="M2" s="23">
         <v>9.1999999999999998E-3</v>
       </c>
-      <c r="N2" s="65" t="s">
+      <c r="N2" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="66"/>
+      <c r="O2" s="68"/>
       <c r="P2" s="41"/>
       <c r="Q2" s="34">
         <v>2.0999999999999999E-3</v>
@@ -1007,10 +1024,10 @@
       <c r="T2" s="43">
         <v>-1.9599999999999999E-2</v>
       </c>
-      <c r="U2" s="65" t="s">
+      <c r="U2" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="V2" s="66"/>
+      <c r="V2" s="68"/>
       <c r="W2" s="48">
         <v>1.6799999999999999E-2</v>
       </c>
@@ -1048,10 +1065,10 @@
       <c r="F3" s="11">
         <v>-1.8499999999999999E-2</v>
       </c>
-      <c r="G3" s="65" t="s">
+      <c r="G3" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="67"/>
+      <c r="H3" s="69"/>
       <c r="I3" s="16">
         <v>1.4200000000000001E-2</v>
       </c>
@@ -1065,10 +1082,10 @@
       <c r="M3" s="23">
         <v>0</v>
       </c>
-      <c r="N3" s="65" t="s">
+      <c r="N3" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="66"/>
+      <c r="O3" s="68"/>
       <c r="P3" s="35">
         <v>-3.2000000000000002E-3</v>
       </c>
@@ -1084,10 +1101,10 @@
       <c r="T3" s="43">
         <v>-7.6E-3</v>
       </c>
-      <c r="U3" s="65" t="s">
+      <c r="U3" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="V3" s="66"/>
+      <c r="V3" s="68"/>
       <c r="W3" s="49">
         <v>-1.9E-3</v>
       </c>
@@ -1127,10 +1144,10 @@
       <c r="F4" s="11">
         <v>-8.2000000000000007E-3</v>
       </c>
-      <c r="G4" s="65" t="s">
+      <c r="G4" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="67"/>
+      <c r="H4" s="69"/>
       <c r="I4" s="15">
         <v>-1.9E-3</v>
       </c>
@@ -1144,10 +1161,10 @@
       <c r="M4" s="25">
         <v>-3.3E-3</v>
       </c>
-      <c r="N4" s="65" t="s">
+      <c r="N4" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="O4" s="66"/>
+      <c r="O4" s="68"/>
       <c r="P4" s="41"/>
       <c r="Q4" s="34">
         <v>1.34E-2</v>
@@ -1159,10 +1176,10 @@
       <c r="T4" s="42">
         <v>0</v>
       </c>
-      <c r="U4" s="65" t="s">
+      <c r="U4" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="V4" s="66"/>
+      <c r="V4" s="68"/>
       <c r="W4" s="48">
         <v>2.3800000000000002E-2</v>
       </c>
@@ -1200,10 +1217,10 @@
       <c r="F5" s="12">
         <v>0.1152</v>
       </c>
-      <c r="G5" s="65" t="s">
+      <c r="G5" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="67"/>
+      <c r="H5" s="69"/>
       <c r="I5" s="16">
         <v>2.9399999999999999E-2</v>
       </c>
@@ -1217,10 +1234,10 @@
       <c r="M5" s="25">
         <v>-3.6600000000000001E-2</v>
       </c>
-      <c r="N5" s="65" t="s">
+      <c r="N5" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="O5" s="66"/>
+      <c r="O5" s="68"/>
       <c r="P5" s="41"/>
       <c r="Q5" s="34">
         <v>1.7100000000000001E-2</v>
@@ -1232,10 +1249,10 @@
       <c r="T5" s="43">
         <v>-2.6499999999999999E-2</v>
       </c>
-      <c r="U5" s="65" t="s">
+      <c r="U5" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="V5" s="66"/>
+      <c r="V5" s="68"/>
       <c r="W5" s="48">
         <v>4.4499999999999998E-2</v>
       </c>
@@ -1273,10 +1290,10 @@
       <c r="F6" s="11">
         <v>-3.2300000000000002E-2</v>
       </c>
-      <c r="G6" s="65" t="s">
+      <c r="G6" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="67"/>
+      <c r="H6" s="69"/>
       <c r="I6" s="15">
         <v>-2.8799999999999999E-2</v>
       </c>
@@ -1290,10 +1307,10 @@
       <c r="M6" s="23">
         <v>1.03E-2</v>
       </c>
-      <c r="N6" s="65" t="s">
+      <c r="N6" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="O6" s="66"/>
+      <c r="O6" s="68"/>
       <c r="P6" s="41"/>
       <c r="Q6" s="34">
         <v>1.78E-2</v>
@@ -1305,10 +1322,10 @@
       <c r="T6" s="43">
         <v>-8.3000000000000001E-3</v>
       </c>
-      <c r="U6" s="65" t="s">
+      <c r="U6" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="V6" s="66"/>
+      <c r="V6" s="68"/>
       <c r="W6" s="48">
         <v>1.1900000000000001E-2</v>
       </c>
@@ -1346,10 +1363,10 @@
       <c r="F7" s="13">
         <v>-2.5600000000000001E-2</v>
       </c>
-      <c r="G7" s="65" t="s">
+      <c r="G7" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="67"/>
+      <c r="H7" s="69"/>
       <c r="I7" s="17">
         <v>4.0000000000000001E-3</v>
       </c>
@@ -1363,10 +1380,10 @@
       <c r="M7" s="27">
         <v>-3.5999999999999999E-3</v>
       </c>
-      <c r="N7" s="65" t="s">
+      <c r="N7" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="O7" s="66"/>
+      <c r="O7" s="68"/>
       <c r="P7" s="37"/>
       <c r="Q7" s="36">
         <v>5.0000000000000001E-3</v>
@@ -1378,10 +1395,10 @@
       <c r="T7" s="46">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="U7" s="65" t="s">
+      <c r="U7" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="V7" s="66"/>
+      <c r="V7" s="68"/>
       <c r="W7" s="49">
         <v>-1.4500000000000001E-2</v>
       </c>
@@ -1419,10 +1436,10 @@
       <c r="F8" s="12">
         <v>1.3100000000000001E-2</v>
       </c>
-      <c r="G8" s="65" t="s">
+      <c r="G8" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="67"/>
+      <c r="H8" s="69"/>
       <c r="I8" s="16">
         <v>1.3299999999999999E-2</v>
       </c>
@@ -1436,10 +1453,10 @@
       <c r="M8" s="25">
         <v>-1.7999999999999999E-2</v>
       </c>
-      <c r="N8" s="65" t="s">
+      <c r="N8" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="O8" s="66"/>
+      <c r="O8" s="68"/>
       <c r="P8" s="41"/>
       <c r="Q8" s="35">
         <v>-1.26E-2</v>
@@ -1451,10 +1468,10 @@
       <c r="T8" s="43">
         <v>-1.6199999999999999E-2</v>
       </c>
-      <c r="U8" s="65" t="s">
+      <c r="U8" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="V8" s="66"/>
+      <c r="V8" s="68"/>
       <c r="W8" s="49">
         <v>-2.7300000000000001E-2</v>
       </c>
@@ -1494,10 +1511,10 @@
       <c r="F9" s="12">
         <v>0.04</v>
       </c>
-      <c r="G9" s="65" t="s">
+      <c r="G9" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="67"/>
+      <c r="H9" s="69"/>
       <c r="I9" s="16">
         <v>3.5000000000000001E-3</v>
       </c>
@@ -1511,10 +1528,10 @@
       <c r="M9" s="23">
         <v>1.49E-2</v>
       </c>
-      <c r="N9" s="65" t="s">
+      <c r="N9" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="O9" s="66"/>
+      <c r="O9" s="68"/>
       <c r="P9" s="41"/>
       <c r="Q9" s="35">
         <v>-1.3299999999999999E-2</v>
@@ -1526,10 +1543,10 @@
       <c r="T9" s="42">
         <v>2.06E-2</v>
       </c>
-      <c r="U9" s="65" t="s">
+      <c r="U9" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="V9" s="66"/>
+      <c r="V9" s="68"/>
       <c r="W9" s="49">
         <v>-1.2E-2</v>
       </c>
@@ -1567,10 +1584,10 @@
       <c r="F10" s="12">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="G10" s="65" t="s">
+      <c r="G10" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="67"/>
+      <c r="H10" s="69"/>
       <c r="I10" s="15">
         <v>-1.7899999999999999E-2</v>
       </c>
@@ -1584,10 +1601,10 @@
       <c r="M10" s="25">
         <v>-2.2000000000000001E-3</v>
       </c>
-      <c r="N10" s="65" t="s">
+      <c r="N10" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="O10" s="66"/>
+      <c r="O10" s="68"/>
       <c r="P10" s="41"/>
       <c r="Q10" s="34">
         <v>5.5999999999999999E-3</v>
@@ -1599,10 +1616,10 @@
       <c r="T10" s="43">
         <v>-1.14E-2</v>
       </c>
-      <c r="U10" s="65" t="s">
+      <c r="U10" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="V10" s="66"/>
+      <c r="V10" s="68"/>
       <c r="W10" s="48">
         <v>6.0000000000000001E-3</v>
       </c>
@@ -1640,10 +1657,10 @@
       <c r="F11" s="11">
         <v>-1.2699999999999999E-2</v>
       </c>
-      <c r="G11" s="65" t="s">
+      <c r="G11" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="67"/>
+      <c r="H11" s="69"/>
       <c r="I11" s="15">
         <v>-4.0000000000000002E-4</v>
       </c>
@@ -1657,10 +1674,10 @@
       <c r="M11" s="25">
         <v>-1.7000000000000001E-2</v>
       </c>
-      <c r="N11" s="65" t="s">
+      <c r="N11" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="O11" s="66"/>
+      <c r="O11" s="68"/>
       <c r="P11" s="41"/>
       <c r="Q11" s="35">
         <v>-4.5999999999999999E-3</v>
@@ -1672,10 +1689,10 @@
       <c r="T11" s="43">
         <v>-8.0000000000000002E-3</v>
       </c>
-      <c r="U11" s="65" t="s">
+      <c r="U11" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="V11" s="66"/>
+      <c r="V11" s="68"/>
       <c r="W11" s="49">
         <v>-4.1999999999999997E-3</v>
       </c>
@@ -1713,10 +1730,10 @@
       <c r="F12" s="12">
         <v>3.7199999999999997E-2</v>
       </c>
-      <c r="G12" s="65" t="s">
+      <c r="G12" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="67"/>
+      <c r="H12" s="69"/>
       <c r="I12" s="16">
         <v>3.4700000000000002E-2</v>
       </c>
@@ -1730,10 +1747,10 @@
       <c r="M12" s="23">
         <v>1.78E-2</v>
       </c>
-      <c r="N12" s="65" t="s">
+      <c r="N12" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="O12" s="66"/>
+      <c r="O12" s="68"/>
       <c r="P12" s="41"/>
       <c r="Q12" s="35">
         <v>-5.2200000000000003E-2</v>
@@ -1745,10 +1762,10 @@
       <c r="T12" s="42">
         <v>1.15E-2</v>
       </c>
-      <c r="U12" s="65" t="s">
+      <c r="U12" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="V12" s="66"/>
+      <c r="V12" s="68"/>
       <c r="W12" s="48">
         <v>2.5499999999999998E-2</v>
       </c>
@@ -1786,10 +1803,10 @@
       <c r="F13" s="11">
         <v>-1.35E-2</v>
       </c>
-      <c r="G13" s="65" t="s">
+      <c r="G13" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="67"/>
+      <c r="H13" s="69"/>
       <c r="I13" s="16">
         <v>2.3E-3</v>
       </c>
@@ -1803,10 +1820,10 @@
       <c r="M13" s="25">
         <v>-1.4E-2</v>
       </c>
-      <c r="N13" s="65" t="s">
+      <c r="N13" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="O13" s="66"/>
+      <c r="O13" s="68"/>
       <c r="P13" s="41"/>
       <c r="Q13" s="34">
         <v>6.0000000000000001E-3</v>
@@ -1818,10 +1835,10 @@
       <c r="T13" s="43">
         <v>-7.3000000000000001E-3</v>
       </c>
-      <c r="U13" s="65" t="s">
+      <c r="U13" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="V13" s="66"/>
+      <c r="V13" s="68"/>
       <c r="W13" s="49">
         <v>-4.3E-3</v>
       </c>
@@ -1859,10 +1876,10 @@
       <c r="F14" s="13">
         <v>-6.7999999999999996E-3</v>
       </c>
-      <c r="G14" s="65" t="s">
+      <c r="G14" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="67"/>
+      <c r="H14" s="69"/>
       <c r="I14" s="16">
         <v>4.0000000000000002E-4</v>
       </c>
@@ -1876,10 +1893,10 @@
       <c r="M14" s="29">
         <v>1.5E-3</v>
       </c>
-      <c r="N14" s="65" t="s">
+      <c r="N14" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="O14" s="66"/>
+      <c r="O14" s="68"/>
       <c r="P14" s="47">
         <v>1.34</v>
       </c>
@@ -1893,10 +1910,10 @@
       <c r="T14" s="43">
         <v>-1.67E-2</v>
       </c>
-      <c r="U14" s="65" t="s">
+      <c r="U14" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="V14" s="66"/>
+      <c r="V14" s="68"/>
       <c r="W14" s="49">
         <v>-4.4999999999999997E-3</v>
       </c>
@@ -1924,10 +1941,10 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="14"/>
-      <c r="G15" s="65" t="s">
+      <c r="G15" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="67"/>
+      <c r="H15" s="69"/>
       <c r="I15" s="18"/>
       <c r="J15" s="10"/>
       <c r="K15" s="19">
@@ -1939,10 +1956,10 @@
       <c r="M15" s="23">
         <v>8.6E-3</v>
       </c>
-      <c r="N15" s="65" t="s">
+      <c r="N15" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="O15" s="66"/>
+      <c r="O15" s="68"/>
       <c r="P15" s="41"/>
       <c r="Q15" s="34">
         <v>5.9999999999999995E-4</v>
@@ -1954,10 +1971,10 @@
       <c r="T15" s="43">
         <v>-1.4E-3</v>
       </c>
-      <c r="U15" s="65" t="s">
+      <c r="U15" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="V15" s="66"/>
+      <c r="V15" s="68"/>
       <c r="W15" s="48">
         <v>8.0000000000000004E-4</v>
       </c>
@@ -1977,17 +1994,17 @@
       <c r="AC15" s="10"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="N16" s="65" t="s">
+      <c r="N16" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="O16" s="66"/>
+      <c r="O16" s="68"/>
       <c r="T16" s="43">
         <v>-2.9899999999999999E-2</v>
       </c>
-      <c r="U16" s="65" t="s">
+      <c r="U16" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="V16" s="66"/>
+      <c r="V16" s="68"/>
       <c r="W16" s="48">
         <v>1.46E-2</v>
       </c>
@@ -2007,17 +2024,17 @@
       <c r="AC16" s="10"/>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="N17" s="65" t="s">
+      <c r="N17" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="O17" s="66"/>
+      <c r="O17" s="68"/>
       <c r="T17" s="43">
         <v>-2.1700000000000001E-2</v>
       </c>
-      <c r="U17" s="65" t="s">
+      <c r="U17" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="V17" s="66"/>
+      <c r="V17" s="68"/>
       <c r="W17" s="48">
         <v>2.7000000000000001E-3</v>
       </c>
@@ -2039,17 +2056,17 @@
       <c r="AC17" s="10"/>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="N18" s="65" t="s">
+      <c r="N18" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="O18" s="66"/>
+      <c r="O18" s="68"/>
       <c r="T18" s="43">
         <v>-4.3E-3</v>
       </c>
-      <c r="U18" s="65" t="s">
+      <c r="U18" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="V18" s="66"/>
+      <c r="V18" s="68"/>
       <c r="W18" s="48">
         <v>2.4199999999999999E-2</v>
       </c>
@@ -2069,17 +2086,17 @@
       <c r="AC18" s="10"/>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="N19" s="65" t="s">
+      <c r="N19" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="O19" s="66"/>
+      <c r="O19" s="68"/>
       <c r="T19" s="43">
         <v>-8.3999999999999995E-3</v>
       </c>
-      <c r="U19" s="65" t="s">
+      <c r="U19" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="V19" s="66"/>
+      <c r="V19" s="68"/>
       <c r="W19" s="48">
         <v>3.8999999999999998E-3</v>
       </c>
@@ -2099,17 +2116,17 @@
       <c r="AC19" s="10"/>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="N20" s="65" t="s">
+      <c r="N20" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="O20" s="66"/>
+      <c r="O20" s="68"/>
       <c r="T20" s="43">
         <v>-3.0999999999999999E-3</v>
       </c>
-      <c r="U20" s="65" t="s">
+      <c r="U20" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="V20" s="66"/>
+      <c r="V20" s="68"/>
       <c r="W20" s="49">
         <v>-8.0000000000000004E-4</v>
       </c>
@@ -2131,17 +2148,17 @@
       <c r="AC20" s="10"/>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="N21" s="65" t="s">
+      <c r="N21" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="O21" s="66"/>
+      <c r="O21" s="68"/>
       <c r="T21" s="43">
         <v>-5.7999999999999996E-3</v>
       </c>
-      <c r="U21" s="65" t="s">
+      <c r="U21" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="V21" s="66"/>
+      <c r="V21" s="68"/>
       <c r="W21" s="48">
         <v>6.7999999999999996E-3</v>
       </c>
@@ -2161,17 +2178,17 @@
       <c r="AC21" s="10"/>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="N22" s="65" t="s">
+      <c r="N22" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="O22" s="66"/>
+      <c r="O22" s="68"/>
       <c r="T22" s="43">
         <v>-1.26E-2</v>
       </c>
-      <c r="U22" s="65" t="s">
+      <c r="U22" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="V22" s="66"/>
+      <c r="V22" s="68"/>
       <c r="W22" s="49">
         <v>-2.5000000000000001E-3</v>
       </c>
@@ -2191,17 +2208,17 @@
       <c r="AC22" s="10"/>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="N23" s="65" t="s">
+      <c r="N23" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="O23" s="66"/>
+      <c r="O23" s="68"/>
       <c r="T23" s="43">
         <v>-3.8E-3</v>
       </c>
-      <c r="U23" s="65" t="s">
+      <c r="U23" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="V23" s="66"/>
+      <c r="V23" s="68"/>
       <c r="W23" s="49">
         <v>-8.0000000000000004E-4</v>
       </c>
@@ -2222,17 +2239,17 @@
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
-      <c r="N24" s="65" t="s">
+      <c r="N24" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="O24" s="66"/>
+      <c r="O24" s="68"/>
       <c r="T24" s="43">
         <v>-2.7099999999999999E-2</v>
       </c>
-      <c r="U24" s="65" t="s">
+      <c r="U24" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="V24" s="66"/>
+      <c r="V24" s="68"/>
       <c r="W24" s="49">
         <v>-1.11E-2</v>
       </c>
@@ -2339,7 +2356,7 @@
   <dimension ref="A1:AC25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2428,10 +2445,10 @@
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="66"/>
+      <c r="B2" s="68"/>
       <c r="C2" s="58">
         <v>2.0999999999999999E-3</v>
       </c>
@@ -2441,11 +2458,14 @@
       <c r="E2" s="64">
         <v>-6.7000000000000002E-3</v>
       </c>
-      <c r="F2" s="69">
+      <c r="F2" s="66">
         <v>-4.4999999999999997E-3</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
+      <c r="J2" s="70">
+        <v>3.7499999999999999E-2</v>
+      </c>
       <c r="O2" s="10"/>
       <c r="P2" s="10"/>
       <c r="R2" s="10"/>
@@ -2454,10 +2474,10 @@
       <c r="AC2" s="10"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="66"/>
+      <c r="B3" s="68"/>
       <c r="C3" s="58">
         <v>1.12E-2</v>
       </c>
@@ -2467,11 +2487,14 @@
       <c r="E3" s="64">
         <v>-3.8E-3</v>
       </c>
-      <c r="F3" s="68">
+      <c r="F3" s="65">
         <v>1.2999999999999999E-3</v>
       </c>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
+      <c r="J3" s="70">
+        <v>1.01E-2</v>
+      </c>
       <c r="O3" s="10"/>
       <c r="P3" s="10"/>
       <c r="R3" s="10"/>
@@ -2480,10 +2503,10 @@
       <c r="AC3" s="10"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="66"/>
+      <c r="B4" s="68"/>
       <c r="C4" s="59">
         <v>-5.1999999999999998E-3</v>
       </c>
@@ -2493,11 +2516,14 @@
       <c r="E4" s="63">
         <v>8.3000000000000001E-3</v>
       </c>
-      <c r="F4" s="68">
+      <c r="F4" s="65">
         <v>1.72E-2</v>
       </c>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
+      <c r="J4" s="70">
+        <v>9.4999999999999998E-3</v>
+      </c>
       <c r="O4" s="10"/>
       <c r="P4" s="10"/>
       <c r="R4" s="10"/>
@@ -2506,10 +2532,10 @@
       <c r="AC4" s="10"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="66"/>
+      <c r="B5" s="68"/>
       <c r="C5" s="58">
         <v>2.18E-2</v>
       </c>
@@ -2519,11 +2545,14 @@
       <c r="E5" s="63">
         <v>6.4000000000000003E-3</v>
       </c>
-      <c r="F5" s="68">
+      <c r="F5" s="65">
         <v>1.6899999999999998E-2</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
+      <c r="J5" s="70">
+        <v>3.8999999999999998E-3</v>
+      </c>
       <c r="O5" s="10"/>
       <c r="P5" s="10"/>
       <c r="R5" s="10"/>
@@ -2532,10 +2561,10 @@
       <c r="AC5" s="10"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="66"/>
+      <c r="B6" s="68"/>
       <c r="C6" s="59">
         <v>-6.9999999999999999E-4</v>
       </c>
@@ -2545,11 +2574,14 @@
       <c r="E6" s="63">
         <v>2.1100000000000001E-2</v>
       </c>
-      <c r="F6" s="69">
+      <c r="F6" s="66">
         <v>-3.5499999999999997E-2</v>
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
+      <c r="J6" s="71">
+        <v>-7.7600000000000002E-2</v>
+      </c>
       <c r="O6" s="10"/>
       <c r="P6" s="10"/>
       <c r="R6" s="10"/>
@@ -2558,10 +2590,10 @@
       <c r="AC6" s="10"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="66"/>
+      <c r="B7" s="68"/>
       <c r="C7" s="59">
         <v>-1.9E-3</v>
       </c>
@@ -2571,11 +2603,14 @@
       <c r="E7" s="64">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="F7" s="68">
+      <c r="F7" s="65">
         <v>1.8E-3</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
+      <c r="J7" s="71">
+        <v>-4.4000000000000003E-3</v>
+      </c>
       <c r="O7" s="10"/>
       <c r="P7" s="10"/>
       <c r="R7" s="10"/>
@@ -2584,10 +2619,10 @@
       <c r="AC7" s="10"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="66"/>
+      <c r="B8" s="68"/>
       <c r="C8" s="59">
         <v>-2.52E-2</v>
       </c>
@@ -2597,11 +2632,14 @@
       <c r="E8" s="63">
         <v>4.9200000000000001E-2</v>
       </c>
-      <c r="F8" s="68">
+      <c r="F8" s="65">
         <v>1.7600000000000001E-2</v>
       </c>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
+      <c r="J8" s="70">
+        <v>0</v>
+      </c>
       <c r="O8" s="10"/>
       <c r="P8" s="10"/>
       <c r="R8" s="10"/>
@@ -2610,10 +2648,10 @@
       <c r="AC8" s="10"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="66"/>
+      <c r="B9" s="68"/>
       <c r="C9" s="59">
         <v>-9.4000000000000004E-3</v>
       </c>
@@ -2623,11 +2661,14 @@
       <c r="E9" s="64">
         <v>-1.7100000000000001E-2</v>
       </c>
-      <c r="F9" s="69">
+      <c r="F9" s="66">
         <v>-2.9999999999999997E-4</v>
       </c>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
+      <c r="J9" s="70">
+        <v>5.7999999999999996E-3</v>
+      </c>
       <c r="O9" s="10"/>
       <c r="P9" s="10"/>
       <c r="R9" s="10"/>
@@ -2636,10 +2677,10 @@
       <c r="AC9" s="10"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="66"/>
+      <c r="B10" s="68"/>
       <c r="C10" s="58">
         <v>3.6999999999999998E-2</v>
       </c>
@@ -2649,11 +2690,14 @@
       <c r="E10" s="63">
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="F10" s="69">
+      <c r="F10" s="66">
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
+      <c r="J10" s="70">
+        <v>1.2699999999999999E-2</v>
+      </c>
       <c r="O10" s="10"/>
       <c r="P10" s="10"/>
       <c r="R10" s="10"/>
@@ -2662,10 +2706,10 @@
       <c r="AC10" s="10"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A11" s="65" t="s">
+      <c r="A11" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="66"/>
+      <c r="B11" s="68"/>
       <c r="C11" s="58">
         <v>1.7399999999999999E-2</v>
       </c>
@@ -2675,11 +2719,14 @@
       <c r="E11" s="63">
         <v>1.6299999999999999E-2</v>
       </c>
-      <c r="F11" s="69">
+      <c r="F11" s="66">
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
+      <c r="J11" s="70">
+        <v>4.7000000000000002E-3</v>
+      </c>
       <c r="O11" s="10"/>
       <c r="P11" s="10"/>
       <c r="R11" s="10"/>
@@ -2688,10 +2735,10 @@
       <c r="AC11" s="10"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A12" s="65" t="s">
+      <c r="A12" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="66"/>
+      <c r="B12" s="68"/>
       <c r="C12" s="58">
         <v>3.3700000000000001E-2</v>
       </c>
@@ -2701,11 +2748,14 @@
       <c r="E12" s="64">
         <v>-2.5000000000000001E-3</v>
       </c>
-      <c r="F12" s="68">
+      <c r="F12" s="65">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
+      <c r="J12" s="71">
+        <v>-4.7000000000000002E-3</v>
+      </c>
       <c r="O12" s="10"/>
       <c r="P12" s="10"/>
       <c r="R12" s="10"/>
@@ -2714,10 +2764,10 @@
       <c r="AC12" s="10"/>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A13" s="65" t="s">
+      <c r="A13" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="66"/>
+      <c r="B13" s="68"/>
       <c r="C13" s="58">
         <v>4.2599999999999999E-2</v>
       </c>
@@ -2727,11 +2777,14 @@
       <c r="E13" s="63">
         <v>8.3000000000000001E-3</v>
       </c>
-      <c r="F13" s="69">
+      <c r="F13" s="66">
         <v>-6.6E-3</v>
       </c>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
+      <c r="J13" s="70">
+        <v>1.1299999999999999E-2</v>
+      </c>
       <c r="O13" s="10"/>
       <c r="P13" s="10"/>
       <c r="R13" s="10"/>
@@ -2740,10 +2793,10 @@
       <c r="AC13" s="10"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A14" s="65" t="s">
+      <c r="A14" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="66"/>
+      <c r="B14" s="68"/>
       <c r="C14" s="59">
         <v>-8.0000000000000002E-3</v>
       </c>
@@ -2753,11 +2806,14 @@
       <c r="E14" s="64">
         <v>-3.5000000000000001E-3</v>
       </c>
-      <c r="F14" s="69">
+      <c r="F14" s="66">
         <v>-7.3000000000000001E-3</v>
       </c>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
+      <c r="J14" s="70">
+        <v>1.03E-2</v>
+      </c>
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
       <c r="R14" s="10"/>
@@ -2766,10 +2822,10 @@
       <c r="AC14" s="10"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A15" s="65" t="s">
+      <c r="A15" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="66"/>
+      <c r="B15" s="68"/>
       <c r="C15" s="59">
         <v>-1.1000000000000001E-3</v>
       </c>
@@ -2779,11 +2835,14 @@
       <c r="E15" s="63">
         <v>7.4000000000000003E-3</v>
       </c>
-      <c r="F15" s="69">
+      <c r="F15" s="66">
         <v>-7.6E-3</v>
       </c>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
+      <c r="J15" s="70">
+        <v>5.7999999999999996E-3</v>
+      </c>
       <c r="O15" s="10"/>
       <c r="P15" s="10"/>
       <c r="R15" s="10"/>
@@ -2792,10 +2851,10 @@
       <c r="AC15" s="10"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A16" s="65" t="s">
+      <c r="A16" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="66"/>
+      <c r="B16" s="68"/>
       <c r="C16" s="58">
         <v>8.6999999999999994E-3</v>
       </c>
@@ -2805,11 +2864,14 @@
       <c r="E16" s="63">
         <v>1.8800000000000001E-2</v>
       </c>
-      <c r="F16" s="69">
+      <c r="F16" s="66">
         <v>-4.4999999999999997E-3</v>
       </c>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
+      <c r="J16" s="70">
+        <v>1.7600000000000001E-2</v>
+      </c>
       <c r="O16" s="10"/>
       <c r="P16" s="10"/>
       <c r="R16" s="10"/>
@@ -2818,10 +2880,10 @@
       <c r="AC16" s="10"/>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A17" s="65" t="s">
+      <c r="A17" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="66"/>
+      <c r="B17" s="68"/>
       <c r="C17" s="58">
         <v>1.4500000000000001E-2</v>
       </c>
@@ -2831,11 +2893,14 @@
       <c r="E17" s="63">
         <v>5.7000000000000002E-3</v>
       </c>
-      <c r="F17" s="69">
+      <c r="F17" s="66">
         <v>-5.5999999999999999E-3</v>
       </c>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
+      <c r="J17" s="70">
+        <v>5.4000000000000003E-3</v>
+      </c>
       <c r="O17" s="10"/>
       <c r="P17" s="10"/>
       <c r="R17" s="10"/>
@@ -2844,10 +2909,10 @@
       <c r="AC17" s="10"/>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A18" s="65" t="s">
+      <c r="A18" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="66"/>
+      <c r="B18" s="68"/>
       <c r="C18" s="58">
         <v>1.7399999999999999E-2</v>
       </c>
@@ -2857,11 +2922,14 @@
       <c r="E18" s="64">
         <v>-3.5999999999999999E-3</v>
       </c>
-      <c r="F18" s="69">
+      <c r="F18" s="66">
         <v>-8.0000000000000004E-4</v>
       </c>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
+      <c r="J18" s="70">
+        <v>5.9999999999999995E-4</v>
+      </c>
       <c r="O18" s="10"/>
       <c r="P18" s="10"/>
       <c r="R18" s="10"/>
@@ -2870,10 +2938,10 @@
       <c r="AC18" s="10"/>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A19" s="65" t="s">
+      <c r="A19" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="66"/>
+      <c r="B19" s="68"/>
       <c r="C19" s="58">
         <v>3.4200000000000001E-2</v>
       </c>
@@ -2883,11 +2951,14 @@
       <c r="E19" s="63">
         <v>5.5999999999999999E-3</v>
       </c>
-      <c r="F19" s="69">
+      <c r="F19" s="66">
         <v>-6.0000000000000001E-3</v>
       </c>
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
+      <c r="J19" s="70">
+        <v>7.9000000000000008E-3</v>
+      </c>
       <c r="O19" s="10"/>
       <c r="P19" s="10"/>
       <c r="R19" s="10"/>
@@ -2896,10 +2967,10 @@
       <c r="AC19" s="10"/>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A20" s="65" t="s">
+      <c r="A20" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="66"/>
+      <c r="B20" s="68"/>
       <c r="C20" s="58">
         <v>6.9999999999999999E-4</v>
       </c>
@@ -2909,11 +2980,14 @@
       <c r="E20" s="64">
         <v>-1.1299999999999999E-2</v>
       </c>
-      <c r="F20" s="69">
+      <c r="F20" s="66">
         <v>-1.15E-2</v>
       </c>
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
+      <c r="J20" s="71">
+        <v>-5.7999999999999996E-3</v>
+      </c>
       <c r="O20" s="10"/>
       <c r="P20" s="10"/>
       <c r="R20" s="10"/>
@@ -2922,10 +2996,10 @@
       <c r="AC20" s="10"/>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A21" s="65" t="s">
+      <c r="A21" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="66"/>
+      <c r="B21" s="68"/>
       <c r="C21" s="58">
         <v>5.3E-3</v>
       </c>
@@ -2935,11 +3009,14 @@
       <c r="E21" s="63">
         <v>7.7999999999999996E-3</v>
       </c>
-      <c r="F21" s="68">
+      <c r="F21" s="65">
         <v>1.6199999999999999E-2</v>
       </c>
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
+      <c r="J21" s="70">
+        <v>1.52E-2</v>
+      </c>
       <c r="O21" s="10"/>
       <c r="P21" s="10"/>
       <c r="R21" s="10"/>
@@ -2948,10 +3025,10 @@
       <c r="AC21" s="10"/>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="66"/>
+      <c r="B22" s="68"/>
       <c r="C22" s="58">
         <v>4.6600000000000003E-2</v>
       </c>
@@ -2961,11 +3038,14 @@
       <c r="E22" s="63">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="F22" s="68">
+      <c r="F22" s="65">
         <v>7.7999999999999996E-3</v>
       </c>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
+      <c r="J22" s="70">
+        <v>3.5000000000000001E-3</v>
+      </c>
       <c r="O22" s="10"/>
       <c r="P22" s="10"/>
       <c r="R22" s="10"/>
@@ -2974,10 +3054,10 @@
       <c r="AC22" s="10"/>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A23" s="65" t="s">
+      <c r="A23" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="66"/>
+      <c r="B23" s="68"/>
       <c r="C23" s="58">
         <v>5.4100000000000002E-2</v>
       </c>
@@ -2987,11 +3067,14 @@
       <c r="E23" s="64">
         <v>-1.89E-2</v>
       </c>
-      <c r="F23" s="69">
+      <c r="F23" s="66">
         <v>-4.7000000000000002E-3</v>
       </c>
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
+      <c r="J23" s="70">
+        <v>1.26E-2</v>
+      </c>
       <c r="O23" s="10"/>
       <c r="P23" s="10"/>
       <c r="R23" s="10"/>
@@ -3000,10 +3083,10 @@
       <c r="AC23" s="10"/>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A24" s="65" t="s">
+      <c r="A24" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="66"/>
+      <c r="B24" s="68"/>
       <c r="C24" s="58">
         <v>4.0899999999999999E-2</v>
       </c>
@@ -3013,11 +3096,14 @@
       <c r="E24" s="63">
         <v>1.0500000000000001E-2</v>
       </c>
-      <c r="F24" s="69">
+      <c r="F24" s="66">
         <v>-6.1999999999999998E-3</v>
       </c>
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
+      <c r="J24" s="70">
+        <v>8.3999999999999995E-3</v>
+      </c>
       <c r="O24" s="10"/>
       <c r="P24" s="10"/>
       <c r="R24" s="10"/>
@@ -3026,8 +3112,13 @@
       <c r="AC24" s="10"/>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="H25" s="10"/>
+      <c r="H25" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="I25" s="10"/>
+      <c r="J25" s="71">
+        <v>-4.4000000000000003E-3</v>
+      </c>
       <c r="O25" s="10"/>
       <c r="P25" s="10"/>
       <c r="R25" s="10"/>

--- a/TRADE_LIST.xlsx
+++ b/TRADE_LIST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Balaji Lp\Documents\stock_updates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C77976C-1C0C-4356-A3D8-D11E9DA2E021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D9D473-892E-41E5-B162-DEEA3DE9FDB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{20DEF1ED-0919-437D-AD3F-D3C8E402565E}"/>
   </bookViews>
@@ -122,7 +122,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -361,6 +361,18 @@
     <font>
       <sz val="7"/>
       <color rgb="FFF54D4D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFF54D4D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF64B70B"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -480,7 +492,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -548,11 +560,13 @@
     <xf numFmtId="10" fontId="33" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="35" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="38" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="38" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="39" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -992,10 +1006,10 @@
       <c r="F2" s="11">
         <v>-1.89E-2</v>
       </c>
-      <c r="G2" s="67" t="s">
+      <c r="G2" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="69"/>
+      <c r="H2" s="71"/>
       <c r="I2" s="15">
         <v>-6.4000000000000003E-3</v>
       </c>
@@ -1009,10 +1023,10 @@
       <c r="M2" s="23">
         <v>9.1999999999999998E-3</v>
       </c>
-      <c r="N2" s="67" t="s">
+      <c r="N2" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="68"/>
+      <c r="O2" s="70"/>
       <c r="P2" s="41"/>
       <c r="Q2" s="34">
         <v>2.0999999999999999E-3</v>
@@ -1024,10 +1038,10 @@
       <c r="T2" s="43">
         <v>-1.9599999999999999E-2</v>
       </c>
-      <c r="U2" s="67" t="s">
+      <c r="U2" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="V2" s="68"/>
+      <c r="V2" s="70"/>
       <c r="W2" s="48">
         <v>1.6799999999999999E-2</v>
       </c>
@@ -1065,10 +1079,10 @@
       <c r="F3" s="11">
         <v>-1.8499999999999999E-2</v>
       </c>
-      <c r="G3" s="67" t="s">
+      <c r="G3" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="69"/>
+      <c r="H3" s="71"/>
       <c r="I3" s="16">
         <v>1.4200000000000001E-2</v>
       </c>
@@ -1082,10 +1096,10 @@
       <c r="M3" s="23">
         <v>0</v>
       </c>
-      <c r="N3" s="67" t="s">
+      <c r="N3" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="68"/>
+      <c r="O3" s="70"/>
       <c r="P3" s="35">
         <v>-3.2000000000000002E-3</v>
       </c>
@@ -1101,10 +1115,10 @@
       <c r="T3" s="43">
         <v>-7.6E-3</v>
       </c>
-      <c r="U3" s="67" t="s">
+      <c r="U3" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="V3" s="68"/>
+      <c r="V3" s="70"/>
       <c r="W3" s="49">
         <v>-1.9E-3</v>
       </c>
@@ -1144,10 +1158,10 @@
       <c r="F4" s="11">
         <v>-8.2000000000000007E-3</v>
       </c>
-      <c r="G4" s="67" t="s">
+      <c r="G4" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="69"/>
+      <c r="H4" s="71"/>
       <c r="I4" s="15">
         <v>-1.9E-3</v>
       </c>
@@ -1161,10 +1175,10 @@
       <c r="M4" s="25">
         <v>-3.3E-3</v>
       </c>
-      <c r="N4" s="67" t="s">
+      <c r="N4" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="O4" s="68"/>
+      <c r="O4" s="70"/>
       <c r="P4" s="41"/>
       <c r="Q4" s="34">
         <v>1.34E-2</v>
@@ -1176,10 +1190,10 @@
       <c r="T4" s="42">
         <v>0</v>
       </c>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="V4" s="68"/>
+      <c r="V4" s="70"/>
       <c r="W4" s="48">
         <v>2.3800000000000002E-2</v>
       </c>
@@ -1217,10 +1231,10 @@
       <c r="F5" s="12">
         <v>0.1152</v>
       </c>
-      <c r="G5" s="67" t="s">
+      <c r="G5" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="69"/>
+      <c r="H5" s="71"/>
       <c r="I5" s="16">
         <v>2.9399999999999999E-2</v>
       </c>
@@ -1234,10 +1248,10 @@
       <c r="M5" s="25">
         <v>-3.6600000000000001E-2</v>
       </c>
-      <c r="N5" s="67" t="s">
+      <c r="N5" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="O5" s="68"/>
+      <c r="O5" s="70"/>
       <c r="P5" s="41"/>
       <c r="Q5" s="34">
         <v>1.7100000000000001E-2</v>
@@ -1249,10 +1263,10 @@
       <c r="T5" s="43">
         <v>-2.6499999999999999E-2</v>
       </c>
-      <c r="U5" s="67" t="s">
+      <c r="U5" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="V5" s="68"/>
+      <c r="V5" s="70"/>
       <c r="W5" s="48">
         <v>4.4499999999999998E-2</v>
       </c>
@@ -1290,10 +1304,10 @@
       <c r="F6" s="11">
         <v>-3.2300000000000002E-2</v>
       </c>
-      <c r="G6" s="67" t="s">
+      <c r="G6" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="69"/>
+      <c r="H6" s="71"/>
       <c r="I6" s="15">
         <v>-2.8799999999999999E-2</v>
       </c>
@@ -1307,10 +1321,10 @@
       <c r="M6" s="23">
         <v>1.03E-2</v>
       </c>
-      <c r="N6" s="67" t="s">
+      <c r="N6" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="O6" s="68"/>
+      <c r="O6" s="70"/>
       <c r="P6" s="41"/>
       <c r="Q6" s="34">
         <v>1.78E-2</v>
@@ -1322,10 +1336,10 @@
       <c r="T6" s="43">
         <v>-8.3000000000000001E-3</v>
       </c>
-      <c r="U6" s="67" t="s">
+      <c r="U6" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="V6" s="68"/>
+      <c r="V6" s="70"/>
       <c r="W6" s="48">
         <v>1.1900000000000001E-2</v>
       </c>
@@ -1363,10 +1377,10 @@
       <c r="F7" s="13">
         <v>-2.5600000000000001E-2</v>
       </c>
-      <c r="G7" s="67" t="s">
+      <c r="G7" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="69"/>
+      <c r="H7" s="71"/>
       <c r="I7" s="17">
         <v>4.0000000000000001E-3</v>
       </c>
@@ -1380,10 +1394,10 @@
       <c r="M7" s="27">
         <v>-3.5999999999999999E-3</v>
       </c>
-      <c r="N7" s="67" t="s">
+      <c r="N7" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="O7" s="68"/>
+      <c r="O7" s="70"/>
       <c r="P7" s="37"/>
       <c r="Q7" s="36">
         <v>5.0000000000000001E-3</v>
@@ -1395,10 +1409,10 @@
       <c r="T7" s="46">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="U7" s="67" t="s">
+      <c r="U7" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="V7" s="68"/>
+      <c r="V7" s="70"/>
       <c r="W7" s="49">
         <v>-1.4500000000000001E-2</v>
       </c>
@@ -1436,10 +1450,10 @@
       <c r="F8" s="12">
         <v>1.3100000000000001E-2</v>
       </c>
-      <c r="G8" s="67" t="s">
+      <c r="G8" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="69"/>
+      <c r="H8" s="71"/>
       <c r="I8" s="16">
         <v>1.3299999999999999E-2</v>
       </c>
@@ -1453,10 +1467,10 @@
       <c r="M8" s="25">
         <v>-1.7999999999999999E-2</v>
       </c>
-      <c r="N8" s="67" t="s">
+      <c r="N8" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="O8" s="68"/>
+      <c r="O8" s="70"/>
       <c r="P8" s="41"/>
       <c r="Q8" s="35">
         <v>-1.26E-2</v>
@@ -1468,10 +1482,10 @@
       <c r="T8" s="43">
         <v>-1.6199999999999999E-2</v>
       </c>
-      <c r="U8" s="67" t="s">
+      <c r="U8" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="V8" s="68"/>
+      <c r="V8" s="70"/>
       <c r="W8" s="49">
         <v>-2.7300000000000001E-2</v>
       </c>
@@ -1511,10 +1525,10 @@
       <c r="F9" s="12">
         <v>0.04</v>
       </c>
-      <c r="G9" s="67" t="s">
+      <c r="G9" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="69"/>
+      <c r="H9" s="71"/>
       <c r="I9" s="16">
         <v>3.5000000000000001E-3</v>
       </c>
@@ -1528,10 +1542,10 @@
       <c r="M9" s="23">
         <v>1.49E-2</v>
       </c>
-      <c r="N9" s="67" t="s">
+      <c r="N9" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="O9" s="68"/>
+      <c r="O9" s="70"/>
       <c r="P9" s="41"/>
       <c r="Q9" s="35">
         <v>-1.3299999999999999E-2</v>
@@ -1543,10 +1557,10 @@
       <c r="T9" s="42">
         <v>2.06E-2</v>
       </c>
-      <c r="U9" s="67" t="s">
+      <c r="U9" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="V9" s="68"/>
+      <c r="V9" s="70"/>
       <c r="W9" s="49">
         <v>-1.2E-2</v>
       </c>
@@ -1584,10 +1598,10 @@
       <c r="F10" s="12">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="G10" s="67" t="s">
+      <c r="G10" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="69"/>
+      <c r="H10" s="71"/>
       <c r="I10" s="15">
         <v>-1.7899999999999999E-2</v>
       </c>
@@ -1601,10 +1615,10 @@
       <c r="M10" s="25">
         <v>-2.2000000000000001E-3</v>
       </c>
-      <c r="N10" s="67" t="s">
+      <c r="N10" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="O10" s="68"/>
+      <c r="O10" s="70"/>
       <c r="P10" s="41"/>
       <c r="Q10" s="34">
         <v>5.5999999999999999E-3</v>
@@ -1616,10 +1630,10 @@
       <c r="T10" s="43">
         <v>-1.14E-2</v>
       </c>
-      <c r="U10" s="67" t="s">
+      <c r="U10" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="V10" s="68"/>
+      <c r="V10" s="70"/>
       <c r="W10" s="48">
         <v>6.0000000000000001E-3</v>
       </c>
@@ -1657,10 +1671,10 @@
       <c r="F11" s="11">
         <v>-1.2699999999999999E-2</v>
       </c>
-      <c r="G11" s="67" t="s">
+      <c r="G11" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="69"/>
+      <c r="H11" s="71"/>
       <c r="I11" s="15">
         <v>-4.0000000000000002E-4</v>
       </c>
@@ -1674,10 +1688,10 @@
       <c r="M11" s="25">
         <v>-1.7000000000000001E-2</v>
       </c>
-      <c r="N11" s="67" t="s">
+      <c r="N11" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="O11" s="68"/>
+      <c r="O11" s="70"/>
       <c r="P11" s="41"/>
       <c r="Q11" s="35">
         <v>-4.5999999999999999E-3</v>
@@ -1689,10 +1703,10 @@
       <c r="T11" s="43">
         <v>-8.0000000000000002E-3</v>
       </c>
-      <c r="U11" s="67" t="s">
+      <c r="U11" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="V11" s="68"/>
+      <c r="V11" s="70"/>
       <c r="W11" s="49">
         <v>-4.1999999999999997E-3</v>
       </c>
@@ -1730,10 +1744,10 @@
       <c r="F12" s="12">
         <v>3.7199999999999997E-2</v>
       </c>
-      <c r="G12" s="67" t="s">
+      <c r="G12" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="69"/>
+      <c r="H12" s="71"/>
       <c r="I12" s="16">
         <v>3.4700000000000002E-2</v>
       </c>
@@ -1747,10 +1761,10 @@
       <c r="M12" s="23">
         <v>1.78E-2</v>
       </c>
-      <c r="N12" s="67" t="s">
+      <c r="N12" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="O12" s="68"/>
+      <c r="O12" s="70"/>
       <c r="P12" s="41"/>
       <c r="Q12" s="35">
         <v>-5.2200000000000003E-2</v>
@@ -1762,10 +1776,10 @@
       <c r="T12" s="42">
         <v>1.15E-2</v>
       </c>
-      <c r="U12" s="67" t="s">
+      <c r="U12" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="V12" s="68"/>
+      <c r="V12" s="70"/>
       <c r="W12" s="48">
         <v>2.5499999999999998E-2</v>
       </c>
@@ -1803,10 +1817,10 @@
       <c r="F13" s="11">
         <v>-1.35E-2</v>
       </c>
-      <c r="G13" s="67" t="s">
+      <c r="G13" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="69"/>
+      <c r="H13" s="71"/>
       <c r="I13" s="16">
         <v>2.3E-3</v>
       </c>
@@ -1820,10 +1834,10 @@
       <c r="M13" s="25">
         <v>-1.4E-2</v>
       </c>
-      <c r="N13" s="67" t="s">
+      <c r="N13" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="O13" s="68"/>
+      <c r="O13" s="70"/>
       <c r="P13" s="41"/>
       <c r="Q13" s="34">
         <v>6.0000000000000001E-3</v>
@@ -1835,10 +1849,10 @@
       <c r="T13" s="43">
         <v>-7.3000000000000001E-3</v>
       </c>
-      <c r="U13" s="67" t="s">
+      <c r="U13" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="V13" s="68"/>
+      <c r="V13" s="70"/>
       <c r="W13" s="49">
         <v>-4.3E-3</v>
       </c>
@@ -1876,10 +1890,10 @@
       <c r="F14" s="13">
         <v>-6.7999999999999996E-3</v>
       </c>
-      <c r="G14" s="67" t="s">
+      <c r="G14" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="69"/>
+      <c r="H14" s="71"/>
       <c r="I14" s="16">
         <v>4.0000000000000002E-4</v>
       </c>
@@ -1893,10 +1907,10 @@
       <c r="M14" s="29">
         <v>1.5E-3</v>
       </c>
-      <c r="N14" s="67" t="s">
+      <c r="N14" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="O14" s="68"/>
+      <c r="O14" s="70"/>
       <c r="P14" s="47">
         <v>1.34</v>
       </c>
@@ -1910,10 +1924,10 @@
       <c r="T14" s="43">
         <v>-1.67E-2</v>
       </c>
-      <c r="U14" s="67" t="s">
+      <c r="U14" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="V14" s="68"/>
+      <c r="V14" s="70"/>
       <c r="W14" s="49">
         <v>-4.4999999999999997E-3</v>
       </c>
@@ -1941,10 +1955,10 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="14"/>
-      <c r="G15" s="67" t="s">
+      <c r="G15" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="69"/>
+      <c r="H15" s="71"/>
       <c r="I15" s="18"/>
       <c r="J15" s="10"/>
       <c r="K15" s="19">
@@ -1956,10 +1970,10 @@
       <c r="M15" s="23">
         <v>8.6E-3</v>
       </c>
-      <c r="N15" s="67" t="s">
+      <c r="N15" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="O15" s="68"/>
+      <c r="O15" s="70"/>
       <c r="P15" s="41"/>
       <c r="Q15" s="34">
         <v>5.9999999999999995E-4</v>
@@ -1971,10 +1985,10 @@
       <c r="T15" s="43">
         <v>-1.4E-3</v>
       </c>
-      <c r="U15" s="67" t="s">
+      <c r="U15" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="V15" s="68"/>
+      <c r="V15" s="70"/>
       <c r="W15" s="48">
         <v>8.0000000000000004E-4</v>
       </c>
@@ -1994,17 +2008,17 @@
       <c r="AC15" s="10"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="N16" s="67" t="s">
+      <c r="N16" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="O16" s="68"/>
+      <c r="O16" s="70"/>
       <c r="T16" s="43">
         <v>-2.9899999999999999E-2</v>
       </c>
-      <c r="U16" s="67" t="s">
+      <c r="U16" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="V16" s="68"/>
+      <c r="V16" s="70"/>
       <c r="W16" s="48">
         <v>1.46E-2</v>
       </c>
@@ -2024,17 +2038,17 @@
       <c r="AC16" s="10"/>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="N17" s="67" t="s">
+      <c r="N17" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="O17" s="68"/>
+      <c r="O17" s="70"/>
       <c r="T17" s="43">
         <v>-2.1700000000000001E-2</v>
       </c>
-      <c r="U17" s="67" t="s">
+      <c r="U17" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="V17" s="68"/>
+      <c r="V17" s="70"/>
       <c r="W17" s="48">
         <v>2.7000000000000001E-3</v>
       </c>
@@ -2056,17 +2070,17 @@
       <c r="AC17" s="10"/>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="N18" s="67" t="s">
+      <c r="N18" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="O18" s="68"/>
+      <c r="O18" s="70"/>
       <c r="T18" s="43">
         <v>-4.3E-3</v>
       </c>
-      <c r="U18" s="67" t="s">
+      <c r="U18" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="V18" s="68"/>
+      <c r="V18" s="70"/>
       <c r="W18" s="48">
         <v>2.4199999999999999E-2</v>
       </c>
@@ -2086,17 +2100,17 @@
       <c r="AC18" s="10"/>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="N19" s="67" t="s">
+      <c r="N19" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="O19" s="68"/>
+      <c r="O19" s="70"/>
       <c r="T19" s="43">
         <v>-8.3999999999999995E-3</v>
       </c>
-      <c r="U19" s="67" t="s">
+      <c r="U19" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="V19" s="68"/>
+      <c r="V19" s="70"/>
       <c r="W19" s="48">
         <v>3.8999999999999998E-3</v>
       </c>
@@ -2116,17 +2130,17 @@
       <c r="AC19" s="10"/>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="N20" s="67" t="s">
+      <c r="N20" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="O20" s="68"/>
+      <c r="O20" s="70"/>
       <c r="T20" s="43">
         <v>-3.0999999999999999E-3</v>
       </c>
-      <c r="U20" s="67" t="s">
+      <c r="U20" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="V20" s="68"/>
+      <c r="V20" s="70"/>
       <c r="W20" s="49">
         <v>-8.0000000000000004E-4</v>
       </c>
@@ -2148,17 +2162,17 @@
       <c r="AC20" s="10"/>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="N21" s="67" t="s">
+      <c r="N21" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="O21" s="68"/>
+      <c r="O21" s="70"/>
       <c r="T21" s="43">
         <v>-5.7999999999999996E-3</v>
       </c>
-      <c r="U21" s="67" t="s">
+      <c r="U21" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="V21" s="68"/>
+      <c r="V21" s="70"/>
       <c r="W21" s="48">
         <v>6.7999999999999996E-3</v>
       </c>
@@ -2178,17 +2192,17 @@
       <c r="AC21" s="10"/>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="N22" s="67" t="s">
+      <c r="N22" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="O22" s="68"/>
+      <c r="O22" s="70"/>
       <c r="T22" s="43">
         <v>-1.26E-2</v>
       </c>
-      <c r="U22" s="67" t="s">
+      <c r="U22" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="V22" s="68"/>
+      <c r="V22" s="70"/>
       <c r="W22" s="49">
         <v>-2.5000000000000001E-3</v>
       </c>
@@ -2208,17 +2222,17 @@
       <c r="AC22" s="10"/>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="N23" s="67" t="s">
+      <c r="N23" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="O23" s="68"/>
+      <c r="O23" s="70"/>
       <c r="T23" s="43">
         <v>-3.8E-3</v>
       </c>
-      <c r="U23" s="67" t="s">
+      <c r="U23" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="V23" s="68"/>
+      <c r="V23" s="70"/>
       <c r="W23" s="49">
         <v>-8.0000000000000004E-4</v>
       </c>
@@ -2239,17 +2253,17 @@
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
-      <c r="N24" s="67" t="s">
+      <c r="N24" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="O24" s="68"/>
+      <c r="O24" s="70"/>
       <c r="T24" s="43">
         <v>-2.7099999999999999E-2</v>
       </c>
-      <c r="U24" s="67" t="s">
+      <c r="U24" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="V24" s="68"/>
+      <c r="V24" s="70"/>
       <c r="W24" s="49">
         <v>-1.11E-2</v>
       </c>
@@ -2285,45 +2299,11 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="N14:O14"/>
     <mergeCell ref="N15:O15"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="G15:H15"/>
@@ -2340,11 +2320,45 @@
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="G12:H12"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="U20:V20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2356,7 +2370,7 @@
   <dimension ref="A1:AC25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2445,10 +2459,10 @@
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="68"/>
+      <c r="B2" s="70"/>
       <c r="C2" s="58">
         <v>2.0999999999999999E-3</v>
       </c>
@@ -2463,8 +2477,11 @@
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
-      <c r="J2" s="70">
+      <c r="J2" s="67">
         <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="K2" s="73">
+        <v>-3.2899999999999999E-2</v>
       </c>
       <c r="O2" s="10"/>
       <c r="P2" s="10"/>
@@ -2474,10 +2491,10 @@
       <c r="AC2" s="10"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="68"/>
+      <c r="B3" s="70"/>
       <c r="C3" s="58">
         <v>1.12E-2</v>
       </c>
@@ -2492,8 +2509,11 @@
       </c>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
-      <c r="J3" s="70">
+      <c r="J3" s="67">
         <v>1.01E-2</v>
+      </c>
+      <c r="K3" s="72">
+        <v>1.4E-2</v>
       </c>
       <c r="O3" s="10"/>
       <c r="P3" s="10"/>
@@ -2503,10 +2523,10 @@
       <c r="AC3" s="10"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="68"/>
+      <c r="B4" s="70"/>
       <c r="C4" s="59">
         <v>-5.1999999999999998E-3</v>
       </c>
@@ -2521,8 +2541,11 @@
       </c>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
-      <c r="J4" s="70">
+      <c r="J4" s="67">
         <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="K4" s="73">
+        <v>-4.2299999999999997E-2</v>
       </c>
       <c r="O4" s="10"/>
       <c r="P4" s="10"/>
@@ -2532,10 +2555,10 @@
       <c r="AC4" s="10"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="68"/>
+      <c r="B5" s="70"/>
       <c r="C5" s="58">
         <v>2.18E-2</v>
       </c>
@@ -2550,8 +2573,11 @@
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
-      <c r="J5" s="70">
+      <c r="J5" s="67">
         <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="K5" s="73">
+        <v>-8.1199999999999994E-2</v>
       </c>
       <c r="O5" s="10"/>
       <c r="P5" s="10"/>
@@ -2561,10 +2587,10 @@
       <c r="AC5" s="10"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="68"/>
+      <c r="B6" s="70"/>
       <c r="C6" s="59">
         <v>-6.9999999999999999E-4</v>
       </c>
@@ -2579,8 +2605,11 @@
       </c>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
-      <c r="J6" s="71">
+      <c r="J6" s="68">
         <v>-7.7600000000000002E-2</v>
+      </c>
+      <c r="K6" s="72">
+        <v>1.32E-2</v>
       </c>
       <c r="O6" s="10"/>
       <c r="P6" s="10"/>
@@ -2590,10 +2619,10 @@
       <c r="AC6" s="10"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="68"/>
+      <c r="B7" s="70"/>
       <c r="C7" s="59">
         <v>-1.9E-3</v>
       </c>
@@ -2608,8 +2637,11 @@
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
-      <c r="J7" s="71">
+      <c r="J7" s="68">
         <v>-4.4000000000000003E-3</v>
+      </c>
+      <c r="K7" s="73">
+        <v>-1.0800000000000001E-2</v>
       </c>
       <c r="O7" s="10"/>
       <c r="P7" s="10"/>
@@ -2619,10 +2651,10 @@
       <c r="AC7" s="10"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="68"/>
+      <c r="B8" s="70"/>
       <c r="C8" s="59">
         <v>-2.52E-2</v>
       </c>
@@ -2637,8 +2669,11 @@
       </c>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
-      <c r="J8" s="70">
+      <c r="J8" s="67">
         <v>0</v>
+      </c>
+      <c r="K8" s="73">
+        <v>-4.9700000000000001E-2</v>
       </c>
       <c r="O8" s="10"/>
       <c r="P8" s="10"/>
@@ -2648,10 +2683,10 @@
       <c r="AC8" s="10"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A9" s="67" t="s">
+      <c r="A9" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="68"/>
+      <c r="B9" s="70"/>
       <c r="C9" s="59">
         <v>-9.4000000000000004E-3</v>
       </c>
@@ -2666,8 +2701,11 @@
       </c>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
-      <c r="J9" s="70">
+      <c r="J9" s="67">
         <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="K9" s="73">
+        <v>-5.62E-2</v>
       </c>
       <c r="O9" s="10"/>
       <c r="P9" s="10"/>
@@ -2677,10 +2715,10 @@
       <c r="AC9" s="10"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="68"/>
+      <c r="B10" s="70"/>
       <c r="C10" s="58">
         <v>3.6999999999999998E-2</v>
       </c>
@@ -2695,8 +2733,11 @@
       </c>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
-      <c r="J10" s="70">
+      <c r="J10" s="67">
         <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="K10" s="73">
+        <v>-1.7500000000000002E-2</v>
       </c>
       <c r="O10" s="10"/>
       <c r="P10" s="10"/>
@@ -2706,10 +2747,10 @@
       <c r="AC10" s="10"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A11" s="67" t="s">
+      <c r="A11" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="68"/>
+      <c r="B11" s="70"/>
       <c r="C11" s="58">
         <v>1.7399999999999999E-2</v>
       </c>
@@ -2724,8 +2765,11 @@
       </c>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
-      <c r="J11" s="70">
+      <c r="J11" s="67">
         <v>4.7000000000000002E-3</v>
+      </c>
+      <c r="K11" s="73">
+        <v>-3.7000000000000002E-3</v>
       </c>
       <c r="O11" s="10"/>
       <c r="P11" s="10"/>
@@ -2735,10 +2779,10 @@
       <c r="AC11" s="10"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A12" s="67" t="s">
+      <c r="A12" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="68"/>
+      <c r="B12" s="70"/>
       <c r="C12" s="58">
         <v>3.3700000000000001E-2</v>
       </c>
@@ -2753,8 +2797,11 @@
       </c>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
-      <c r="J12" s="71">
+      <c r="J12" s="68">
         <v>-4.7000000000000002E-3</v>
+      </c>
+      <c r="K12" s="73">
+        <v>-2.7099999999999999E-2</v>
       </c>
       <c r="O12" s="10"/>
       <c r="P12" s="10"/>
@@ -2764,10 +2811,10 @@
       <c r="AC12" s="10"/>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A13" s="67" t="s">
+      <c r="A13" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="68"/>
+      <c r="B13" s="70"/>
       <c r="C13" s="58">
         <v>4.2599999999999999E-2</v>
       </c>
@@ -2782,8 +2829,11 @@
       </c>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
-      <c r="J13" s="70">
+      <c r="J13" s="67">
         <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="K13" s="72">
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="O13" s="10"/>
       <c r="P13" s="10"/>
@@ -2793,10 +2843,10 @@
       <c r="AC13" s="10"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A14" s="67" t="s">
+      <c r="A14" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="68"/>
+      <c r="B14" s="70"/>
       <c r="C14" s="59">
         <v>-8.0000000000000002E-3</v>
       </c>
@@ -2811,8 +2861,11 @@
       </c>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
-      <c r="J14" s="70">
+      <c r="J14" s="67">
         <v>1.03E-2</v>
+      </c>
+      <c r="K14" s="72">
+        <v>8.5000000000000006E-3</v>
       </c>
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
@@ -2822,10 +2875,10 @@
       <c r="AC14" s="10"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A15" s="67" t="s">
+      <c r="A15" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="68"/>
+      <c r="B15" s="70"/>
       <c r="C15" s="59">
         <v>-1.1000000000000001E-3</v>
       </c>
@@ -2840,8 +2893,11 @@
       </c>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
-      <c r="J15" s="70">
+      <c r="J15" s="67">
         <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="K15" s="73">
+        <v>-9.7999999999999997E-3</v>
       </c>
       <c r="O15" s="10"/>
       <c r="P15" s="10"/>
@@ -2851,10 +2907,10 @@
       <c r="AC15" s="10"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A16" s="67" t="s">
+      <c r="A16" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="68"/>
+      <c r="B16" s="70"/>
       <c r="C16" s="58">
         <v>8.6999999999999994E-3</v>
       </c>
@@ -2869,8 +2925,11 @@
       </c>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
-      <c r="J16" s="70">
+      <c r="J16" s="67">
         <v>1.7600000000000001E-2</v>
+      </c>
+      <c r="K16" s="73">
+        <v>-2.5700000000000001E-2</v>
       </c>
       <c r="O16" s="10"/>
       <c r="P16" s="10"/>
@@ -2880,10 +2939,10 @@
       <c r="AC16" s="10"/>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A17" s="67" t="s">
+      <c r="A17" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="68"/>
+      <c r="B17" s="70"/>
       <c r="C17" s="58">
         <v>1.4500000000000001E-2</v>
       </c>
@@ -2898,8 +2957,11 @@
       </c>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
-      <c r="J17" s="70">
+      <c r="J17" s="67">
         <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="K17" s="72">
+        <v>1.5100000000000001E-2</v>
       </c>
       <c r="O17" s="10"/>
       <c r="P17" s="10"/>
@@ -2909,10 +2971,10 @@
       <c r="AC17" s="10"/>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A18" s="67" t="s">
+      <c r="A18" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="68"/>
+      <c r="B18" s="70"/>
       <c r="C18" s="58">
         <v>1.7399999999999999E-2</v>
       </c>
@@ -2927,8 +2989,11 @@
       </c>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="70">
+      <c r="J18" s="67">
         <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="K18" s="73">
+        <v>-3.5900000000000001E-2</v>
       </c>
       <c r="O18" s="10"/>
       <c r="P18" s="10"/>
@@ -2938,10 +3003,10 @@
       <c r="AC18" s="10"/>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A19" s="67" t="s">
+      <c r="A19" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="68"/>
+      <c r="B19" s="70"/>
       <c r="C19" s="58">
         <v>3.4200000000000001E-2</v>
       </c>
@@ -2956,8 +3021,11 @@
       </c>
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
-      <c r="J19" s="70">
+      <c r="J19" s="67">
         <v>7.9000000000000008E-3</v>
+      </c>
+      <c r="K19" s="73">
+        <v>-1.9800000000000002E-2</v>
       </c>
       <c r="O19" s="10"/>
       <c r="P19" s="10"/>
@@ -2967,10 +3035,10 @@
       <c r="AC19" s="10"/>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A20" s="67" t="s">
+      <c r="A20" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="68"/>
+      <c r="B20" s="70"/>
       <c r="C20" s="58">
         <v>6.9999999999999999E-4</v>
       </c>
@@ -2985,8 +3053,11 @@
       </c>
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
-      <c r="J20" s="71">
+      <c r="J20" s="68">
         <v>-5.7999999999999996E-3</v>
+      </c>
+      <c r="K20" s="73">
+        <v>-1.9599999999999999E-2</v>
       </c>
       <c r="O20" s="10"/>
       <c r="P20" s="10"/>
@@ -2996,10 +3067,10 @@
       <c r="AC20" s="10"/>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A21" s="67" t="s">
+      <c r="A21" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="68"/>
+      <c r="B21" s="70"/>
       <c r="C21" s="58">
         <v>5.3E-3</v>
       </c>
@@ -3014,8 +3085,11 @@
       </c>
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
-      <c r="J21" s="70">
+      <c r="J21" s="67">
         <v>1.52E-2</v>
+      </c>
+      <c r="K21" s="73">
+        <v>-1.2800000000000001E-2</v>
       </c>
       <c r="O21" s="10"/>
       <c r="P21" s="10"/>
@@ -3025,10 +3099,10 @@
       <c r="AC21" s="10"/>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A22" s="67" t="s">
+      <c r="A22" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="68"/>
+      <c r="B22" s="70"/>
       <c r="C22" s="58">
         <v>4.6600000000000003E-2</v>
       </c>
@@ -3043,8 +3117,11 @@
       </c>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
-      <c r="J22" s="70">
+      <c r="J22" s="67">
         <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="K22" s="73">
+        <v>-3.8600000000000002E-2</v>
       </c>
       <c r="O22" s="10"/>
       <c r="P22" s="10"/>
@@ -3054,10 +3131,10 @@
       <c r="AC22" s="10"/>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A23" s="67" t="s">
+      <c r="A23" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="68"/>
+      <c r="B23" s="70"/>
       <c r="C23" s="58">
         <v>5.4100000000000002E-2</v>
       </c>
@@ -3072,8 +3149,11 @@
       </c>
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
-      <c r="J23" s="70">
+      <c r="J23" s="67">
         <v>1.26E-2</v>
+      </c>
+      <c r="K23" s="73">
+        <v>-3.1800000000000002E-2</v>
       </c>
       <c r="O23" s="10"/>
       <c r="P23" s="10"/>
@@ -3083,10 +3163,10 @@
       <c r="AC23" s="10"/>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A24" s="67" t="s">
+      <c r="A24" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="68"/>
+      <c r="B24" s="70"/>
       <c r="C24" s="58">
         <v>4.0899999999999999E-2</v>
       </c>
@@ -3101,8 +3181,11 @@
       </c>
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
-      <c r="J24" s="70">
+      <c r="J24" s="67">
         <v>8.3999999999999995E-3</v>
+      </c>
+      <c r="K24" s="73">
+        <v>-5.3800000000000001E-2</v>
       </c>
       <c r="O24" s="10"/>
       <c r="P24" s="10"/>
@@ -3116,8 +3199,11 @@
         <v>25</v>
       </c>
       <c r="I25" s="10"/>
-      <c r="J25" s="71">
+      <c r="J25" s="68">
         <v>-4.4000000000000003E-3</v>
+      </c>
+      <c r="K25" s="73">
+        <v>-5.7000000000000002E-2</v>
       </c>
       <c r="O25" s="10"/>
       <c r="P25" s="10"/>
@@ -3128,17 +3214,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
@@ -3151,6 +3226,17 @@
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TRADE_LIST.xlsx
+++ b/TRADE_LIST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Balaji Lp\Documents\stock_updates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D9D473-892E-41E5-B162-DEEA3DE9FDB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB3875A-DAF7-4D9E-B3C6-7527CD3A8FE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{20DEF1ED-0919-437D-AD3F-D3C8E402565E}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="26">
   <si>
     <t>MONEY'S</t>
   </si>
@@ -122,7 +122,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="41" x14ac:knownFonts="1">
+  <fonts count="43" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -373,6 +373,18 @@
     <font>
       <sz val="7"/>
       <color rgb="FF64B70B"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF64B70B"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFF54D4D"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -492,7 +504,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -562,11 +574,13 @@
     <xf numFmtId="10" fontId="35" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="38" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="39" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="39" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="42" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -884,7 +898,7 @@
   <dimension ref="A1:AC29"/>
   <sheetViews>
     <sheetView topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AF9" sqref="AF9"/>
+      <selection activeCell="AA9" sqref="AA9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1006,10 +1020,10 @@
       <c r="F2" s="11">
         <v>-1.89E-2</v>
       </c>
-      <c r="G2" s="69" t="s">
+      <c r="G2" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="71"/>
+      <c r="H2" s="73"/>
       <c r="I2" s="15">
         <v>-6.4000000000000003E-3</v>
       </c>
@@ -1023,10 +1037,10 @@
       <c r="M2" s="23">
         <v>9.1999999999999998E-3</v>
       </c>
-      <c r="N2" s="69" t="s">
+      <c r="N2" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="70"/>
+      <c r="O2" s="72"/>
       <c r="P2" s="41"/>
       <c r="Q2" s="34">
         <v>2.0999999999999999E-3</v>
@@ -1038,10 +1052,10 @@
       <c r="T2" s="43">
         <v>-1.9599999999999999E-2</v>
       </c>
-      <c r="U2" s="69" t="s">
+      <c r="U2" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="V2" s="70"/>
+      <c r="V2" s="72"/>
       <c r="W2" s="48">
         <v>1.6799999999999999E-2</v>
       </c>
@@ -1079,10 +1093,10 @@
       <c r="F3" s="11">
         <v>-1.8499999999999999E-2</v>
       </c>
-      <c r="G3" s="69" t="s">
+      <c r="G3" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="71"/>
+      <c r="H3" s="73"/>
       <c r="I3" s="16">
         <v>1.4200000000000001E-2</v>
       </c>
@@ -1096,10 +1110,10 @@
       <c r="M3" s="23">
         <v>0</v>
       </c>
-      <c r="N3" s="69" t="s">
+      <c r="N3" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="70"/>
+      <c r="O3" s="72"/>
       <c r="P3" s="35">
         <v>-3.2000000000000002E-3</v>
       </c>
@@ -1115,10 +1129,10 @@
       <c r="T3" s="43">
         <v>-7.6E-3</v>
       </c>
-      <c r="U3" s="69" t="s">
+      <c r="U3" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="V3" s="70"/>
+      <c r="V3" s="72"/>
       <c r="W3" s="49">
         <v>-1.9E-3</v>
       </c>
@@ -1158,10 +1172,10 @@
       <c r="F4" s="11">
         <v>-8.2000000000000007E-3</v>
       </c>
-      <c r="G4" s="69" t="s">
+      <c r="G4" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="71"/>
+      <c r="H4" s="73"/>
       <c r="I4" s="15">
         <v>-1.9E-3</v>
       </c>
@@ -1175,10 +1189,10 @@
       <c r="M4" s="25">
         <v>-3.3E-3</v>
       </c>
-      <c r="N4" s="69" t="s">
+      <c r="N4" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="O4" s="70"/>
+      <c r="O4" s="72"/>
       <c r="P4" s="41"/>
       <c r="Q4" s="34">
         <v>1.34E-2</v>
@@ -1190,10 +1204,10 @@
       <c r="T4" s="42">
         <v>0</v>
       </c>
-      <c r="U4" s="69" t="s">
+      <c r="U4" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="V4" s="70"/>
+      <c r="V4" s="72"/>
       <c r="W4" s="48">
         <v>2.3800000000000002E-2</v>
       </c>
@@ -1231,10 +1245,10 @@
       <c r="F5" s="12">
         <v>0.1152</v>
       </c>
-      <c r="G5" s="69" t="s">
+      <c r="G5" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="71"/>
+      <c r="H5" s="73"/>
       <c r="I5" s="16">
         <v>2.9399999999999999E-2</v>
       </c>
@@ -1248,10 +1262,10 @@
       <c r="M5" s="25">
         <v>-3.6600000000000001E-2</v>
       </c>
-      <c r="N5" s="69" t="s">
+      <c r="N5" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="O5" s="70"/>
+      <c r="O5" s="72"/>
       <c r="P5" s="41"/>
       <c r="Q5" s="34">
         <v>1.7100000000000001E-2</v>
@@ -1263,10 +1277,10 @@
       <c r="T5" s="43">
         <v>-2.6499999999999999E-2</v>
       </c>
-      <c r="U5" s="69" t="s">
+      <c r="U5" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="V5" s="70"/>
+      <c r="V5" s="72"/>
       <c r="W5" s="48">
         <v>4.4499999999999998E-2</v>
       </c>
@@ -1304,10 +1318,10 @@
       <c r="F6" s="11">
         <v>-3.2300000000000002E-2</v>
       </c>
-      <c r="G6" s="69" t="s">
+      <c r="G6" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="71"/>
+      <c r="H6" s="73"/>
       <c r="I6" s="15">
         <v>-2.8799999999999999E-2</v>
       </c>
@@ -1321,10 +1335,10 @@
       <c r="M6" s="23">
         <v>1.03E-2</v>
       </c>
-      <c r="N6" s="69" t="s">
+      <c r="N6" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="O6" s="70"/>
+      <c r="O6" s="72"/>
       <c r="P6" s="41"/>
       <c r="Q6" s="34">
         <v>1.78E-2</v>
@@ -1336,10 +1350,10 @@
       <c r="T6" s="43">
         <v>-8.3000000000000001E-3</v>
       </c>
-      <c r="U6" s="69" t="s">
+      <c r="U6" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="V6" s="70"/>
+      <c r="V6" s="72"/>
       <c r="W6" s="48">
         <v>1.1900000000000001E-2</v>
       </c>
@@ -1377,10 +1391,10 @@
       <c r="F7" s="13">
         <v>-2.5600000000000001E-2</v>
       </c>
-      <c r="G7" s="69" t="s">
+      <c r="G7" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="71"/>
+      <c r="H7" s="73"/>
       <c r="I7" s="17">
         <v>4.0000000000000001E-3</v>
       </c>
@@ -1394,10 +1408,10 @@
       <c r="M7" s="27">
         <v>-3.5999999999999999E-3</v>
       </c>
-      <c r="N7" s="69" t="s">
+      <c r="N7" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="O7" s="70"/>
+      <c r="O7" s="72"/>
       <c r="P7" s="37"/>
       <c r="Q7" s="36">
         <v>5.0000000000000001E-3</v>
@@ -1409,10 +1423,10 @@
       <c r="T7" s="46">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="U7" s="69" t="s">
+      <c r="U7" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="V7" s="70"/>
+      <c r="V7" s="72"/>
       <c r="W7" s="49">
         <v>-1.4500000000000001E-2</v>
       </c>
@@ -1450,10 +1464,10 @@
       <c r="F8" s="12">
         <v>1.3100000000000001E-2</v>
       </c>
-      <c r="G8" s="69" t="s">
+      <c r="G8" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="71"/>
+      <c r="H8" s="73"/>
       <c r="I8" s="16">
         <v>1.3299999999999999E-2</v>
       </c>
@@ -1467,10 +1481,10 @@
       <c r="M8" s="25">
         <v>-1.7999999999999999E-2</v>
       </c>
-      <c r="N8" s="69" t="s">
+      <c r="N8" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="O8" s="70"/>
+      <c r="O8" s="72"/>
       <c r="P8" s="41"/>
       <c r="Q8" s="35">
         <v>-1.26E-2</v>
@@ -1482,10 +1496,10 @@
       <c r="T8" s="43">
         <v>-1.6199999999999999E-2</v>
       </c>
-      <c r="U8" s="69" t="s">
+      <c r="U8" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="V8" s="70"/>
+      <c r="V8" s="72"/>
       <c r="W8" s="49">
         <v>-2.7300000000000001E-2</v>
       </c>
@@ -1525,10 +1539,10 @@
       <c r="F9" s="12">
         <v>0.04</v>
       </c>
-      <c r="G9" s="69" t="s">
+      <c r="G9" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="71"/>
+      <c r="H9" s="73"/>
       <c r="I9" s="16">
         <v>3.5000000000000001E-3</v>
       </c>
@@ -1542,10 +1556,10 @@
       <c r="M9" s="23">
         <v>1.49E-2</v>
       </c>
-      <c r="N9" s="69" t="s">
+      <c r="N9" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="O9" s="70"/>
+      <c r="O9" s="72"/>
       <c r="P9" s="41"/>
       <c r="Q9" s="35">
         <v>-1.3299999999999999E-2</v>
@@ -1557,10 +1571,10 @@
       <c r="T9" s="42">
         <v>2.06E-2</v>
       </c>
-      <c r="U9" s="69" t="s">
+      <c r="U9" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="V9" s="70"/>
+      <c r="V9" s="72"/>
       <c r="W9" s="49">
         <v>-1.2E-2</v>
       </c>
@@ -1598,10 +1612,10 @@
       <c r="F10" s="12">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="G10" s="69" t="s">
+      <c r="G10" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="71"/>
+      <c r="H10" s="73"/>
       <c r="I10" s="15">
         <v>-1.7899999999999999E-2</v>
       </c>
@@ -1615,10 +1629,10 @@
       <c r="M10" s="25">
         <v>-2.2000000000000001E-3</v>
       </c>
-      <c r="N10" s="69" t="s">
+      <c r="N10" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="O10" s="70"/>
+      <c r="O10" s="72"/>
       <c r="P10" s="41"/>
       <c r="Q10" s="34">
         <v>5.5999999999999999E-3</v>
@@ -1630,10 +1644,10 @@
       <c r="T10" s="43">
         <v>-1.14E-2</v>
       </c>
-      <c r="U10" s="69" t="s">
+      <c r="U10" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="V10" s="70"/>
+      <c r="V10" s="72"/>
       <c r="W10" s="48">
         <v>6.0000000000000001E-3</v>
       </c>
@@ -1671,10 +1685,10 @@
       <c r="F11" s="11">
         <v>-1.2699999999999999E-2</v>
       </c>
-      <c r="G11" s="69" t="s">
+      <c r="G11" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="71"/>
+      <c r="H11" s="73"/>
       <c r="I11" s="15">
         <v>-4.0000000000000002E-4</v>
       </c>
@@ -1688,10 +1702,10 @@
       <c r="M11" s="25">
         <v>-1.7000000000000001E-2</v>
       </c>
-      <c r="N11" s="69" t="s">
+      <c r="N11" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="O11" s="70"/>
+      <c r="O11" s="72"/>
       <c r="P11" s="41"/>
       <c r="Q11" s="35">
         <v>-4.5999999999999999E-3</v>
@@ -1703,10 +1717,10 @@
       <c r="T11" s="43">
         <v>-8.0000000000000002E-3</v>
       </c>
-      <c r="U11" s="69" t="s">
+      <c r="U11" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="V11" s="70"/>
+      <c r="V11" s="72"/>
       <c r="W11" s="49">
         <v>-4.1999999999999997E-3</v>
       </c>
@@ -1744,10 +1758,10 @@
       <c r="F12" s="12">
         <v>3.7199999999999997E-2</v>
       </c>
-      <c r="G12" s="69" t="s">
+      <c r="G12" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="71"/>
+      <c r="H12" s="73"/>
       <c r="I12" s="16">
         <v>3.4700000000000002E-2</v>
       </c>
@@ -1761,10 +1775,10 @@
       <c r="M12" s="23">
         <v>1.78E-2</v>
       </c>
-      <c r="N12" s="69" t="s">
+      <c r="N12" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="O12" s="70"/>
+      <c r="O12" s="72"/>
       <c r="P12" s="41"/>
       <c r="Q12" s="35">
         <v>-5.2200000000000003E-2</v>
@@ -1776,10 +1790,10 @@
       <c r="T12" s="42">
         <v>1.15E-2</v>
       </c>
-      <c r="U12" s="69" t="s">
+      <c r="U12" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="V12" s="70"/>
+      <c r="V12" s="72"/>
       <c r="W12" s="48">
         <v>2.5499999999999998E-2</v>
       </c>
@@ -1817,10 +1831,10 @@
       <c r="F13" s="11">
         <v>-1.35E-2</v>
       </c>
-      <c r="G13" s="69" t="s">
+      <c r="G13" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="71"/>
+      <c r="H13" s="73"/>
       <c r="I13" s="16">
         <v>2.3E-3</v>
       </c>
@@ -1834,10 +1848,10 @@
       <c r="M13" s="25">
         <v>-1.4E-2</v>
       </c>
-      <c r="N13" s="69" t="s">
+      <c r="N13" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="O13" s="70"/>
+      <c r="O13" s="72"/>
       <c r="P13" s="41"/>
       <c r="Q13" s="34">
         <v>6.0000000000000001E-3</v>
@@ -1849,10 +1863,10 @@
       <c r="T13" s="43">
         <v>-7.3000000000000001E-3</v>
       </c>
-      <c r="U13" s="69" t="s">
+      <c r="U13" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="V13" s="70"/>
+      <c r="V13" s="72"/>
       <c r="W13" s="49">
         <v>-4.3E-3</v>
       </c>
@@ -1890,10 +1904,10 @@
       <c r="F14" s="13">
         <v>-6.7999999999999996E-3</v>
       </c>
-      <c r="G14" s="69" t="s">
+      <c r="G14" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="71"/>
+      <c r="H14" s="73"/>
       <c r="I14" s="16">
         <v>4.0000000000000002E-4</v>
       </c>
@@ -1907,10 +1921,10 @@
       <c r="M14" s="29">
         <v>1.5E-3</v>
       </c>
-      <c r="N14" s="69" t="s">
+      <c r="N14" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="O14" s="70"/>
+      <c r="O14" s="72"/>
       <c r="P14" s="47">
         <v>1.34</v>
       </c>
@@ -1924,10 +1938,10 @@
       <c r="T14" s="43">
         <v>-1.67E-2</v>
       </c>
-      <c r="U14" s="69" t="s">
+      <c r="U14" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="V14" s="70"/>
+      <c r="V14" s="72"/>
       <c r="W14" s="49">
         <v>-4.4999999999999997E-3</v>
       </c>
@@ -1955,10 +1969,10 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="14"/>
-      <c r="G15" s="69" t="s">
+      <c r="G15" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="71"/>
+      <c r="H15" s="73"/>
       <c r="I15" s="18"/>
       <c r="J15" s="10"/>
       <c r="K15" s="19">
@@ -1970,10 +1984,10 @@
       <c r="M15" s="23">
         <v>8.6E-3</v>
       </c>
-      <c r="N15" s="69" t="s">
+      <c r="N15" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="O15" s="70"/>
+      <c r="O15" s="72"/>
       <c r="P15" s="41"/>
       <c r="Q15" s="34">
         <v>5.9999999999999995E-4</v>
@@ -1985,10 +1999,10 @@
       <c r="T15" s="43">
         <v>-1.4E-3</v>
       </c>
-      <c r="U15" s="69" t="s">
+      <c r="U15" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="V15" s="70"/>
+      <c r="V15" s="72"/>
       <c r="W15" s="48">
         <v>8.0000000000000004E-4</v>
       </c>
@@ -2008,17 +2022,17 @@
       <c r="AC15" s="10"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="N16" s="69" t="s">
+      <c r="N16" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="O16" s="70"/>
+      <c r="O16" s="72"/>
       <c r="T16" s="43">
         <v>-2.9899999999999999E-2</v>
       </c>
-      <c r="U16" s="69" t="s">
+      <c r="U16" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="V16" s="70"/>
+      <c r="V16" s="72"/>
       <c r="W16" s="48">
         <v>1.46E-2</v>
       </c>
@@ -2038,17 +2052,17 @@
       <c r="AC16" s="10"/>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="N17" s="69" t="s">
+      <c r="N17" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="O17" s="70"/>
+      <c r="O17" s="72"/>
       <c r="T17" s="43">
         <v>-2.1700000000000001E-2</v>
       </c>
-      <c r="U17" s="69" t="s">
+      <c r="U17" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="V17" s="70"/>
+      <c r="V17" s="72"/>
       <c r="W17" s="48">
         <v>2.7000000000000001E-3</v>
       </c>
@@ -2070,17 +2084,17 @@
       <c r="AC17" s="10"/>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="N18" s="69" t="s">
+      <c r="N18" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="O18" s="70"/>
+      <c r="O18" s="72"/>
       <c r="T18" s="43">
         <v>-4.3E-3</v>
       </c>
-      <c r="U18" s="69" t="s">
+      <c r="U18" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="V18" s="70"/>
+      <c r="V18" s="72"/>
       <c r="W18" s="48">
         <v>2.4199999999999999E-2</v>
       </c>
@@ -2100,17 +2114,17 @@
       <c r="AC18" s="10"/>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="N19" s="69" t="s">
+      <c r="N19" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="O19" s="70"/>
+      <c r="O19" s="72"/>
       <c r="T19" s="43">
         <v>-8.3999999999999995E-3</v>
       </c>
-      <c r="U19" s="69" t="s">
+      <c r="U19" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="V19" s="70"/>
+      <c r="V19" s="72"/>
       <c r="W19" s="48">
         <v>3.8999999999999998E-3</v>
       </c>
@@ -2130,17 +2144,17 @@
       <c r="AC19" s="10"/>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="N20" s="69" t="s">
+      <c r="N20" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="O20" s="70"/>
+      <c r="O20" s="72"/>
       <c r="T20" s="43">
         <v>-3.0999999999999999E-3</v>
       </c>
-      <c r="U20" s="69" t="s">
+      <c r="U20" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="V20" s="70"/>
+      <c r="V20" s="72"/>
       <c r="W20" s="49">
         <v>-8.0000000000000004E-4</v>
       </c>
@@ -2162,17 +2176,17 @@
       <c r="AC20" s="10"/>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="N21" s="69" t="s">
+      <c r="N21" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="O21" s="70"/>
+      <c r="O21" s="72"/>
       <c r="T21" s="43">
         <v>-5.7999999999999996E-3</v>
       </c>
-      <c r="U21" s="69" t="s">
+      <c r="U21" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="V21" s="70"/>
+      <c r="V21" s="72"/>
       <c r="W21" s="48">
         <v>6.7999999999999996E-3</v>
       </c>
@@ -2192,17 +2206,17 @@
       <c r="AC21" s="10"/>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="N22" s="69" t="s">
+      <c r="N22" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="O22" s="70"/>
+      <c r="O22" s="72"/>
       <c r="T22" s="43">
         <v>-1.26E-2</v>
       </c>
-      <c r="U22" s="69" t="s">
+      <c r="U22" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="V22" s="70"/>
+      <c r="V22" s="72"/>
       <c r="W22" s="49">
         <v>-2.5000000000000001E-3</v>
       </c>
@@ -2222,17 +2236,17 @@
       <c r="AC22" s="10"/>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="N23" s="69" t="s">
+      <c r="N23" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="O23" s="70"/>
+      <c r="O23" s="72"/>
       <c r="T23" s="43">
         <v>-3.8E-3</v>
       </c>
-      <c r="U23" s="69" t="s">
+      <c r="U23" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="V23" s="70"/>
+      <c r="V23" s="72"/>
       <c r="W23" s="49">
         <v>-8.0000000000000004E-4</v>
       </c>
@@ -2253,17 +2267,17 @@
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
-      <c r="N24" s="69" t="s">
+      <c r="N24" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="O24" s="70"/>
+      <c r="O24" s="72"/>
       <c r="T24" s="43">
         <v>-2.7099999999999999E-2</v>
       </c>
-      <c r="U24" s="69" t="s">
+      <c r="U24" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="V24" s="70"/>
+      <c r="V24" s="72"/>
       <c r="W24" s="49">
         <v>-1.11E-2</v>
       </c>
@@ -2299,11 +2313,45 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
     <mergeCell ref="N15:O15"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="G15:H15"/>
@@ -2320,45 +2368,11 @@
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="N14:O14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2370,7 +2384,7 @@
   <dimension ref="A1:AC25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2459,10 +2473,10 @@
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="70"/>
+      <c r="B2" s="72"/>
       <c r="C2" s="58">
         <v>2.0999999999999999E-3</v>
       </c>
@@ -2475,13 +2489,18 @@
       <c r="F2" s="66">
         <v>-4.4999999999999997E-3</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
+      <c r="H2" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="72"/>
       <c r="J2" s="67">
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="K2" s="73">
+      <c r="K2" s="70">
         <v>-3.2899999999999999E-2</v>
+      </c>
+      <c r="L2" s="74">
+        <v>1.3299999999999999E-2</v>
       </c>
       <c r="O2" s="10"/>
       <c r="P2" s="10"/>
@@ -2491,10 +2510,10 @@
       <c r="AC2" s="10"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="70"/>
+      <c r="B3" s="72"/>
       <c r="C3" s="58">
         <v>1.12E-2</v>
       </c>
@@ -2507,13 +2526,18 @@
       <c r="F3" s="65">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
+      <c r="H3" s="71" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="72"/>
       <c r="J3" s="67">
         <v>1.01E-2</v>
       </c>
-      <c r="K3" s="72">
+      <c r="K3" s="69">
         <v>1.4E-2</v>
+      </c>
+      <c r="L3" s="75">
+        <v>-9.7999999999999997E-3</v>
       </c>
       <c r="O3" s="10"/>
       <c r="P3" s="10"/>
@@ -2523,10 +2547,10 @@
       <c r="AC3" s="10"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="70"/>
+      <c r="B4" s="72"/>
       <c r="C4" s="59">
         <v>-5.1999999999999998E-3</v>
       </c>
@@ -2539,13 +2563,18 @@
       <c r="F4" s="65">
         <v>1.72E-2</v>
       </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
+      <c r="H4" s="71" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="72"/>
       <c r="J4" s="67">
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="K4" s="73">
+      <c r="K4" s="70">
         <v>-4.2299999999999997E-2</v>
+      </c>
+      <c r="L4" s="74">
+        <v>1.7899999999999999E-2</v>
       </c>
       <c r="O4" s="10"/>
       <c r="P4" s="10"/>
@@ -2555,10 +2584,10 @@
       <c r="AC4" s="10"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="70"/>
+      <c r="B5" s="72"/>
       <c r="C5" s="58">
         <v>2.18E-2</v>
       </c>
@@ -2571,13 +2600,18 @@
       <c r="F5" s="65">
         <v>1.6899999999999998E-2</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
+      <c r="H5" s="71" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="72"/>
       <c r="J5" s="67">
         <v>3.8999999999999998E-3</v>
       </c>
-      <c r="K5" s="73">
+      <c r="K5" s="70">
         <v>-8.1199999999999994E-2</v>
+      </c>
+      <c r="L5" s="75">
+        <v>-2.53E-2</v>
       </c>
       <c r="O5" s="10"/>
       <c r="P5" s="10"/>
@@ -2587,10 +2621,10 @@
       <c r="AC5" s="10"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="70"/>
+      <c r="B6" s="72"/>
       <c r="C6" s="59">
         <v>-6.9999999999999999E-4</v>
       </c>
@@ -2603,13 +2637,18 @@
       <c r="F6" s="66">
         <v>-3.5499999999999997E-2</v>
       </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
+      <c r="H6" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="72"/>
       <c r="J6" s="68">
         <v>-7.7600000000000002E-2</v>
       </c>
-      <c r="K6" s="72">
+      <c r="K6" s="69">
         <v>1.32E-2</v>
+      </c>
+      <c r="L6" s="74">
+        <v>4.5100000000000001E-2</v>
       </c>
       <c r="O6" s="10"/>
       <c r="P6" s="10"/>
@@ -2619,10 +2658,10 @@
       <c r="AC6" s="10"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="70"/>
+      <c r="B7" s="72"/>
       <c r="C7" s="59">
         <v>-1.9E-3</v>
       </c>
@@ -2635,13 +2674,18 @@
       <c r="F7" s="65">
         <v>1.8E-3</v>
       </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
+      <c r="H7" s="71" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="72"/>
       <c r="J7" s="68">
         <v>-4.4000000000000003E-3</v>
       </c>
-      <c r="K7" s="73">
+      <c r="K7" s="70">
         <v>-1.0800000000000001E-2</v>
+      </c>
+      <c r="L7" s="75">
+        <v>-5.1999999999999998E-3</v>
       </c>
       <c r="O7" s="10"/>
       <c r="P7" s="10"/>
@@ -2651,10 +2695,10 @@
       <c r="AC7" s="10"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="70"/>
+      <c r="B8" s="72"/>
       <c r="C8" s="59">
         <v>-2.52E-2</v>
       </c>
@@ -2667,13 +2711,18 @@
       <c r="F8" s="65">
         <v>1.7600000000000001E-2</v>
       </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
+      <c r="H8" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="72"/>
       <c r="J8" s="67">
         <v>0</v>
       </c>
-      <c r="K8" s="73">
+      <c r="K8" s="70">
         <v>-4.9700000000000001E-2</v>
+      </c>
+      <c r="L8" s="74">
+        <v>1.5E-3</v>
       </c>
       <c r="O8" s="10"/>
       <c r="P8" s="10"/>
@@ -2683,10 +2732,10 @@
       <c r="AC8" s="10"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="70"/>
+      <c r="B9" s="72"/>
       <c r="C9" s="59">
         <v>-9.4000000000000004E-3</v>
       </c>
@@ -2699,13 +2748,18 @@
       <c r="F9" s="66">
         <v>-2.9999999999999997E-4</v>
       </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
+      <c r="H9" s="71" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="72"/>
       <c r="J9" s="67">
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="K9" s="73">
+      <c r="K9" s="70">
         <v>-5.62E-2</v>
+      </c>
+      <c r="L9" s="75">
+        <v>-1.1299999999999999E-2</v>
       </c>
       <c r="O9" s="10"/>
       <c r="P9" s="10"/>
@@ -2715,10 +2769,10 @@
       <c r="AC9" s="10"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A10" s="69" t="s">
+      <c r="A10" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="70"/>
+      <c r="B10" s="72"/>
       <c r="C10" s="58">
         <v>3.6999999999999998E-2</v>
       </c>
@@ -2731,13 +2785,18 @@
       <c r="F10" s="66">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
+      <c r="H10" s="71" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="72"/>
       <c r="J10" s="67">
         <v>1.2699999999999999E-2</v>
       </c>
-      <c r="K10" s="73">
+      <c r="K10" s="70">
         <v>-1.7500000000000002E-2</v>
+      </c>
+      <c r="L10" s="74">
+        <v>4.3E-3</v>
       </c>
       <c r="O10" s="10"/>
       <c r="P10" s="10"/>
@@ -2747,10 +2806,10 @@
       <c r="AC10" s="10"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A11" s="69" t="s">
+      <c r="A11" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="70"/>
+      <c r="B11" s="72"/>
       <c r="C11" s="58">
         <v>1.7399999999999999E-2</v>
       </c>
@@ -2763,13 +2822,18 @@
       <c r="F11" s="66">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
+      <c r="H11" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="72"/>
       <c r="J11" s="67">
         <v>4.7000000000000002E-3</v>
       </c>
-      <c r="K11" s="73">
+      <c r="K11" s="70">
         <v>-3.7000000000000002E-3</v>
+      </c>
+      <c r="L11" s="75">
+        <v>-4.4000000000000003E-3</v>
       </c>
       <c r="O11" s="10"/>
       <c r="P11" s="10"/>
@@ -2779,10 +2843,10 @@
       <c r="AC11" s="10"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A12" s="69" t="s">
+      <c r="A12" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="70"/>
+      <c r="B12" s="72"/>
       <c r="C12" s="58">
         <v>3.3700000000000001E-2</v>
       </c>
@@ -2795,13 +2859,18 @@
       <c r="F12" s="65">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
+      <c r="H12" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="72"/>
       <c r="J12" s="68">
         <v>-4.7000000000000002E-3</v>
       </c>
-      <c r="K12" s="73">
+      <c r="K12" s="70">
         <v>-2.7099999999999999E-2</v>
+      </c>
+      <c r="L12" s="75">
+        <v>-5.7000000000000002E-3</v>
       </c>
       <c r="O12" s="10"/>
       <c r="P12" s="10"/>
@@ -2811,10 +2880,10 @@
       <c r="AC12" s="10"/>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A13" s="69" t="s">
+      <c r="A13" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="70"/>
+      <c r="B13" s="72"/>
       <c r="C13" s="58">
         <v>4.2599999999999999E-2</v>
       </c>
@@ -2827,13 +2896,18 @@
       <c r="F13" s="66">
         <v>-6.6E-3</v>
       </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
+      <c r="H13" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="72"/>
       <c r="J13" s="67">
         <v>1.1299999999999999E-2</v>
       </c>
-      <c r="K13" s="72">
+      <c r="K13" s="69">
         <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="L13" s="74">
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="O13" s="10"/>
       <c r="P13" s="10"/>
@@ -2843,10 +2917,10 @@
       <c r="AC13" s="10"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A14" s="69" t="s">
+      <c r="A14" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="70"/>
+      <c r="B14" s="72"/>
       <c r="C14" s="59">
         <v>-8.0000000000000002E-3</v>
       </c>
@@ -2859,13 +2933,18 @@
       <c r="F14" s="66">
         <v>-7.3000000000000001E-3</v>
       </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
+      <c r="H14" s="71" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="72"/>
       <c r="J14" s="67">
         <v>1.03E-2</v>
       </c>
-      <c r="K14" s="72">
+      <c r="K14" s="69">
         <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="L14" s="74">
+        <v>5.1999999999999998E-3</v>
       </c>
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
@@ -2875,10 +2954,10 @@
       <c r="AC14" s="10"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A15" s="69" t="s">
+      <c r="A15" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="70"/>
+      <c r="B15" s="72"/>
       <c r="C15" s="59">
         <v>-1.1000000000000001E-3</v>
       </c>
@@ -2891,13 +2970,18 @@
       <c r="F15" s="66">
         <v>-7.6E-3</v>
       </c>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
+      <c r="H15" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="72"/>
       <c r="J15" s="67">
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="K15" s="73">
+      <c r="K15" s="70">
         <v>-9.7999999999999997E-3</v>
+      </c>
+      <c r="L15" s="75">
+        <v>-1.0500000000000001E-2</v>
       </c>
       <c r="O15" s="10"/>
       <c r="P15" s="10"/>
@@ -2907,10 +2991,10 @@
       <c r="AC15" s="10"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A16" s="69" t="s">
+      <c r="A16" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="70"/>
+      <c r="B16" s="72"/>
       <c r="C16" s="58">
         <v>8.6999999999999994E-3</v>
       </c>
@@ -2923,13 +3007,18 @@
       <c r="F16" s="66">
         <v>-4.4999999999999997E-3</v>
       </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
+      <c r="H16" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="72"/>
       <c r="J16" s="67">
         <v>1.7600000000000001E-2</v>
       </c>
-      <c r="K16" s="73">
+      <c r="K16" s="70">
         <v>-2.5700000000000001E-2</v>
+      </c>
+      <c r="L16" s="75">
+        <v>-8.6E-3</v>
       </c>
       <c r="O16" s="10"/>
       <c r="P16" s="10"/>
@@ -2939,10 +3028,10 @@
       <c r="AC16" s="10"/>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A17" s="69" t="s">
+      <c r="A17" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="70"/>
+      <c r="B17" s="72"/>
       <c r="C17" s="58">
         <v>1.4500000000000001E-2</v>
       </c>
@@ -2955,13 +3044,18 @@
       <c r="F17" s="66">
         <v>-5.5999999999999999E-3</v>
       </c>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
+      <c r="H17" s="71" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="72"/>
       <c r="J17" s="67">
         <v>5.4000000000000003E-3</v>
       </c>
-      <c r="K17" s="72">
+      <c r="K17" s="69">
         <v>1.5100000000000001E-2</v>
+      </c>
+      <c r="L17" s="74">
+        <v>1.15E-2</v>
       </c>
       <c r="O17" s="10"/>
       <c r="P17" s="10"/>
@@ -2971,10 +3065,10 @@
       <c r="AC17" s="10"/>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A18" s="69" t="s">
+      <c r="A18" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="70"/>
+      <c r="B18" s="72"/>
       <c r="C18" s="58">
         <v>1.7399999999999999E-2</v>
       </c>
@@ -2987,13 +3081,18 @@
       <c r="F18" s="66">
         <v>-8.0000000000000004E-4</v>
       </c>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
+      <c r="H18" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="72"/>
       <c r="J18" s="67">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="K18" s="73">
+      <c r="K18" s="70">
         <v>-3.5900000000000001E-2</v>
+      </c>
+      <c r="L18" s="74">
+        <v>6.4999999999999997E-3</v>
       </c>
       <c r="O18" s="10"/>
       <c r="P18" s="10"/>
@@ -3003,10 +3102,10 @@
       <c r="AC18" s="10"/>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A19" s="69" t="s">
+      <c r="A19" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="70"/>
+      <c r="B19" s="72"/>
       <c r="C19" s="58">
         <v>3.4200000000000001E-2</v>
       </c>
@@ -3019,13 +3118,18 @@
       <c r="F19" s="66">
         <v>-6.0000000000000001E-3</v>
       </c>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
+      <c r="H19" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="72"/>
       <c r="J19" s="67">
         <v>7.9000000000000008E-3</v>
       </c>
-      <c r="K19" s="73">
+      <c r="K19" s="70">
         <v>-1.9800000000000002E-2</v>
+      </c>
+      <c r="L19" s="74">
+        <v>4.4000000000000003E-3</v>
       </c>
       <c r="O19" s="10"/>
       <c r="P19" s="10"/>
@@ -3035,10 +3139,10 @@
       <c r="AC19" s="10"/>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A20" s="69" t="s">
+      <c r="A20" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="70"/>
+      <c r="B20" s="72"/>
       <c r="C20" s="58">
         <v>6.9999999999999999E-4</v>
       </c>
@@ -3051,13 +3155,18 @@
       <c r="F20" s="66">
         <v>-1.15E-2</v>
       </c>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
+      <c r="H20" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" s="72"/>
       <c r="J20" s="68">
         <v>-5.7999999999999996E-3</v>
       </c>
-      <c r="K20" s="73">
+      <c r="K20" s="70">
         <v>-1.9599999999999999E-2</v>
+      </c>
+      <c r="L20" s="74">
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="O20" s="10"/>
       <c r="P20" s="10"/>
@@ -3067,10 +3176,10 @@
       <c r="AC20" s="10"/>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A21" s="69" t="s">
+      <c r="A21" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="70"/>
+      <c r="B21" s="72"/>
       <c r="C21" s="58">
         <v>5.3E-3</v>
       </c>
@@ -3083,13 +3192,18 @@
       <c r="F21" s="65">
         <v>1.6199999999999999E-2</v>
       </c>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
+      <c r="H21" s="71" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" s="72"/>
       <c r="J21" s="67">
         <v>1.52E-2</v>
       </c>
-      <c r="K21" s="73">
+      <c r="K21" s="70">
         <v>-1.2800000000000001E-2</v>
+      </c>
+      <c r="L21" s="75">
+        <v>-8.5000000000000006E-3</v>
       </c>
       <c r="O21" s="10"/>
       <c r="P21" s="10"/>
@@ -3099,10 +3213,10 @@
       <c r="AC21" s="10"/>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A22" s="69" t="s">
+      <c r="A22" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="70"/>
+      <c r="B22" s="72"/>
       <c r="C22" s="58">
         <v>4.6600000000000003E-2</v>
       </c>
@@ -3115,13 +3229,18 @@
       <c r="F22" s="65">
         <v>7.7999999999999996E-3</v>
       </c>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
+      <c r="H22" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="72"/>
       <c r="J22" s="67">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="K22" s="73">
+      <c r="K22" s="70">
         <v>-3.8600000000000002E-2</v>
+      </c>
+      <c r="L22" s="75">
+        <v>-1.1999999999999999E-3</v>
       </c>
       <c r="O22" s="10"/>
       <c r="P22" s="10"/>
@@ -3131,10 +3250,10 @@
       <c r="AC22" s="10"/>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A23" s="69" t="s">
+      <c r="A23" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="70"/>
+      <c r="B23" s="72"/>
       <c r="C23" s="58">
         <v>5.4100000000000002E-2</v>
       </c>
@@ -3147,13 +3266,18 @@
       <c r="F23" s="66">
         <v>-4.7000000000000002E-3</v>
       </c>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
+      <c r="H23" s="71" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" s="72"/>
       <c r="J23" s="67">
         <v>1.26E-2</v>
       </c>
-      <c r="K23" s="73">
+      <c r="K23" s="70">
         <v>-3.1800000000000002E-2</v>
+      </c>
+      <c r="L23" s="75">
+        <v>-3.7000000000000002E-3</v>
       </c>
       <c r="O23" s="10"/>
       <c r="P23" s="10"/>
@@ -3163,10 +3287,10 @@
       <c r="AC23" s="10"/>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A24" s="69" t="s">
+      <c r="A24" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="70"/>
+      <c r="B24" s="72"/>
       <c r="C24" s="58">
         <v>4.0899999999999999E-2</v>
       </c>
@@ -3179,13 +3303,18 @@
       <c r="F24" s="66">
         <v>-6.1999999999999998E-3</v>
       </c>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
+      <c r="H24" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="I24" s="72"/>
       <c r="J24" s="67">
         <v>8.3999999999999995E-3</v>
       </c>
-      <c r="K24" s="73">
+      <c r="K24" s="70">
         <v>-5.3800000000000001E-2</v>
+      </c>
+      <c r="L24" s="74">
+        <v>2.8400000000000002E-2</v>
       </c>
       <c r="O24" s="10"/>
       <c r="P24" s="10"/>
@@ -3195,15 +3324,18 @@
       <c r="AC24" s="10"/>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="H25" s="10" t="s">
+      <c r="H25" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="I25" s="10"/>
+      <c r="I25" s="72"/>
       <c r="J25" s="68">
         <v>-4.4000000000000003E-3</v>
       </c>
-      <c r="K25" s="73">
+      <c r="K25" s="70">
         <v>-5.7000000000000002E-2</v>
+      </c>
+      <c r="L25" s="74">
+        <v>6.7999999999999996E-3</v>
       </c>
       <c r="O25" s="10"/>
       <c r="P25" s="10"/>
@@ -3213,7 +3345,42 @@
       <c r="AC25" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="47">
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
@@ -3226,17 +3393,6 @@
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TRADE_LIST.xlsx
+++ b/TRADE_LIST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Balaji Lp\Documents\stock_updates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB3875A-DAF7-4D9E-B3C6-7527CD3A8FE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{474B546F-C7A5-412D-8A3B-295EB5E4C5C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{20DEF1ED-0919-437D-AD3F-D3C8E402565E}"/>
   </bookViews>
@@ -122,7 +122,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="43" x14ac:knownFonts="1">
+  <fonts count="45" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -373,6 +373,18 @@
     <font>
       <sz val="7"/>
       <color rgb="FF64B70B"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF64B70B"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFF54D4D"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -504,7 +516,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -576,11 +588,13 @@
     <xf numFmtId="10" fontId="38" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="39" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="42" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="42" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="44" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1020,10 +1034,10 @@
       <c r="F2" s="11">
         <v>-1.89E-2</v>
       </c>
-      <c r="G2" s="71" t="s">
+      <c r="G2" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="73"/>
+      <c r="H2" s="75"/>
       <c r="I2" s="15">
         <v>-6.4000000000000003E-3</v>
       </c>
@@ -1037,10 +1051,10 @@
       <c r="M2" s="23">
         <v>9.1999999999999998E-3</v>
       </c>
-      <c r="N2" s="71" t="s">
+      <c r="N2" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="72"/>
+      <c r="O2" s="74"/>
       <c r="P2" s="41"/>
       <c r="Q2" s="34">
         <v>2.0999999999999999E-3</v>
@@ -1052,10 +1066,10 @@
       <c r="T2" s="43">
         <v>-1.9599999999999999E-2</v>
       </c>
-      <c r="U2" s="71" t="s">
+      <c r="U2" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="V2" s="72"/>
+      <c r="V2" s="74"/>
       <c r="W2" s="48">
         <v>1.6799999999999999E-2</v>
       </c>
@@ -1093,10 +1107,10 @@
       <c r="F3" s="11">
         <v>-1.8499999999999999E-2</v>
       </c>
-      <c r="G3" s="71" t="s">
+      <c r="G3" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="73"/>
+      <c r="H3" s="75"/>
       <c r="I3" s="16">
         <v>1.4200000000000001E-2</v>
       </c>
@@ -1110,10 +1124,10 @@
       <c r="M3" s="23">
         <v>0</v>
       </c>
-      <c r="N3" s="71" t="s">
+      <c r="N3" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="72"/>
+      <c r="O3" s="74"/>
       <c r="P3" s="35">
         <v>-3.2000000000000002E-3</v>
       </c>
@@ -1129,10 +1143,10 @@
       <c r="T3" s="43">
         <v>-7.6E-3</v>
       </c>
-      <c r="U3" s="71" t="s">
+      <c r="U3" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="V3" s="72"/>
+      <c r="V3" s="74"/>
       <c r="W3" s="49">
         <v>-1.9E-3</v>
       </c>
@@ -1172,10 +1186,10 @@
       <c r="F4" s="11">
         <v>-8.2000000000000007E-3</v>
       </c>
-      <c r="G4" s="71" t="s">
+      <c r="G4" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="73"/>
+      <c r="H4" s="75"/>
       <c r="I4" s="15">
         <v>-1.9E-3</v>
       </c>
@@ -1189,10 +1203,10 @@
       <c r="M4" s="25">
         <v>-3.3E-3</v>
       </c>
-      <c r="N4" s="71" t="s">
+      <c r="N4" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="O4" s="72"/>
+      <c r="O4" s="74"/>
       <c r="P4" s="41"/>
       <c r="Q4" s="34">
         <v>1.34E-2</v>
@@ -1204,10 +1218,10 @@
       <c r="T4" s="42">
         <v>0</v>
       </c>
-      <c r="U4" s="71" t="s">
+      <c r="U4" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="V4" s="72"/>
+      <c r="V4" s="74"/>
       <c r="W4" s="48">
         <v>2.3800000000000002E-2</v>
       </c>
@@ -1245,10 +1259,10 @@
       <c r="F5" s="12">
         <v>0.1152</v>
       </c>
-      <c r="G5" s="71" t="s">
+      <c r="G5" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="73"/>
+      <c r="H5" s="75"/>
       <c r="I5" s="16">
         <v>2.9399999999999999E-2</v>
       </c>
@@ -1262,10 +1276,10 @@
       <c r="M5" s="25">
         <v>-3.6600000000000001E-2</v>
       </c>
-      <c r="N5" s="71" t="s">
+      <c r="N5" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="O5" s="72"/>
+      <c r="O5" s="74"/>
       <c r="P5" s="41"/>
       <c r="Q5" s="34">
         <v>1.7100000000000001E-2</v>
@@ -1277,10 +1291,10 @@
       <c r="T5" s="43">
         <v>-2.6499999999999999E-2</v>
       </c>
-      <c r="U5" s="71" t="s">
+      <c r="U5" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="V5" s="72"/>
+      <c r="V5" s="74"/>
       <c r="W5" s="48">
         <v>4.4499999999999998E-2</v>
       </c>
@@ -1318,10 +1332,10 @@
       <c r="F6" s="11">
         <v>-3.2300000000000002E-2</v>
       </c>
-      <c r="G6" s="71" t="s">
+      <c r="G6" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="73"/>
+      <c r="H6" s="75"/>
       <c r="I6" s="15">
         <v>-2.8799999999999999E-2</v>
       </c>
@@ -1335,10 +1349,10 @@
       <c r="M6" s="23">
         <v>1.03E-2</v>
       </c>
-      <c r="N6" s="71" t="s">
+      <c r="N6" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="O6" s="72"/>
+      <c r="O6" s="74"/>
       <c r="P6" s="41"/>
       <c r="Q6" s="34">
         <v>1.78E-2</v>
@@ -1350,10 +1364,10 @@
       <c r="T6" s="43">
         <v>-8.3000000000000001E-3</v>
       </c>
-      <c r="U6" s="71" t="s">
+      <c r="U6" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="V6" s="72"/>
+      <c r="V6" s="74"/>
       <c r="W6" s="48">
         <v>1.1900000000000001E-2</v>
       </c>
@@ -1391,10 +1405,10 @@
       <c r="F7" s="13">
         <v>-2.5600000000000001E-2</v>
       </c>
-      <c r="G7" s="71" t="s">
+      <c r="G7" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="73"/>
+      <c r="H7" s="75"/>
       <c r="I7" s="17">
         <v>4.0000000000000001E-3</v>
       </c>
@@ -1408,10 +1422,10 @@
       <c r="M7" s="27">
         <v>-3.5999999999999999E-3</v>
       </c>
-      <c r="N7" s="71" t="s">
+      <c r="N7" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="O7" s="72"/>
+      <c r="O7" s="74"/>
       <c r="P7" s="37"/>
       <c r="Q7" s="36">
         <v>5.0000000000000001E-3</v>
@@ -1423,10 +1437,10 @@
       <c r="T7" s="46">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="U7" s="71" t="s">
+      <c r="U7" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="V7" s="72"/>
+      <c r="V7" s="74"/>
       <c r="W7" s="49">
         <v>-1.4500000000000001E-2</v>
       </c>
@@ -1464,10 +1478,10 @@
       <c r="F8" s="12">
         <v>1.3100000000000001E-2</v>
       </c>
-      <c r="G8" s="71" t="s">
+      <c r="G8" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="73"/>
+      <c r="H8" s="75"/>
       <c r="I8" s="16">
         <v>1.3299999999999999E-2</v>
       </c>
@@ -1481,10 +1495,10 @@
       <c r="M8" s="25">
         <v>-1.7999999999999999E-2</v>
       </c>
-      <c r="N8" s="71" t="s">
+      <c r="N8" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="O8" s="72"/>
+      <c r="O8" s="74"/>
       <c r="P8" s="41"/>
       <c r="Q8" s="35">
         <v>-1.26E-2</v>
@@ -1496,10 +1510,10 @@
       <c r="T8" s="43">
         <v>-1.6199999999999999E-2</v>
       </c>
-      <c r="U8" s="71" t="s">
+      <c r="U8" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="V8" s="72"/>
+      <c r="V8" s="74"/>
       <c r="W8" s="49">
         <v>-2.7300000000000001E-2</v>
       </c>
@@ -1539,10 +1553,10 @@
       <c r="F9" s="12">
         <v>0.04</v>
       </c>
-      <c r="G9" s="71" t="s">
+      <c r="G9" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="73"/>
+      <c r="H9" s="75"/>
       <c r="I9" s="16">
         <v>3.5000000000000001E-3</v>
       </c>
@@ -1556,10 +1570,10 @@
       <c r="M9" s="23">
         <v>1.49E-2</v>
       </c>
-      <c r="N9" s="71" t="s">
+      <c r="N9" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="O9" s="72"/>
+      <c r="O9" s="74"/>
       <c r="P9" s="41"/>
       <c r="Q9" s="35">
         <v>-1.3299999999999999E-2</v>
@@ -1571,10 +1585,10 @@
       <c r="T9" s="42">
         <v>2.06E-2</v>
       </c>
-      <c r="U9" s="71" t="s">
+      <c r="U9" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="V9" s="72"/>
+      <c r="V9" s="74"/>
       <c r="W9" s="49">
         <v>-1.2E-2</v>
       </c>
@@ -1612,10 +1626,10 @@
       <c r="F10" s="12">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="G10" s="71" t="s">
+      <c r="G10" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="73"/>
+      <c r="H10" s="75"/>
       <c r="I10" s="15">
         <v>-1.7899999999999999E-2</v>
       </c>
@@ -1629,10 +1643,10 @@
       <c r="M10" s="25">
         <v>-2.2000000000000001E-3</v>
       </c>
-      <c r="N10" s="71" t="s">
+      <c r="N10" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="O10" s="72"/>
+      <c r="O10" s="74"/>
       <c r="P10" s="41"/>
       <c r="Q10" s="34">
         <v>5.5999999999999999E-3</v>
@@ -1644,10 +1658,10 @@
       <c r="T10" s="43">
         <v>-1.14E-2</v>
       </c>
-      <c r="U10" s="71" t="s">
+      <c r="U10" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="V10" s="72"/>
+      <c r="V10" s="74"/>
       <c r="W10" s="48">
         <v>6.0000000000000001E-3</v>
       </c>
@@ -1685,10 +1699,10 @@
       <c r="F11" s="11">
         <v>-1.2699999999999999E-2</v>
       </c>
-      <c r="G11" s="71" t="s">
+      <c r="G11" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="73"/>
+      <c r="H11" s="75"/>
       <c r="I11" s="15">
         <v>-4.0000000000000002E-4</v>
       </c>
@@ -1702,10 +1716,10 @@
       <c r="M11" s="25">
         <v>-1.7000000000000001E-2</v>
       </c>
-      <c r="N11" s="71" t="s">
+      <c r="N11" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O11" s="72"/>
+      <c r="O11" s="74"/>
       <c r="P11" s="41"/>
       <c r="Q11" s="35">
         <v>-4.5999999999999999E-3</v>
@@ -1717,10 +1731,10 @@
       <c r="T11" s="43">
         <v>-8.0000000000000002E-3</v>
       </c>
-      <c r="U11" s="71" t="s">
+      <c r="U11" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="V11" s="72"/>
+      <c r="V11" s="74"/>
       <c r="W11" s="49">
         <v>-4.1999999999999997E-3</v>
       </c>
@@ -1758,10 +1772,10 @@
       <c r="F12" s="12">
         <v>3.7199999999999997E-2</v>
       </c>
-      <c r="G12" s="71" t="s">
+      <c r="G12" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="73"/>
+      <c r="H12" s="75"/>
       <c r="I12" s="16">
         <v>3.4700000000000002E-2</v>
       </c>
@@ -1775,10 +1789,10 @@
       <c r="M12" s="23">
         <v>1.78E-2</v>
       </c>
-      <c r="N12" s="71" t="s">
+      <c r="N12" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="O12" s="72"/>
+      <c r="O12" s="74"/>
       <c r="P12" s="41"/>
       <c r="Q12" s="35">
         <v>-5.2200000000000003E-2</v>
@@ -1790,10 +1804,10 @@
       <c r="T12" s="42">
         <v>1.15E-2</v>
       </c>
-      <c r="U12" s="71" t="s">
+      <c r="U12" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="V12" s="72"/>
+      <c r="V12" s="74"/>
       <c r="W12" s="48">
         <v>2.5499999999999998E-2</v>
       </c>
@@ -1831,10 +1845,10 @@
       <c r="F13" s="11">
         <v>-1.35E-2</v>
       </c>
-      <c r="G13" s="71" t="s">
+      <c r="G13" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="73"/>
+      <c r="H13" s="75"/>
       <c r="I13" s="16">
         <v>2.3E-3</v>
       </c>
@@ -1848,10 +1862,10 @@
       <c r="M13" s="25">
         <v>-1.4E-2</v>
       </c>
-      <c r="N13" s="71" t="s">
+      <c r="N13" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="O13" s="72"/>
+      <c r="O13" s="74"/>
       <c r="P13" s="41"/>
       <c r="Q13" s="34">
         <v>6.0000000000000001E-3</v>
@@ -1863,10 +1877,10 @@
       <c r="T13" s="43">
         <v>-7.3000000000000001E-3</v>
       </c>
-      <c r="U13" s="71" t="s">
+      <c r="U13" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="V13" s="72"/>
+      <c r="V13" s="74"/>
       <c r="W13" s="49">
         <v>-4.3E-3</v>
       </c>
@@ -1904,10 +1918,10 @@
       <c r="F14" s="13">
         <v>-6.7999999999999996E-3</v>
       </c>
-      <c r="G14" s="71" t="s">
+      <c r="G14" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="73"/>
+      <c r="H14" s="75"/>
       <c r="I14" s="16">
         <v>4.0000000000000002E-4</v>
       </c>
@@ -1921,10 +1935,10 @@
       <c r="M14" s="29">
         <v>1.5E-3</v>
       </c>
-      <c r="N14" s="71" t="s">
+      <c r="N14" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="O14" s="72"/>
+      <c r="O14" s="74"/>
       <c r="P14" s="47">
         <v>1.34</v>
       </c>
@@ -1938,10 +1952,10 @@
       <c r="T14" s="43">
         <v>-1.67E-2</v>
       </c>
-      <c r="U14" s="71" t="s">
+      <c r="U14" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="V14" s="72"/>
+      <c r="V14" s="74"/>
       <c r="W14" s="49">
         <v>-4.4999999999999997E-3</v>
       </c>
@@ -1969,10 +1983,10 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="14"/>
-      <c r="G15" s="71" t="s">
+      <c r="G15" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="73"/>
+      <c r="H15" s="75"/>
       <c r="I15" s="18"/>
       <c r="J15" s="10"/>
       <c r="K15" s="19">
@@ -1984,10 +1998,10 @@
       <c r="M15" s="23">
         <v>8.6E-3</v>
       </c>
-      <c r="N15" s="71" t="s">
+      <c r="N15" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="O15" s="72"/>
+      <c r="O15" s="74"/>
       <c r="P15" s="41"/>
       <c r="Q15" s="34">
         <v>5.9999999999999995E-4</v>
@@ -1999,10 +2013,10 @@
       <c r="T15" s="43">
         <v>-1.4E-3</v>
       </c>
-      <c r="U15" s="71" t="s">
+      <c r="U15" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="V15" s="72"/>
+      <c r="V15" s="74"/>
       <c r="W15" s="48">
         <v>8.0000000000000004E-4</v>
       </c>
@@ -2022,17 +2036,17 @@
       <c r="AC15" s="10"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="N16" s="71" t="s">
+      <c r="N16" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="O16" s="72"/>
+      <c r="O16" s="74"/>
       <c r="T16" s="43">
         <v>-2.9899999999999999E-2</v>
       </c>
-      <c r="U16" s="71" t="s">
+      <c r="U16" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="V16" s="72"/>
+      <c r="V16" s="74"/>
       <c r="W16" s="48">
         <v>1.46E-2</v>
       </c>
@@ -2052,17 +2066,17 @@
       <c r="AC16" s="10"/>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="N17" s="71" t="s">
+      <c r="N17" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="O17" s="72"/>
+      <c r="O17" s="74"/>
       <c r="T17" s="43">
         <v>-2.1700000000000001E-2</v>
       </c>
-      <c r="U17" s="71" t="s">
+      <c r="U17" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="V17" s="72"/>
+      <c r="V17" s="74"/>
       <c r="W17" s="48">
         <v>2.7000000000000001E-3</v>
       </c>
@@ -2084,17 +2098,17 @@
       <c r="AC17" s="10"/>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="N18" s="71" t="s">
+      <c r="N18" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="O18" s="72"/>
+      <c r="O18" s="74"/>
       <c r="T18" s="43">
         <v>-4.3E-3</v>
       </c>
-      <c r="U18" s="71" t="s">
+      <c r="U18" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="V18" s="72"/>
+      <c r="V18" s="74"/>
       <c r="W18" s="48">
         <v>2.4199999999999999E-2</v>
       </c>
@@ -2114,17 +2128,17 @@
       <c r="AC18" s="10"/>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="N19" s="71" t="s">
+      <c r="N19" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="O19" s="72"/>
+      <c r="O19" s="74"/>
       <c r="T19" s="43">
         <v>-8.3999999999999995E-3</v>
       </c>
-      <c r="U19" s="71" t="s">
+      <c r="U19" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="V19" s="72"/>
+      <c r="V19" s="74"/>
       <c r="W19" s="48">
         <v>3.8999999999999998E-3</v>
       </c>
@@ -2144,17 +2158,17 @@
       <c r="AC19" s="10"/>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="N20" s="71" t="s">
+      <c r="N20" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="O20" s="72"/>
+      <c r="O20" s="74"/>
       <c r="T20" s="43">
         <v>-3.0999999999999999E-3</v>
       </c>
-      <c r="U20" s="71" t="s">
+      <c r="U20" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="V20" s="72"/>
+      <c r="V20" s="74"/>
       <c r="W20" s="49">
         <v>-8.0000000000000004E-4</v>
       </c>
@@ -2176,17 +2190,17 @@
       <c r="AC20" s="10"/>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="N21" s="71" t="s">
+      <c r="N21" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="O21" s="72"/>
+      <c r="O21" s="74"/>
       <c r="T21" s="43">
         <v>-5.7999999999999996E-3</v>
       </c>
-      <c r="U21" s="71" t="s">
+      <c r="U21" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="V21" s="72"/>
+      <c r="V21" s="74"/>
       <c r="W21" s="48">
         <v>6.7999999999999996E-3</v>
       </c>
@@ -2206,17 +2220,17 @@
       <c r="AC21" s="10"/>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="N22" s="71" t="s">
+      <c r="N22" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="O22" s="72"/>
+      <c r="O22" s="74"/>
       <c r="T22" s="43">
         <v>-1.26E-2</v>
       </c>
-      <c r="U22" s="71" t="s">
+      <c r="U22" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="V22" s="72"/>
+      <c r="V22" s="74"/>
       <c r="W22" s="49">
         <v>-2.5000000000000001E-3</v>
       </c>
@@ -2236,17 +2250,17 @@
       <c r="AC22" s="10"/>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="N23" s="71" t="s">
+      <c r="N23" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="O23" s="72"/>
+      <c r="O23" s="74"/>
       <c r="T23" s="43">
         <v>-3.8E-3</v>
       </c>
-      <c r="U23" s="71" t="s">
+      <c r="U23" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="V23" s="72"/>
+      <c r="V23" s="74"/>
       <c r="W23" s="49">
         <v>-8.0000000000000004E-4</v>
       </c>
@@ -2267,17 +2281,17 @@
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
-      <c r="N24" s="71" t="s">
+      <c r="N24" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="O24" s="72"/>
+      <c r="O24" s="74"/>
       <c r="T24" s="43">
         <v>-2.7099999999999999E-2</v>
       </c>
-      <c r="U24" s="71" t="s">
+      <c r="U24" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="V24" s="72"/>
+      <c r="V24" s="74"/>
       <c r="W24" s="49">
         <v>-1.11E-2</v>
       </c>
@@ -2313,45 +2327,11 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="N14:O14"/>
     <mergeCell ref="N15:O15"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="G15:H15"/>
@@ -2368,11 +2348,45 @@
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="G12:H12"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="U20:V20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2384,7 +2398,7 @@
   <dimension ref="A1:AC25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+      <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2473,10 +2487,10 @@
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="72"/>
+      <c r="B2" s="74"/>
       <c r="C2" s="58">
         <v>2.0999999999999999E-3</v>
       </c>
@@ -2489,18 +2503,21 @@
       <c r="F2" s="66">
         <v>-4.4999999999999997E-3</v>
       </c>
-      <c r="H2" s="71" t="s">
+      <c r="H2" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="72"/>
+      <c r="I2" s="74"/>
       <c r="J2" s="67">
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="K2" s="70">
         <v>-3.2899999999999999E-2</v>
       </c>
-      <c r="L2" s="74">
+      <c r="L2" s="71">
         <v>1.3299999999999999E-2</v>
+      </c>
+      <c r="M2" s="76">
+        <v>1.5100000000000001E-2</v>
       </c>
       <c r="O2" s="10"/>
       <c r="P2" s="10"/>
@@ -2510,10 +2527,10 @@
       <c r="AC2" s="10"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="72"/>
+      <c r="B3" s="74"/>
       <c r="C3" s="58">
         <v>1.12E-2</v>
       </c>
@@ -2526,18 +2543,21 @@
       <c r="F3" s="65">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="H3" s="71" t="s">
+      <c r="H3" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="72"/>
+      <c r="I3" s="74"/>
       <c r="J3" s="67">
         <v>1.01E-2</v>
       </c>
       <c r="K3" s="69">
         <v>1.4E-2</v>
       </c>
-      <c r="L3" s="75">
+      <c r="L3" s="72">
         <v>-9.7999999999999997E-3</v>
+      </c>
+      <c r="M3" s="76">
+        <v>1.7899999999999999E-2</v>
       </c>
       <c r="O3" s="10"/>
       <c r="P3" s="10"/>
@@ -2547,10 +2567,10 @@
       <c r="AC3" s="10"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="72"/>
+      <c r="B4" s="74"/>
       <c r="C4" s="59">
         <v>-5.1999999999999998E-3</v>
       </c>
@@ -2563,18 +2583,21 @@
       <c r="F4" s="65">
         <v>1.72E-2</v>
       </c>
-      <c r="H4" s="71" t="s">
+      <c r="H4" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="72"/>
+      <c r="I4" s="74"/>
       <c r="J4" s="67">
         <v>9.4999999999999998E-3</v>
       </c>
       <c r="K4" s="70">
         <v>-4.2299999999999997E-2</v>
       </c>
-      <c r="L4" s="74">
+      <c r="L4" s="71">
         <v>1.7899999999999999E-2</v>
+      </c>
+      <c r="M4" s="76">
+        <v>1.6199999999999999E-2</v>
       </c>
       <c r="O4" s="10"/>
       <c r="P4" s="10"/>
@@ -2584,10 +2607,10 @@
       <c r="AC4" s="10"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="72"/>
+      <c r="B5" s="74"/>
       <c r="C5" s="58">
         <v>2.18E-2</v>
       </c>
@@ -2600,18 +2623,21 @@
       <c r="F5" s="65">
         <v>1.6899999999999998E-2</v>
       </c>
-      <c r="H5" s="71" t="s">
+      <c r="H5" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="72"/>
+      <c r="I5" s="74"/>
       <c r="J5" s="67">
         <v>3.8999999999999998E-3</v>
       </c>
       <c r="K5" s="70">
         <v>-8.1199999999999994E-2</v>
       </c>
-      <c r="L5" s="75">
+      <c r="L5" s="72">
         <v>-2.53E-2</v>
+      </c>
+      <c r="M5" s="76">
+        <v>1.66E-2</v>
       </c>
       <c r="O5" s="10"/>
       <c r="P5" s="10"/>
@@ -2621,10 +2647,10 @@
       <c r="AC5" s="10"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A6" s="71" t="s">
+      <c r="A6" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="72"/>
+      <c r="B6" s="74"/>
       <c r="C6" s="59">
         <v>-6.9999999999999999E-4</v>
       </c>
@@ -2637,18 +2663,21 @@
       <c r="F6" s="66">
         <v>-3.5499999999999997E-2</v>
       </c>
-      <c r="H6" s="71" t="s">
+      <c r="H6" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="72"/>
+      <c r="I6" s="74"/>
       <c r="J6" s="68">
         <v>-7.7600000000000002E-2</v>
       </c>
       <c r="K6" s="69">
         <v>1.32E-2</v>
       </c>
-      <c r="L6" s="74">
+      <c r="L6" s="71">
         <v>4.5100000000000001E-2</v>
+      </c>
+      <c r="M6" s="76">
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="O6" s="10"/>
       <c r="P6" s="10"/>
@@ -2658,10 +2687,10 @@
       <c r="AC6" s="10"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A7" s="71" t="s">
+      <c r="A7" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="72"/>
+      <c r="B7" s="74"/>
       <c r="C7" s="59">
         <v>-1.9E-3</v>
       </c>
@@ -2674,18 +2703,21 @@
       <c r="F7" s="65">
         <v>1.8E-3</v>
       </c>
-      <c r="H7" s="71" t="s">
+      <c r="H7" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="72"/>
+      <c r="I7" s="74"/>
       <c r="J7" s="68">
         <v>-4.4000000000000003E-3</v>
       </c>
       <c r="K7" s="70">
         <v>-1.0800000000000001E-2</v>
       </c>
-      <c r="L7" s="75">
+      <c r="L7" s="72">
         <v>-5.1999999999999998E-3</v>
+      </c>
+      <c r="M7" s="76">
+        <v>5.7000000000000002E-3</v>
       </c>
       <c r="O7" s="10"/>
       <c r="P7" s="10"/>
@@ -2695,10 +2727,10 @@
       <c r="AC7" s="10"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="72"/>
+      <c r="B8" s="74"/>
       <c r="C8" s="59">
         <v>-2.52E-2</v>
       </c>
@@ -2711,18 +2743,21 @@
       <c r="F8" s="65">
         <v>1.7600000000000001E-2</v>
       </c>
-      <c r="H8" s="71" t="s">
+      <c r="H8" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="72"/>
+      <c r="I8" s="74"/>
       <c r="J8" s="67">
         <v>0</v>
       </c>
       <c r="K8" s="70">
         <v>-4.9700000000000001E-2</v>
       </c>
-      <c r="L8" s="74">
+      <c r="L8" s="71">
         <v>1.5E-3</v>
+      </c>
+      <c r="M8" s="76">
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="O8" s="10"/>
       <c r="P8" s="10"/>
@@ -2732,10 +2767,10 @@
       <c r="AC8" s="10"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A9" s="71" t="s">
+      <c r="A9" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="72"/>
+      <c r="B9" s="74"/>
       <c r="C9" s="59">
         <v>-9.4000000000000004E-3</v>
       </c>
@@ -2748,18 +2783,21 @@
       <c r="F9" s="66">
         <v>-2.9999999999999997E-4</v>
       </c>
-      <c r="H9" s="71" t="s">
+      <c r="H9" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="72"/>
+      <c r="I9" s="74"/>
       <c r="J9" s="67">
         <v>5.7999999999999996E-3</v>
       </c>
       <c r="K9" s="70">
         <v>-5.62E-2</v>
       </c>
-      <c r="L9" s="75">
+      <c r="L9" s="72">
         <v>-1.1299999999999999E-2</v>
+      </c>
+      <c r="M9" s="76">
+        <v>2.0899999999999998E-2</v>
       </c>
       <c r="O9" s="10"/>
       <c r="P9" s="10"/>
@@ -2769,10 +2807,10 @@
       <c r="AC9" s="10"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A10" s="71" t="s">
+      <c r="A10" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="72"/>
+      <c r="B10" s="74"/>
       <c r="C10" s="58">
         <v>3.6999999999999998E-2</v>
       </c>
@@ -2785,18 +2823,21 @@
       <c r="F10" s="66">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="H10" s="71" t="s">
+      <c r="H10" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="72"/>
+      <c r="I10" s="74"/>
       <c r="J10" s="67">
         <v>1.2699999999999999E-2</v>
       </c>
       <c r="K10" s="70">
         <v>-1.7500000000000002E-2</v>
       </c>
-      <c r="L10" s="74">
+      <c r="L10" s="71">
         <v>4.3E-3</v>
+      </c>
+      <c r="M10" s="76">
+        <v>1.66E-2</v>
       </c>
       <c r="O10" s="10"/>
       <c r="P10" s="10"/>
@@ -2806,10 +2847,10 @@
       <c r="AC10" s="10"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A11" s="71" t="s">
+      <c r="A11" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="72"/>
+      <c r="B11" s="74"/>
       <c r="C11" s="58">
         <v>1.7399999999999999E-2</v>
       </c>
@@ -2822,18 +2863,21 @@
       <c r="F11" s="66">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="H11" s="71" t="s">
+      <c r="H11" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="72"/>
+      <c r="I11" s="74"/>
       <c r="J11" s="67">
         <v>4.7000000000000002E-3</v>
       </c>
       <c r="K11" s="70">
         <v>-3.7000000000000002E-3</v>
       </c>
-      <c r="L11" s="75">
+      <c r="L11" s="72">
         <v>-4.4000000000000003E-3</v>
+      </c>
+      <c r="M11" s="76">
+        <v>1.54E-2</v>
       </c>
       <c r="O11" s="10"/>
       <c r="P11" s="10"/>
@@ -2843,10 +2887,10 @@
       <c r="AC11" s="10"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A12" s="71" t="s">
+      <c r="A12" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="72"/>
+      <c r="B12" s="74"/>
       <c r="C12" s="58">
         <v>3.3700000000000001E-2</v>
       </c>
@@ -2859,18 +2903,21 @@
       <c r="F12" s="65">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="H12" s="71" t="s">
+      <c r="H12" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="72"/>
+      <c r="I12" s="74"/>
       <c r="J12" s="68">
         <v>-4.7000000000000002E-3</v>
       </c>
       <c r="K12" s="70">
         <v>-2.7099999999999999E-2</v>
       </c>
-      <c r="L12" s="75">
+      <c r="L12" s="72">
         <v>-5.7000000000000002E-3</v>
+      </c>
+      <c r="M12" s="77">
+        <v>-2.75E-2</v>
       </c>
       <c r="O12" s="10"/>
       <c r="P12" s="10"/>
@@ -2880,10 +2927,10 @@
       <c r="AC12" s="10"/>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A13" s="71" t="s">
+      <c r="A13" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="72"/>
+      <c r="B13" s="74"/>
       <c r="C13" s="58">
         <v>4.2599999999999999E-2</v>
       </c>
@@ -2896,18 +2943,21 @@
       <c r="F13" s="66">
         <v>-6.6E-3</v>
       </c>
-      <c r="H13" s="71" t="s">
+      <c r="H13" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="72"/>
+      <c r="I13" s="74"/>
       <c r="J13" s="67">
         <v>1.1299999999999999E-2</v>
       </c>
       <c r="K13" s="69">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="L13" s="74">
+      <c r="L13" s="71">
         <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="M13" s="76">
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="O13" s="10"/>
       <c r="P13" s="10"/>
@@ -2917,10 +2967,10 @@
       <c r="AC13" s="10"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A14" s="71" t="s">
+      <c r="A14" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="72"/>
+      <c r="B14" s="74"/>
       <c r="C14" s="59">
         <v>-8.0000000000000002E-3</v>
       </c>
@@ -2933,18 +2983,21 @@
       <c r="F14" s="66">
         <v>-7.3000000000000001E-3</v>
       </c>
-      <c r="H14" s="71" t="s">
+      <c r="H14" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="I14" s="72"/>
+      <c r="I14" s="74"/>
       <c r="J14" s="67">
         <v>1.03E-2</v>
       </c>
       <c r="K14" s="69">
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="L14" s="74">
+      <c r="L14" s="71">
         <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="M14" s="77">
+        <v>-7.7999999999999996E-3</v>
       </c>
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
@@ -2954,10 +3007,10 @@
       <c r="AC14" s="10"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A15" s="71" t="s">
+      <c r="A15" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="72"/>
+      <c r="B15" s="74"/>
       <c r="C15" s="59">
         <v>-1.1000000000000001E-3</v>
       </c>
@@ -2970,18 +3023,21 @@
       <c r="F15" s="66">
         <v>-7.6E-3</v>
       </c>
-      <c r="H15" s="71" t="s">
+      <c r="H15" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="72"/>
+      <c r="I15" s="74"/>
       <c r="J15" s="67">
         <v>5.7999999999999996E-3</v>
       </c>
       <c r="K15" s="70">
         <v>-9.7999999999999997E-3</v>
       </c>
-      <c r="L15" s="75">
+      <c r="L15" s="72">
         <v>-1.0500000000000001E-2</v>
+      </c>
+      <c r="M15" s="76">
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="O15" s="10"/>
       <c r="P15" s="10"/>
@@ -2991,10 +3047,10 @@
       <c r="AC15" s="10"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A16" s="71" t="s">
+      <c r="A16" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="72"/>
+      <c r="B16" s="74"/>
       <c r="C16" s="58">
         <v>8.6999999999999994E-3</v>
       </c>
@@ -3007,18 +3063,21 @@
       <c r="F16" s="66">
         <v>-4.4999999999999997E-3</v>
       </c>
-      <c r="H16" s="71" t="s">
+      <c r="H16" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="72"/>
+      <c r="I16" s="74"/>
       <c r="J16" s="67">
         <v>1.7600000000000001E-2</v>
       </c>
       <c r="K16" s="70">
         <v>-2.5700000000000001E-2</v>
       </c>
-      <c r="L16" s="75">
+      <c r="L16" s="72">
         <v>-8.6E-3</v>
+      </c>
+      <c r="M16" s="76">
+        <v>1.5800000000000002E-2</v>
       </c>
       <c r="O16" s="10"/>
       <c r="P16" s="10"/>
@@ -3028,10 +3087,10 @@
       <c r="AC16" s="10"/>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A17" s="71" t="s">
+      <c r="A17" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="72"/>
+      <c r="B17" s="74"/>
       <c r="C17" s="58">
         <v>1.4500000000000001E-2</v>
       </c>
@@ -3044,18 +3103,21 @@
       <c r="F17" s="66">
         <v>-5.5999999999999999E-3</v>
       </c>
-      <c r="H17" s="71" t="s">
+      <c r="H17" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="I17" s="72"/>
+      <c r="I17" s="74"/>
       <c r="J17" s="67">
         <v>5.4000000000000003E-3</v>
       </c>
       <c r="K17" s="69">
         <v>1.5100000000000001E-2</v>
       </c>
-      <c r="L17" s="74">
+      <c r="L17" s="71">
         <v>1.15E-2</v>
+      </c>
+      <c r="M17" s="76">
+        <v>1E-3</v>
       </c>
       <c r="O17" s="10"/>
       <c r="P17" s="10"/>
@@ -3065,10 +3127,10 @@
       <c r="AC17" s="10"/>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A18" s="71" t="s">
+      <c r="A18" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="72"/>
+      <c r="B18" s="74"/>
       <c r="C18" s="58">
         <v>1.7399999999999999E-2</v>
       </c>
@@ -3081,18 +3143,21 @@
       <c r="F18" s="66">
         <v>-8.0000000000000004E-4</v>
       </c>
-      <c r="H18" s="71" t="s">
+      <c r="H18" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="72"/>
+      <c r="I18" s="74"/>
       <c r="J18" s="67">
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="K18" s="70">
         <v>-3.5900000000000001E-2</v>
       </c>
-      <c r="L18" s="74">
+      <c r="L18" s="71">
         <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="M18" s="76">
+        <v>2.06E-2</v>
       </c>
       <c r="O18" s="10"/>
       <c r="P18" s="10"/>
@@ -3102,10 +3167,10 @@
       <c r="AC18" s="10"/>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A19" s="71" t="s">
+      <c r="A19" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="72"/>
+      <c r="B19" s="74"/>
       <c r="C19" s="58">
         <v>3.4200000000000001E-2</v>
       </c>
@@ -3118,18 +3183,21 @@
       <c r="F19" s="66">
         <v>-6.0000000000000001E-3</v>
       </c>
-      <c r="H19" s="71" t="s">
+      <c r="H19" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="I19" s="72"/>
+      <c r="I19" s="74"/>
       <c r="J19" s="67">
         <v>7.9000000000000008E-3</v>
       </c>
       <c r="K19" s="70">
         <v>-1.9800000000000002E-2</v>
       </c>
-      <c r="L19" s="74">
+      <c r="L19" s="71">
         <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="M19" s="76">
+        <v>1.78E-2</v>
       </c>
       <c r="O19" s="10"/>
       <c r="P19" s="10"/>
@@ -3139,10 +3207,10 @@
       <c r="AC19" s="10"/>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A20" s="71" t="s">
+      <c r="A20" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="72"/>
+      <c r="B20" s="74"/>
       <c r="C20" s="58">
         <v>6.9999999999999999E-4</v>
       </c>
@@ -3155,18 +3223,21 @@
       <c r="F20" s="66">
         <v>-1.15E-2</v>
       </c>
-      <c r="H20" s="71" t="s">
+      <c r="H20" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="I20" s="72"/>
+      <c r="I20" s="74"/>
       <c r="J20" s="68">
         <v>-5.7999999999999996E-3</v>
       </c>
       <c r="K20" s="70">
         <v>-1.9599999999999999E-2</v>
       </c>
-      <c r="L20" s="74">
+      <c r="L20" s="71">
         <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="M20" s="76">
+        <v>2.35E-2</v>
       </c>
       <c r="O20" s="10"/>
       <c r="P20" s="10"/>
@@ -3176,10 +3247,10 @@
       <c r="AC20" s="10"/>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A21" s="71" t="s">
+      <c r="A21" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="72"/>
+      <c r="B21" s="74"/>
       <c r="C21" s="58">
         <v>5.3E-3</v>
       </c>
@@ -3192,18 +3263,21 @@
       <c r="F21" s="65">
         <v>1.6199999999999999E-2</v>
       </c>
-      <c r="H21" s="71" t="s">
+      <c r="H21" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="I21" s="72"/>
+      <c r="I21" s="74"/>
       <c r="J21" s="67">
         <v>1.52E-2</v>
       </c>
       <c r="K21" s="70">
         <v>-1.2800000000000001E-2</v>
       </c>
-      <c r="L21" s="75">
+      <c r="L21" s="72">
         <v>-8.5000000000000006E-3</v>
+      </c>
+      <c r="M21" s="76">
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="O21" s="10"/>
       <c r="P21" s="10"/>
@@ -3213,10 +3287,10 @@
       <c r="AC21" s="10"/>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A22" s="71" t="s">
+      <c r="A22" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="72"/>
+      <c r="B22" s="74"/>
       <c r="C22" s="58">
         <v>4.6600000000000003E-2</v>
       </c>
@@ -3229,18 +3303,21 @@
       <c r="F22" s="65">
         <v>7.7999999999999996E-3</v>
       </c>
-      <c r="H22" s="71" t="s">
+      <c r="H22" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="I22" s="72"/>
+      <c r="I22" s="74"/>
       <c r="J22" s="67">
         <v>3.5000000000000001E-3</v>
       </c>
       <c r="K22" s="70">
         <v>-3.8600000000000002E-2</v>
       </c>
-      <c r="L22" s="75">
+      <c r="L22" s="72">
         <v>-1.1999999999999999E-3</v>
+      </c>
+      <c r="M22" s="76">
+        <v>9.1999999999999998E-3</v>
       </c>
       <c r="O22" s="10"/>
       <c r="P22" s="10"/>
@@ -3250,10 +3327,10 @@
       <c r="AC22" s="10"/>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A23" s="71" t="s">
+      <c r="A23" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="72"/>
+      <c r="B23" s="74"/>
       <c r="C23" s="58">
         <v>5.4100000000000002E-2</v>
       </c>
@@ -3266,18 +3343,21 @@
       <c r="F23" s="66">
         <v>-4.7000000000000002E-3</v>
       </c>
-      <c r="H23" s="71" t="s">
+      <c r="H23" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="I23" s="72"/>
+      <c r="I23" s="74"/>
       <c r="J23" s="67">
         <v>1.26E-2</v>
       </c>
       <c r="K23" s="70">
         <v>-3.1800000000000002E-2</v>
       </c>
-      <c r="L23" s="75">
+      <c r="L23" s="72">
         <v>-3.7000000000000002E-3</v>
+      </c>
+      <c r="M23" s="76">
+        <v>5.8999999999999999E-3</v>
       </c>
       <c r="O23" s="10"/>
       <c r="P23" s="10"/>
@@ -3287,10 +3367,10 @@
       <c r="AC23" s="10"/>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A24" s="71" t="s">
+      <c r="A24" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="72"/>
+      <c r="B24" s="74"/>
       <c r="C24" s="58">
         <v>4.0899999999999999E-2</v>
       </c>
@@ -3303,18 +3383,21 @@
       <c r="F24" s="66">
         <v>-6.1999999999999998E-3</v>
       </c>
-      <c r="H24" s="71" t="s">
+      <c r="H24" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="I24" s="72"/>
+      <c r="I24" s="74"/>
       <c r="J24" s="67">
         <v>8.3999999999999995E-3</v>
       </c>
       <c r="K24" s="70">
         <v>-5.3800000000000001E-2</v>
       </c>
-      <c r="L24" s="74">
+      <c r="L24" s="71">
         <v>2.8400000000000002E-2</v>
+      </c>
+      <c r="M24" s="76">
+        <v>1.9099999999999999E-2</v>
       </c>
       <c r="O24" s="10"/>
       <c r="P24" s="10"/>
@@ -3324,18 +3407,21 @@
       <c r="AC24" s="10"/>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="H25" s="71" t="s">
+      <c r="H25" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="I25" s="72"/>
+      <c r="I25" s="74"/>
       <c r="J25" s="68">
         <v>-4.4000000000000003E-3</v>
       </c>
       <c r="K25" s="70">
         <v>-5.7000000000000002E-2</v>
       </c>
-      <c r="L25" s="74">
+      <c r="L25" s="71">
         <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="M25" s="76">
+        <v>3.2599999999999997E-2</v>
       </c>
       <c r="O25" s="10"/>
       <c r="P25" s="10"/>
@@ -3346,41 +3432,6 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
@@ -3393,6 +3444,41 @@
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TRADE_LIST.xlsx
+++ b/TRADE_LIST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Balaji Lp\Documents\stock_updates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{474B546F-C7A5-412D-8A3B-295EB5E4C5C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91ABDAD-D7BA-462A-9D0A-D8218A4CF0B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{20DEF1ED-0919-437D-AD3F-D3C8E402565E}"/>
   </bookViews>
@@ -122,7 +122,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="45" x14ac:knownFonts="1">
+  <fonts count="47" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -373,6 +373,18 @@
     <font>
       <sz val="7"/>
       <color rgb="FF64B70B"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF64B70B"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFF54D4D"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -516,7 +528,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -590,11 +602,13 @@
     <xf numFmtId="10" fontId="39" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="42" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="44" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="44" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="46" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1034,10 +1048,10 @@
       <c r="F2" s="11">
         <v>-1.89E-2</v>
       </c>
-      <c r="G2" s="73" t="s">
+      <c r="G2" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="75"/>
+      <c r="H2" s="77"/>
       <c r="I2" s="15">
         <v>-6.4000000000000003E-3</v>
       </c>
@@ -1051,10 +1065,10 @@
       <c r="M2" s="23">
         <v>9.1999999999999998E-3</v>
       </c>
-      <c r="N2" s="73" t="s">
+      <c r="N2" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="74"/>
+      <c r="O2" s="76"/>
       <c r="P2" s="41"/>
       <c r="Q2" s="34">
         <v>2.0999999999999999E-3</v>
@@ -1066,10 +1080,10 @@
       <c r="T2" s="43">
         <v>-1.9599999999999999E-2</v>
       </c>
-      <c r="U2" s="73" t="s">
+      <c r="U2" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="V2" s="74"/>
+      <c r="V2" s="76"/>
       <c r="W2" s="48">
         <v>1.6799999999999999E-2</v>
       </c>
@@ -1107,10 +1121,10 @@
       <c r="F3" s="11">
         <v>-1.8499999999999999E-2</v>
       </c>
-      <c r="G3" s="73" t="s">
+      <c r="G3" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="75"/>
+      <c r="H3" s="77"/>
       <c r="I3" s="16">
         <v>1.4200000000000001E-2</v>
       </c>
@@ -1124,10 +1138,10 @@
       <c r="M3" s="23">
         <v>0</v>
       </c>
-      <c r="N3" s="73" t="s">
+      <c r="N3" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="74"/>
+      <c r="O3" s="76"/>
       <c r="P3" s="35">
         <v>-3.2000000000000002E-3</v>
       </c>
@@ -1143,10 +1157,10 @@
       <c r="T3" s="43">
         <v>-7.6E-3</v>
       </c>
-      <c r="U3" s="73" t="s">
+      <c r="U3" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="V3" s="74"/>
+      <c r="V3" s="76"/>
       <c r="W3" s="49">
         <v>-1.9E-3</v>
       </c>
@@ -1186,10 +1200,10 @@
       <c r="F4" s="11">
         <v>-8.2000000000000007E-3</v>
       </c>
-      <c r="G4" s="73" t="s">
+      <c r="G4" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="75"/>
+      <c r="H4" s="77"/>
       <c r="I4" s="15">
         <v>-1.9E-3</v>
       </c>
@@ -1203,10 +1217,10 @@
       <c r="M4" s="25">
         <v>-3.3E-3</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="O4" s="74"/>
+      <c r="O4" s="76"/>
       <c r="P4" s="41"/>
       <c r="Q4" s="34">
         <v>1.34E-2</v>
@@ -1218,10 +1232,10 @@
       <c r="T4" s="42">
         <v>0</v>
       </c>
-      <c r="U4" s="73" t="s">
+      <c r="U4" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="V4" s="74"/>
+      <c r="V4" s="76"/>
       <c r="W4" s="48">
         <v>2.3800000000000002E-2</v>
       </c>
@@ -1259,10 +1273,10 @@
       <c r="F5" s="12">
         <v>0.1152</v>
       </c>
-      <c r="G5" s="73" t="s">
+      <c r="G5" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="75"/>
+      <c r="H5" s="77"/>
       <c r="I5" s="16">
         <v>2.9399999999999999E-2</v>
       </c>
@@ -1276,10 +1290,10 @@
       <c r="M5" s="25">
         <v>-3.6600000000000001E-2</v>
       </c>
-      <c r="N5" s="73" t="s">
+      <c r="N5" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="O5" s="74"/>
+      <c r="O5" s="76"/>
       <c r="P5" s="41"/>
       <c r="Q5" s="34">
         <v>1.7100000000000001E-2</v>
@@ -1291,10 +1305,10 @@
       <c r="T5" s="43">
         <v>-2.6499999999999999E-2</v>
       </c>
-      <c r="U5" s="73" t="s">
+      <c r="U5" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="V5" s="74"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="48">
         <v>4.4499999999999998E-2</v>
       </c>
@@ -1332,10 +1346,10 @@
       <c r="F6" s="11">
         <v>-3.2300000000000002E-2</v>
       </c>
-      <c r="G6" s="73" t="s">
+      <c r="G6" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="75"/>
+      <c r="H6" s="77"/>
       <c r="I6" s="15">
         <v>-2.8799999999999999E-2</v>
       </c>
@@ -1349,10 +1363,10 @@
       <c r="M6" s="23">
         <v>1.03E-2</v>
       </c>
-      <c r="N6" s="73" t="s">
+      <c r="N6" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="O6" s="74"/>
+      <c r="O6" s="76"/>
       <c r="P6" s="41"/>
       <c r="Q6" s="34">
         <v>1.78E-2</v>
@@ -1364,10 +1378,10 @@
       <c r="T6" s="43">
         <v>-8.3000000000000001E-3</v>
       </c>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="V6" s="74"/>
+      <c r="V6" s="76"/>
       <c r="W6" s="48">
         <v>1.1900000000000001E-2</v>
       </c>
@@ -1405,10 +1419,10 @@
       <c r="F7" s="13">
         <v>-2.5600000000000001E-2</v>
       </c>
-      <c r="G7" s="73" t="s">
+      <c r="G7" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="75"/>
+      <c r="H7" s="77"/>
       <c r="I7" s="17">
         <v>4.0000000000000001E-3</v>
       </c>
@@ -1422,10 +1436,10 @@
       <c r="M7" s="27">
         <v>-3.5999999999999999E-3</v>
       </c>
-      <c r="N7" s="73" t="s">
+      <c r="N7" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="O7" s="74"/>
+      <c r="O7" s="76"/>
       <c r="P7" s="37"/>
       <c r="Q7" s="36">
         <v>5.0000000000000001E-3</v>
@@ -1437,10 +1451,10 @@
       <c r="T7" s="46">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="U7" s="73" t="s">
+      <c r="U7" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="V7" s="74"/>
+      <c r="V7" s="76"/>
       <c r="W7" s="49">
         <v>-1.4500000000000001E-2</v>
       </c>
@@ -1478,10 +1492,10 @@
       <c r="F8" s="12">
         <v>1.3100000000000001E-2</v>
       </c>
-      <c r="G8" s="73" t="s">
+      <c r="G8" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="75"/>
+      <c r="H8" s="77"/>
       <c r="I8" s="16">
         <v>1.3299999999999999E-2</v>
       </c>
@@ -1495,10 +1509,10 @@
       <c r="M8" s="25">
         <v>-1.7999999999999999E-2</v>
       </c>
-      <c r="N8" s="73" t="s">
+      <c r="N8" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="O8" s="74"/>
+      <c r="O8" s="76"/>
       <c r="P8" s="41"/>
       <c r="Q8" s="35">
         <v>-1.26E-2</v>
@@ -1510,10 +1524,10 @@
       <c r="T8" s="43">
         <v>-1.6199999999999999E-2</v>
       </c>
-      <c r="U8" s="73" t="s">
+      <c r="U8" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="V8" s="74"/>
+      <c r="V8" s="76"/>
       <c r="W8" s="49">
         <v>-2.7300000000000001E-2</v>
       </c>
@@ -1553,10 +1567,10 @@
       <c r="F9" s="12">
         <v>0.04</v>
       </c>
-      <c r="G9" s="73" t="s">
+      <c r="G9" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="75"/>
+      <c r="H9" s="77"/>
       <c r="I9" s="16">
         <v>3.5000000000000001E-3</v>
       </c>
@@ -1570,10 +1584,10 @@
       <c r="M9" s="23">
         <v>1.49E-2</v>
       </c>
-      <c r="N9" s="73" t="s">
+      <c r="N9" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="O9" s="74"/>
+      <c r="O9" s="76"/>
       <c r="P9" s="41"/>
       <c r="Q9" s="35">
         <v>-1.3299999999999999E-2</v>
@@ -1585,10 +1599,10 @@
       <c r="T9" s="42">
         <v>2.06E-2</v>
       </c>
-      <c r="U9" s="73" t="s">
+      <c r="U9" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="V9" s="74"/>
+      <c r="V9" s="76"/>
       <c r="W9" s="49">
         <v>-1.2E-2</v>
       </c>
@@ -1626,10 +1640,10 @@
       <c r="F10" s="12">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="G10" s="73" t="s">
+      <c r="G10" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="75"/>
+      <c r="H10" s="77"/>
       <c r="I10" s="15">
         <v>-1.7899999999999999E-2</v>
       </c>
@@ -1643,10 +1657,10 @@
       <c r="M10" s="25">
         <v>-2.2000000000000001E-3</v>
       </c>
-      <c r="N10" s="73" t="s">
+      <c r="N10" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="O10" s="74"/>
+      <c r="O10" s="76"/>
       <c r="P10" s="41"/>
       <c r="Q10" s="34">
         <v>5.5999999999999999E-3</v>
@@ -1658,10 +1672,10 @@
       <c r="T10" s="43">
         <v>-1.14E-2</v>
       </c>
-      <c r="U10" s="73" t="s">
+      <c r="U10" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="V10" s="74"/>
+      <c r="V10" s="76"/>
       <c r="W10" s="48">
         <v>6.0000000000000001E-3</v>
       </c>
@@ -1699,10 +1713,10 @@
       <c r="F11" s="11">
         <v>-1.2699999999999999E-2</v>
       </c>
-      <c r="G11" s="73" t="s">
+      <c r="G11" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="75"/>
+      <c r="H11" s="77"/>
       <c r="I11" s="15">
         <v>-4.0000000000000002E-4</v>
       </c>
@@ -1716,10 +1730,10 @@
       <c r="M11" s="25">
         <v>-1.7000000000000001E-2</v>
       </c>
-      <c r="N11" s="73" t="s">
+      <c r="N11" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="O11" s="74"/>
+      <c r="O11" s="76"/>
       <c r="P11" s="41"/>
       <c r="Q11" s="35">
         <v>-4.5999999999999999E-3</v>
@@ -1731,10 +1745,10 @@
       <c r="T11" s="43">
         <v>-8.0000000000000002E-3</v>
       </c>
-      <c r="U11" s="73" t="s">
+      <c r="U11" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="V11" s="74"/>
+      <c r="V11" s="76"/>
       <c r="W11" s="49">
         <v>-4.1999999999999997E-3</v>
       </c>
@@ -1772,10 +1786,10 @@
       <c r="F12" s="12">
         <v>3.7199999999999997E-2</v>
       </c>
-      <c r="G12" s="73" t="s">
+      <c r="G12" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="75"/>
+      <c r="H12" s="77"/>
       <c r="I12" s="16">
         <v>3.4700000000000002E-2</v>
       </c>
@@ -1789,10 +1803,10 @@
       <c r="M12" s="23">
         <v>1.78E-2</v>
       </c>
-      <c r="N12" s="73" t="s">
+      <c r="N12" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="O12" s="74"/>
+      <c r="O12" s="76"/>
       <c r="P12" s="41"/>
       <c r="Q12" s="35">
         <v>-5.2200000000000003E-2</v>
@@ -1804,10 +1818,10 @@
       <c r="T12" s="42">
         <v>1.15E-2</v>
       </c>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="V12" s="74"/>
+      <c r="V12" s="76"/>
       <c r="W12" s="48">
         <v>2.5499999999999998E-2</v>
       </c>
@@ -1845,10 +1859,10 @@
       <c r="F13" s="11">
         <v>-1.35E-2</v>
       </c>
-      <c r="G13" s="73" t="s">
+      <c r="G13" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="75"/>
+      <c r="H13" s="77"/>
       <c r="I13" s="16">
         <v>2.3E-3</v>
       </c>
@@ -1862,10 +1876,10 @@
       <c r="M13" s="25">
         <v>-1.4E-2</v>
       </c>
-      <c r="N13" s="73" t="s">
+      <c r="N13" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="O13" s="74"/>
+      <c r="O13" s="76"/>
       <c r="P13" s="41"/>
       <c r="Q13" s="34">
         <v>6.0000000000000001E-3</v>
@@ -1877,10 +1891,10 @@
       <c r="T13" s="43">
         <v>-7.3000000000000001E-3</v>
       </c>
-      <c r="U13" s="73" t="s">
+      <c r="U13" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="V13" s="74"/>
+      <c r="V13" s="76"/>
       <c r="W13" s="49">
         <v>-4.3E-3</v>
       </c>
@@ -1918,10 +1932,10 @@
       <c r="F14" s="13">
         <v>-6.7999999999999996E-3</v>
       </c>
-      <c r="G14" s="73" t="s">
+      <c r="G14" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="75"/>
+      <c r="H14" s="77"/>
       <c r="I14" s="16">
         <v>4.0000000000000002E-4</v>
       </c>
@@ -1935,10 +1949,10 @@
       <c r="M14" s="29">
         <v>1.5E-3</v>
       </c>
-      <c r="N14" s="73" t="s">
+      <c r="N14" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="O14" s="74"/>
+      <c r="O14" s="76"/>
       <c r="P14" s="47">
         <v>1.34</v>
       </c>
@@ -1952,10 +1966,10 @@
       <c r="T14" s="43">
         <v>-1.67E-2</v>
       </c>
-      <c r="U14" s="73" t="s">
+      <c r="U14" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="V14" s="74"/>
+      <c r="V14" s="76"/>
       <c r="W14" s="49">
         <v>-4.4999999999999997E-3</v>
       </c>
@@ -1983,10 +1997,10 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="14"/>
-      <c r="G15" s="73" t="s">
+      <c r="G15" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="75"/>
+      <c r="H15" s="77"/>
       <c r="I15" s="18"/>
       <c r="J15" s="10"/>
       <c r="K15" s="19">
@@ -1998,10 +2012,10 @@
       <c r="M15" s="23">
         <v>8.6E-3</v>
       </c>
-      <c r="N15" s="73" t="s">
+      <c r="N15" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="O15" s="74"/>
+      <c r="O15" s="76"/>
       <c r="P15" s="41"/>
       <c r="Q15" s="34">
         <v>5.9999999999999995E-4</v>
@@ -2013,10 +2027,10 @@
       <c r="T15" s="43">
         <v>-1.4E-3</v>
       </c>
-      <c r="U15" s="73" t="s">
+      <c r="U15" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="V15" s="74"/>
+      <c r="V15" s="76"/>
       <c r="W15" s="48">
         <v>8.0000000000000004E-4</v>
       </c>
@@ -2036,17 +2050,17 @@
       <c r="AC15" s="10"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="N16" s="73" t="s">
+      <c r="N16" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="O16" s="74"/>
+      <c r="O16" s="76"/>
       <c r="T16" s="43">
         <v>-2.9899999999999999E-2</v>
       </c>
-      <c r="U16" s="73" t="s">
+      <c r="U16" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="V16" s="74"/>
+      <c r="V16" s="76"/>
       <c r="W16" s="48">
         <v>1.46E-2</v>
       </c>
@@ -2066,17 +2080,17 @@
       <c r="AC16" s="10"/>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="N17" s="73" t="s">
+      <c r="N17" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="O17" s="74"/>
+      <c r="O17" s="76"/>
       <c r="T17" s="43">
         <v>-2.1700000000000001E-2</v>
       </c>
-      <c r="U17" s="73" t="s">
+      <c r="U17" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="V17" s="74"/>
+      <c r="V17" s="76"/>
       <c r="W17" s="48">
         <v>2.7000000000000001E-3</v>
       </c>
@@ -2098,17 +2112,17 @@
       <c r="AC17" s="10"/>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="N18" s="73" t="s">
+      <c r="N18" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="O18" s="74"/>
+      <c r="O18" s="76"/>
       <c r="T18" s="43">
         <v>-4.3E-3</v>
       </c>
-      <c r="U18" s="73" t="s">
+      <c r="U18" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="V18" s="74"/>
+      <c r="V18" s="76"/>
       <c r="W18" s="48">
         <v>2.4199999999999999E-2</v>
       </c>
@@ -2128,17 +2142,17 @@
       <c r="AC18" s="10"/>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="N19" s="73" t="s">
+      <c r="N19" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="O19" s="74"/>
+      <c r="O19" s="76"/>
       <c r="T19" s="43">
         <v>-8.3999999999999995E-3</v>
       </c>
-      <c r="U19" s="73" t="s">
+      <c r="U19" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="V19" s="74"/>
+      <c r="V19" s="76"/>
       <c r="W19" s="48">
         <v>3.8999999999999998E-3</v>
       </c>
@@ -2158,17 +2172,17 @@
       <c r="AC19" s="10"/>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="N20" s="73" t="s">
+      <c r="N20" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="O20" s="74"/>
+      <c r="O20" s="76"/>
       <c r="T20" s="43">
         <v>-3.0999999999999999E-3</v>
       </c>
-      <c r="U20" s="73" t="s">
+      <c r="U20" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="V20" s="74"/>
+      <c r="V20" s="76"/>
       <c r="W20" s="49">
         <v>-8.0000000000000004E-4</v>
       </c>
@@ -2190,17 +2204,17 @@
       <c r="AC20" s="10"/>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="N21" s="73" t="s">
+      <c r="N21" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="O21" s="74"/>
+      <c r="O21" s="76"/>
       <c r="T21" s="43">
         <v>-5.7999999999999996E-3</v>
       </c>
-      <c r="U21" s="73" t="s">
+      <c r="U21" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="V21" s="74"/>
+      <c r="V21" s="76"/>
       <c r="W21" s="48">
         <v>6.7999999999999996E-3</v>
       </c>
@@ -2220,17 +2234,17 @@
       <c r="AC21" s="10"/>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="N22" s="73" t="s">
+      <c r="N22" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="O22" s="74"/>
+      <c r="O22" s="76"/>
       <c r="T22" s="43">
         <v>-1.26E-2</v>
       </c>
-      <c r="U22" s="73" t="s">
+      <c r="U22" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="V22" s="74"/>
+      <c r="V22" s="76"/>
       <c r="W22" s="49">
         <v>-2.5000000000000001E-3</v>
       </c>
@@ -2250,17 +2264,17 @@
       <c r="AC22" s="10"/>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="N23" s="73" t="s">
+      <c r="N23" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="O23" s="74"/>
+      <c r="O23" s="76"/>
       <c r="T23" s="43">
         <v>-3.8E-3</v>
       </c>
-      <c r="U23" s="73" t="s">
+      <c r="U23" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="V23" s="74"/>
+      <c r="V23" s="76"/>
       <c r="W23" s="49">
         <v>-8.0000000000000004E-4</v>
       </c>
@@ -2281,17 +2295,17 @@
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
-      <c r="N24" s="73" t="s">
+      <c r="N24" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="O24" s="74"/>
+      <c r="O24" s="76"/>
       <c r="T24" s="43">
         <v>-2.7099999999999999E-2</v>
       </c>
-      <c r="U24" s="73" t="s">
+      <c r="U24" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="V24" s="74"/>
+      <c r="V24" s="76"/>
       <c r="W24" s="49">
         <v>-1.11E-2</v>
       </c>
@@ -2327,11 +2341,45 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
     <mergeCell ref="N15:O15"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="G15:H15"/>
@@ -2348,45 +2396,11 @@
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="N14:O14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2398,7 +2412,7 @@
   <dimension ref="A1:AC25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+      <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2487,10 +2501,10 @@
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="74"/>
+      <c r="B2" s="76"/>
       <c r="C2" s="58">
         <v>2.0999999999999999E-3</v>
       </c>
@@ -2503,10 +2517,10 @@
       <c r="F2" s="66">
         <v>-4.4999999999999997E-3</v>
       </c>
-      <c r="H2" s="73" t="s">
+      <c r="H2" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="74"/>
+      <c r="I2" s="76"/>
       <c r="J2" s="67">
         <v>3.7499999999999999E-2</v>
       </c>
@@ -2516,8 +2530,11 @@
       <c r="L2" s="71">
         <v>1.3299999999999999E-2</v>
       </c>
-      <c r="M2" s="76">
+      <c r="M2" s="73">
         <v>1.5100000000000001E-2</v>
+      </c>
+      <c r="N2" s="78">
+        <v>6.4000000000000003E-3</v>
       </c>
       <c r="O2" s="10"/>
       <c r="P2" s="10"/>
@@ -2527,10 +2544,10 @@
       <c r="AC2" s="10"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="74"/>
+      <c r="B3" s="76"/>
       <c r="C3" s="58">
         <v>1.12E-2</v>
       </c>
@@ -2543,10 +2560,10 @@
       <c r="F3" s="65">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="H3" s="73" t="s">
+      <c r="H3" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="74"/>
+      <c r="I3" s="76"/>
       <c r="J3" s="67">
         <v>1.01E-2</v>
       </c>
@@ -2556,8 +2573,11 @@
       <c r="L3" s="72">
         <v>-9.7999999999999997E-3</v>
       </c>
-      <c r="M3" s="76">
+      <c r="M3" s="73">
         <v>1.7899999999999999E-2</v>
+      </c>
+      <c r="N3" s="79">
+        <v>-8.0000000000000004E-4</v>
       </c>
       <c r="O3" s="10"/>
       <c r="P3" s="10"/>
@@ -2567,10 +2587,10 @@
       <c r="AC3" s="10"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="74"/>
+      <c r="B4" s="76"/>
       <c r="C4" s="59">
         <v>-5.1999999999999998E-3</v>
       </c>
@@ -2583,10 +2603,10 @@
       <c r="F4" s="65">
         <v>1.72E-2</v>
       </c>
-      <c r="H4" s="73" t="s">
+      <c r="H4" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="74"/>
+      <c r="I4" s="76"/>
       <c r="J4" s="67">
         <v>9.4999999999999998E-3</v>
       </c>
@@ -2596,8 +2616,11 @@
       <c r="L4" s="71">
         <v>1.7899999999999999E-2</v>
       </c>
-      <c r="M4" s="76">
+      <c r="M4" s="73">
         <v>1.6199999999999999E-2</v>
+      </c>
+      <c r="N4" s="78">
+        <v>4.7000000000000002E-3</v>
       </c>
       <c r="O4" s="10"/>
       <c r="P4" s="10"/>
@@ -2607,10 +2630,10 @@
       <c r="AC4" s="10"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="74"/>
+      <c r="B5" s="76"/>
       <c r="C5" s="58">
         <v>2.18E-2</v>
       </c>
@@ -2623,10 +2646,10 @@
       <c r="F5" s="65">
         <v>1.6899999999999998E-2</v>
       </c>
-      <c r="H5" s="73" t="s">
+      <c r="H5" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="74"/>
+      <c r="I5" s="76"/>
       <c r="J5" s="67">
         <v>3.8999999999999998E-3</v>
       </c>
@@ -2636,8 +2659,11 @@
       <c r="L5" s="72">
         <v>-2.53E-2</v>
       </c>
-      <c r="M5" s="76">
+      <c r="M5" s="73">
         <v>1.66E-2</v>
+      </c>
+      <c r="N5" s="78">
+        <v>1.23E-2</v>
       </c>
       <c r="O5" s="10"/>
       <c r="P5" s="10"/>
@@ -2647,10 +2673,10 @@
       <c r="AC5" s="10"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="74"/>
+      <c r="B6" s="76"/>
       <c r="C6" s="59">
         <v>-6.9999999999999999E-4</v>
       </c>
@@ -2663,10 +2689,10 @@
       <c r="F6" s="66">
         <v>-3.5499999999999997E-2</v>
       </c>
-      <c r="H6" s="73" t="s">
+      <c r="H6" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="74"/>
+      <c r="I6" s="76"/>
       <c r="J6" s="68">
         <v>-7.7600000000000002E-2</v>
       </c>
@@ -2676,8 +2702,11 @@
       <c r="L6" s="71">
         <v>4.5100000000000001E-2</v>
       </c>
-      <c r="M6" s="76">
+      <c r="M6" s="73">
         <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="N6" s="78">
+        <v>2.64E-2</v>
       </c>
       <c r="O6" s="10"/>
       <c r="P6" s="10"/>
@@ -2687,10 +2716,10 @@
       <c r="AC6" s="10"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="74"/>
+      <c r="B7" s="76"/>
       <c r="C7" s="59">
         <v>-1.9E-3</v>
       </c>
@@ -2703,10 +2732,10 @@
       <c r="F7" s="65">
         <v>1.8E-3</v>
       </c>
-      <c r="H7" s="73" t="s">
+      <c r="H7" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="74"/>
+      <c r="I7" s="76"/>
       <c r="J7" s="68">
         <v>-4.4000000000000003E-3</v>
       </c>
@@ -2716,8 +2745,11 @@
       <c r="L7" s="72">
         <v>-5.1999999999999998E-3</v>
       </c>
-      <c r="M7" s="76">
+      <c r="M7" s="73">
         <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="N7" s="79">
+        <v>-2.5999999999999999E-3</v>
       </c>
       <c r="O7" s="10"/>
       <c r="P7" s="10"/>
@@ -2727,10 +2759,10 @@
       <c r="AC7" s="10"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A8" s="73" t="s">
+      <c r="A8" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="74"/>
+      <c r="B8" s="76"/>
       <c r="C8" s="59">
         <v>-2.52E-2</v>
       </c>
@@ -2743,10 +2775,10 @@
       <c r="F8" s="65">
         <v>1.7600000000000001E-2</v>
       </c>
-      <c r="H8" s="73" t="s">
+      <c r="H8" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="74"/>
+      <c r="I8" s="76"/>
       <c r="J8" s="67">
         <v>0</v>
       </c>
@@ -2756,8 +2788,11 @@
       <c r="L8" s="71">
         <v>1.5E-3</v>
       </c>
-      <c r="M8" s="76">
+      <c r="M8" s="73">
         <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="N8" s="79">
+        <v>-1.54E-2</v>
       </c>
       <c r="O8" s="10"/>
       <c r="P8" s="10"/>
@@ -2767,10 +2802,10 @@
       <c r="AC8" s="10"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A9" s="73" t="s">
+      <c r="A9" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="74"/>
+      <c r="B9" s="76"/>
       <c r="C9" s="59">
         <v>-9.4000000000000004E-3</v>
       </c>
@@ -2783,10 +2818,10 @@
       <c r="F9" s="66">
         <v>-2.9999999999999997E-4</v>
       </c>
-      <c r="H9" s="73" t="s">
+      <c r="H9" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="74"/>
+      <c r="I9" s="76"/>
       <c r="J9" s="67">
         <v>5.7999999999999996E-3</v>
       </c>
@@ -2796,8 +2831,11 @@
       <c r="L9" s="72">
         <v>-1.1299999999999999E-2</v>
       </c>
-      <c r="M9" s="76">
+      <c r="M9" s="73">
         <v>2.0899999999999998E-2</v>
+      </c>
+      <c r="N9" s="78">
+        <v>6.0299999999999999E-2</v>
       </c>
       <c r="O9" s="10"/>
       <c r="P9" s="10"/>
@@ -2807,10 +2845,10 @@
       <c r="AC9" s="10"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A10" s="73" t="s">
+      <c r="A10" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="74"/>
+      <c r="B10" s="76"/>
       <c r="C10" s="58">
         <v>3.6999999999999998E-2</v>
       </c>
@@ -2823,10 +2861,10 @@
       <c r="F10" s="66">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="H10" s="73" t="s">
+      <c r="H10" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="74"/>
+      <c r="I10" s="76"/>
       <c r="J10" s="67">
         <v>1.2699999999999999E-2</v>
       </c>
@@ -2836,8 +2874,11 @@
       <c r="L10" s="71">
         <v>4.3E-3</v>
       </c>
-      <c r="M10" s="76">
+      <c r="M10" s="73">
         <v>1.66E-2</v>
+      </c>
+      <c r="N10" s="78">
+        <v>1.9E-3</v>
       </c>
       <c r="O10" s="10"/>
       <c r="P10" s="10"/>
@@ -2847,10 +2888,10 @@
       <c r="AC10" s="10"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A11" s="73" t="s">
+      <c r="A11" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="74"/>
+      <c r="B11" s="76"/>
       <c r="C11" s="58">
         <v>1.7399999999999999E-2</v>
       </c>
@@ -2863,10 +2904,10 @@
       <c r="F11" s="66">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="H11" s="73" t="s">
+      <c r="H11" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="74"/>
+      <c r="I11" s="76"/>
       <c r="J11" s="67">
         <v>4.7000000000000002E-3</v>
       </c>
@@ -2876,8 +2917,11 @@
       <c r="L11" s="72">
         <v>-4.4000000000000003E-3</v>
       </c>
-      <c r="M11" s="76">
+      <c r="M11" s="73">
         <v>1.54E-2</v>
+      </c>
+      <c r="N11" s="78">
+        <v>1.5800000000000002E-2</v>
       </c>
       <c r="O11" s="10"/>
       <c r="P11" s="10"/>
@@ -2887,10 +2931,10 @@
       <c r="AC11" s="10"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A12" s="73" t="s">
+      <c r="A12" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="74"/>
+      <c r="B12" s="76"/>
       <c r="C12" s="58">
         <v>3.3700000000000001E-2</v>
       </c>
@@ -2903,10 +2947,10 @@
       <c r="F12" s="65">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="H12" s="73" t="s">
+      <c r="H12" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="74"/>
+      <c r="I12" s="76"/>
       <c r="J12" s="68">
         <v>-4.7000000000000002E-3</v>
       </c>
@@ -2916,8 +2960,11 @@
       <c r="L12" s="72">
         <v>-5.7000000000000002E-3</v>
       </c>
-      <c r="M12" s="77">
+      <c r="M12" s="74">
         <v>-2.75E-2</v>
+      </c>
+      <c r="N12" s="79">
+        <v>-1.8599999999999998E-2</v>
       </c>
       <c r="O12" s="10"/>
       <c r="P12" s="10"/>
@@ -2927,10 +2974,10 @@
       <c r="AC12" s="10"/>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A13" s="73" t="s">
+      <c r="A13" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="74"/>
+      <c r="B13" s="76"/>
       <c r="C13" s="58">
         <v>4.2599999999999999E-2</v>
       </c>
@@ -2943,10 +2990,10 @@
       <c r="F13" s="66">
         <v>-6.6E-3</v>
       </c>
-      <c r="H13" s="73" t="s">
+      <c r="H13" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="74"/>
+      <c r="I13" s="76"/>
       <c r="J13" s="67">
         <v>1.1299999999999999E-2</v>
       </c>
@@ -2956,8 +3003,11 @@
       <c r="L13" s="71">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="M13" s="76">
+      <c r="M13" s="73">
         <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="N13" s="78">
+        <v>1.0699999999999999E-2</v>
       </c>
       <c r="O13" s="10"/>
       <c r="P13" s="10"/>
@@ -2967,10 +3017,10 @@
       <c r="AC13" s="10"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A14" s="73" t="s">
+      <c r="A14" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="74"/>
+      <c r="B14" s="76"/>
       <c r="C14" s="59">
         <v>-8.0000000000000002E-3</v>
       </c>
@@ -2983,10 +3033,10 @@
       <c r="F14" s="66">
         <v>-7.3000000000000001E-3</v>
       </c>
-      <c r="H14" s="73" t="s">
+      <c r="H14" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="I14" s="74"/>
+      <c r="I14" s="76"/>
       <c r="J14" s="67">
         <v>1.03E-2</v>
       </c>
@@ -2996,8 +3046,11 @@
       <c r="L14" s="71">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="M14" s="77">
+      <c r="M14" s="74">
         <v>-7.7999999999999996E-3</v>
+      </c>
+      <c r="N14" s="79">
+        <v>-3.3999999999999998E-3</v>
       </c>
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
@@ -3007,10 +3060,10 @@
       <c r="AC14" s="10"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A15" s="73" t="s">
+      <c r="A15" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="74"/>
+      <c r="B15" s="76"/>
       <c r="C15" s="59">
         <v>-1.1000000000000001E-3</v>
       </c>
@@ -3023,10 +3076,10 @@
       <c r="F15" s="66">
         <v>-7.6E-3</v>
       </c>
-      <c r="H15" s="73" t="s">
+      <c r="H15" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="74"/>
+      <c r="I15" s="76"/>
       <c r="J15" s="67">
         <v>5.7999999999999996E-3</v>
       </c>
@@ -3036,8 +3089,11 @@
       <c r="L15" s="72">
         <v>-1.0500000000000001E-2</v>
       </c>
-      <c r="M15" s="76">
+      <c r="M15" s="73">
         <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="N15" s="78">
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="O15" s="10"/>
       <c r="P15" s="10"/>
@@ -3047,10 +3103,10 @@
       <c r="AC15" s="10"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A16" s="73" t="s">
+      <c r="A16" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="74"/>
+      <c r="B16" s="76"/>
       <c r="C16" s="58">
         <v>8.6999999999999994E-3</v>
       </c>
@@ -3063,10 +3119,10 @@
       <c r="F16" s="66">
         <v>-4.4999999999999997E-3</v>
       </c>
-      <c r="H16" s="73" t="s">
+      <c r="H16" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="74"/>
+      <c r="I16" s="76"/>
       <c r="J16" s="67">
         <v>1.7600000000000001E-2</v>
       </c>
@@ -3076,8 +3132,11 @@
       <c r="L16" s="72">
         <v>-8.6E-3</v>
       </c>
-      <c r="M16" s="76">
+      <c r="M16" s="73">
         <v>1.5800000000000002E-2</v>
+      </c>
+      <c r="N16" s="78">
+        <v>3.5200000000000002E-2</v>
       </c>
       <c r="O16" s="10"/>
       <c r="P16" s="10"/>
@@ -3087,10 +3146,10 @@
       <c r="AC16" s="10"/>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A17" s="73" t="s">
+      <c r="A17" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="74"/>
+      <c r="B17" s="76"/>
       <c r="C17" s="58">
         <v>1.4500000000000001E-2</v>
       </c>
@@ -3103,10 +3162,10 @@
       <c r="F17" s="66">
         <v>-5.5999999999999999E-3</v>
       </c>
-      <c r="H17" s="73" t="s">
+      <c r="H17" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="I17" s="74"/>
+      <c r="I17" s="76"/>
       <c r="J17" s="67">
         <v>5.4000000000000003E-3</v>
       </c>
@@ -3116,8 +3175,11 @@
       <c r="L17" s="71">
         <v>1.15E-2</v>
       </c>
-      <c r="M17" s="76">
+      <c r="M17" s="73">
         <v>1E-3</v>
+      </c>
+      <c r="N17" s="78">
+        <v>1.3599999999999999E-2</v>
       </c>
       <c r="O17" s="10"/>
       <c r="P17" s="10"/>
@@ -3127,10 +3189,10 @@
       <c r="AC17" s="10"/>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A18" s="73" t="s">
+      <c r="A18" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="74"/>
+      <c r="B18" s="76"/>
       <c r="C18" s="58">
         <v>1.7399999999999999E-2</v>
       </c>
@@ -3143,10 +3205,10 @@
       <c r="F18" s="66">
         <v>-8.0000000000000004E-4</v>
       </c>
-      <c r="H18" s="73" t="s">
+      <c r="H18" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="74"/>
+      <c r="I18" s="76"/>
       <c r="J18" s="67">
         <v>5.9999999999999995E-4</v>
       </c>
@@ -3156,8 +3218,11 @@
       <c r="L18" s="71">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="M18" s="76">
+      <c r="M18" s="73">
         <v>2.06E-2</v>
+      </c>
+      <c r="N18" s="79">
+        <v>-4.0000000000000001E-3</v>
       </c>
       <c r="O18" s="10"/>
       <c r="P18" s="10"/>
@@ -3167,10 +3232,10 @@
       <c r="AC18" s="10"/>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A19" s="73" t="s">
+      <c r="A19" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="74"/>
+      <c r="B19" s="76"/>
       <c r="C19" s="58">
         <v>3.4200000000000001E-2</v>
       </c>
@@ -3183,10 +3248,10 @@
       <c r="F19" s="66">
         <v>-6.0000000000000001E-3</v>
       </c>
-      <c r="H19" s="73" t="s">
+      <c r="H19" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="I19" s="74"/>
+      <c r="I19" s="76"/>
       <c r="J19" s="67">
         <v>7.9000000000000008E-3</v>
       </c>
@@ -3196,8 +3261,11 @@
       <c r="L19" s="71">
         <v>4.4000000000000003E-3</v>
       </c>
-      <c r="M19" s="76">
+      <c r="M19" s="73">
         <v>1.78E-2</v>
+      </c>
+      <c r="N19" s="78">
+        <v>3.5999999999999999E-3</v>
       </c>
       <c r="O19" s="10"/>
       <c r="P19" s="10"/>
@@ -3207,10 +3275,10 @@
       <c r="AC19" s="10"/>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A20" s="73" t="s">
+      <c r="A20" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="74"/>
+      <c r="B20" s="76"/>
       <c r="C20" s="58">
         <v>6.9999999999999999E-4</v>
       </c>
@@ -3223,10 +3291,10 @@
       <c r="F20" s="66">
         <v>-1.15E-2</v>
       </c>
-      <c r="H20" s="73" t="s">
+      <c r="H20" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="I20" s="74"/>
+      <c r="I20" s="76"/>
       <c r="J20" s="68">
         <v>-5.7999999999999996E-3</v>
       </c>
@@ -3236,8 +3304,11 @@
       <c r="L20" s="71">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="M20" s="76">
+      <c r="M20" s="73">
         <v>2.35E-2</v>
+      </c>
+      <c r="N20" s="78">
+        <v>1.5E-3</v>
       </c>
       <c r="O20" s="10"/>
       <c r="P20" s="10"/>
@@ -3247,10 +3318,10 @@
       <c r="AC20" s="10"/>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A21" s="73" t="s">
+      <c r="A21" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="74"/>
+      <c r="B21" s="76"/>
       <c r="C21" s="58">
         <v>5.3E-3</v>
       </c>
@@ -3263,10 +3334,10 @@
       <c r="F21" s="65">
         <v>1.6199999999999999E-2</v>
       </c>
-      <c r="H21" s="73" t="s">
+      <c r="H21" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="I21" s="74"/>
+      <c r="I21" s="76"/>
       <c r="J21" s="67">
         <v>1.52E-2</v>
       </c>
@@ -3276,8 +3347,11 @@
       <c r="L21" s="72">
         <v>-8.5000000000000006E-3</v>
       </c>
-      <c r="M21" s="76">
+      <c r="M21" s="73">
         <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="N21" s="78">
+        <v>2.2200000000000001E-2</v>
       </c>
       <c r="O21" s="10"/>
       <c r="P21" s="10"/>
@@ -3287,10 +3361,10 @@
       <c r="AC21" s="10"/>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A22" s="73" t="s">
+      <c r="A22" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="74"/>
+      <c r="B22" s="76"/>
       <c r="C22" s="58">
         <v>4.6600000000000003E-2</v>
       </c>
@@ -3303,10 +3377,10 @@
       <c r="F22" s="65">
         <v>7.7999999999999996E-3</v>
       </c>
-      <c r="H22" s="73" t="s">
+      <c r="H22" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="I22" s="74"/>
+      <c r="I22" s="76"/>
       <c r="J22" s="67">
         <v>3.5000000000000001E-3</v>
       </c>
@@ -3316,8 +3390,11 @@
       <c r="L22" s="72">
         <v>-1.1999999999999999E-3</v>
       </c>
-      <c r="M22" s="76">
+      <c r="M22" s="73">
         <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="N22" s="78">
+        <v>6.7999999999999996E-3</v>
       </c>
       <c r="O22" s="10"/>
       <c r="P22" s="10"/>
@@ -3327,10 +3404,10 @@
       <c r="AC22" s="10"/>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A23" s="73" t="s">
+      <c r="A23" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="74"/>
+      <c r="B23" s="76"/>
       <c r="C23" s="58">
         <v>5.4100000000000002E-2</v>
       </c>
@@ -3343,10 +3420,10 @@
       <c r="F23" s="66">
         <v>-4.7000000000000002E-3</v>
       </c>
-      <c r="H23" s="73" t="s">
+      <c r="H23" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="I23" s="74"/>
+      <c r="I23" s="76"/>
       <c r="J23" s="67">
         <v>1.26E-2</v>
       </c>
@@ -3356,8 +3433,11 @@
       <c r="L23" s="72">
         <v>-3.7000000000000002E-3</v>
       </c>
-      <c r="M23" s="76">
+      <c r="M23" s="73">
         <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="N23" s="78">
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="O23" s="10"/>
       <c r="P23" s="10"/>
@@ -3367,10 +3447,10 @@
       <c r="AC23" s="10"/>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A24" s="73" t="s">
+      <c r="A24" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="74"/>
+      <c r="B24" s="76"/>
       <c r="C24" s="58">
         <v>4.0899999999999999E-2</v>
       </c>
@@ -3383,10 +3463,10 @@
       <c r="F24" s="66">
         <v>-6.1999999999999998E-3</v>
       </c>
-      <c r="H24" s="73" t="s">
+      <c r="H24" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="I24" s="74"/>
+      <c r="I24" s="76"/>
       <c r="J24" s="67">
         <v>8.3999999999999995E-3</v>
       </c>
@@ -3396,8 +3476,11 @@
       <c r="L24" s="71">
         <v>2.8400000000000002E-2</v>
       </c>
-      <c r="M24" s="76">
+      <c r="M24" s="73">
         <v>1.9099999999999999E-2</v>
+      </c>
+      <c r="N24" s="78">
+        <v>2.76E-2</v>
       </c>
       <c r="O24" s="10"/>
       <c r="P24" s="10"/>
@@ -3407,10 +3490,10 @@
       <c r="AC24" s="10"/>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="H25" s="73" t="s">
+      <c r="H25" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="I25" s="74"/>
+      <c r="I25" s="76"/>
       <c r="J25" s="68">
         <v>-4.4000000000000003E-3</v>
       </c>
@@ -3420,8 +3503,11 @@
       <c r="L25" s="71">
         <v>6.7999999999999996E-3</v>
       </c>
-      <c r="M25" s="76">
+      <c r="M25" s="73">
         <v>3.2599999999999997E-2</v>
+      </c>
+      <c r="N25" s="79">
+        <v>-1.21E-2</v>
       </c>
       <c r="O25" s="10"/>
       <c r="P25" s="10"/>
@@ -3432,6 +3518,41 @@
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
@@ -3444,41 +3565,6 @@
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
